--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-iOS-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-iOS-QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/tps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E03FDB-FCBC-614B-AD81-752D205A555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D6370-9E6F-9546-9E3F-B770E3449134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1200" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PR Test Plan" sheetId="1" r:id="rId1"/>
@@ -367,8 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -408,10 +408,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,10 +420,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,40 +438,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,6 +451,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,10 +992,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="16"/>
@@ -1043,14 +1016,14 @@
       <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="8"/>
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16"/>
@@ -1071,14 +1044,14 @@
       <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="8"/>
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="16"/>
@@ -1099,14 +1072,14 @@
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="8"/>
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="16"/>
@@ -1127,12 +1100,12 @@
       <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="8"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1151,10 +1124,10 @@
       <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="8"/>
       <c r="D8" s="23" t="s">
         <v>17</v>
       </c>
@@ -1177,10 +1150,10 @@
       <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="14"/>
@@ -1206,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="15"/>
@@ -1228,11 +1201,11 @@
       <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="8"/>
+      <c r="D11" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="18"/>
@@ -1254,12 +1227,12 @@
       <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19"/>
@@ -1286,8 +1259,8 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1306,10 +1279,10 @@
       <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="22"/>
       <c r="D14" s="25" t="s">
         <v>28</v>
@@ -1333,15 +1306,15 @@
       <c r="U14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1365,10 +1338,10 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1387,10 +1360,9 @@
       <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="24"/>
@@ -1404,13 +1376,11 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="34"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1429,13 +1399,11 @@
       <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="34"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -1454,13 +1422,11 @@
       <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="34"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1479,10 +1445,8 @@
       <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="34"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="16"/>
@@ -22812,6 +22776,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5D778AC6A79A84EAA5B25C5A2BFF7B6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4061397ea8fd8f272d8b26ba942e61d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cd0eaed-44fe-4f97-8632-c05a782ebbb7" xmlns:ns3="75164c79-2692-43d6-94a7-34b44bf80abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b13378bff9c1c8ba474ff50185c4976f" ns2:_="" ns3:_="">
     <xsd:import namespace="3cd0eaed-44fe-4f97-8632-c05a782ebbb7"/>
@@ -22976,12 +22946,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22992,6 +22956,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23010,15 +22983,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}">
   <ds:schemaRefs>

--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-iOS-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-iOS-QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DD3D6370-9E6F-9546-9E3F-B770E3449134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC3A7AF-C29C-4302-92EA-AB67EE9A8934}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{DD3D6370-9E6F-9546-9E3F-B770E3449134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D80464F-97A5-47A8-AB6C-DFAE23F48E24}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PR ${PR_NUMBER} Test Plan - ${APP_VERSION} - ${BUILD_ENV}</t>
   </si>
@@ -53,7 +53,43 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6 AM and 5 PM, Mon-Fri</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -164,17 +200,26 @@
     <t>Barcode Generator (2D) - Invalid Barcode</t>
   </si>
   <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
     <t>Regression Test Result</t>
   </si>
   <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
+  </si>
+  <si>
     <t>PASS / FAIL</t>
+  </si>
+  <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,6 +282,24 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="14">
@@ -395,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -451,9 +514,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -466,14 +526,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +543,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -958,25 +1069,25 @@
   </sheetPr>
   <dimension ref="A1:U947"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="128" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="103" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="28" customWidth="1"/>
     <col min="3" max="3" width="5" style="16" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="28" style="12" customWidth="1"/>
     <col min="6" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="51">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15"/>
@@ -1002,10 +1113,10 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
@@ -1027,17 +1138,18 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="11"/>
@@ -1061,11 +1173,12 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="11"/>
@@ -1086,14 +1199,15 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="11"/>
@@ -1114,14 +1228,15 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="11"/>
@@ -1142,12 +1257,13 @@
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1166,10 +1282,11 @@
       <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
@@ -1192,11 +1309,12 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="9"/>
@@ -1218,10 +1336,12 @@
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" ht="18" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="41" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="10"/>
@@ -1246,8 +1366,9 @@
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="13"/>
@@ -1269,12 +1390,12 @@
       <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="14"/>
@@ -1296,13 +1417,13 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1324,12 +1445,12 @@
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1348,15 +1469,15 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1375,15 +1496,15 @@
       <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1405,12 +1526,12 @@
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1421,12 +1542,13 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1445,11 +1567,13 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
-      <c r="C19" s="17"/>
-      <c r="D19" s="22" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1468,11 +1592,13 @@
       <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1">
-      <c r="C20" s="17"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1491,11 +1617,13 @@
       <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
-      <c r="C21" s="17"/>
-      <c r="D21" s="22" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1514,9 +1642,13 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" ht="18" customHeight="1">
-      <c r="C22" s="17"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1536,11 +1668,14 @@
     </row>
     <row r="23" spans="1:21" ht="18" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="46"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1559,11 +1694,13 @@
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
+      <c r="A24" s="47" t="s">
+        <v>45</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1581,11 +1718,14 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="11"/>
+    <row r="25" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1605,7 +1745,7 @@
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="17"/>
       <c r="D26" s="11"/>
       <c r="F26" s="11"/>
@@ -1627,7 +1767,7 @@
     </row>
     <row r="27" spans="1:21" ht="18" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="17"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1650,7 +1790,7 @@
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="17"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1673,7 +1813,7 @@
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="27"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1695,7 +1835,7 @@
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="27"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1717,7 +1857,7 @@
     </row>
     <row r="31" spans="1:21" ht="18" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="27"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1739,7 +1879,7 @@
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="27"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1761,7 +1901,7 @@
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="17"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1784,7 +1924,7 @@
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="17"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1807,7 +1947,7 @@
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="17"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1830,7 +1970,7 @@
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="17"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1853,7 +1993,7 @@
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="17"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1876,7 +2016,7 @@
     </row>
     <row r="38" spans="1:21" ht="18" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="17"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1899,7 +2039,7 @@
     </row>
     <row r="39" spans="1:21" ht="18" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="17"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -1922,7 +2062,7 @@
     </row>
     <row r="40" spans="1:21" ht="18" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="17"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -1945,7 +2085,7 @@
     </row>
     <row r="41" spans="1:21" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="17"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1968,7 +2108,7 @@
     </row>
     <row r="42" spans="1:21" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="17"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1991,7 +2131,7 @@
     </row>
     <row r="43" spans="1:21" ht="18" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="17"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2014,7 +2154,7 @@
     </row>
     <row r="44" spans="1:21" ht="18" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="17"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -2037,7 +2177,7 @@
     </row>
     <row r="45" spans="1:21" ht="18" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="17"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -2060,7 +2200,7 @@
     </row>
     <row r="46" spans="1:21" ht="18" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="17"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2083,7 +2223,7 @@
     </row>
     <row r="47" spans="1:21" ht="18" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="17"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2106,7 +2246,7 @@
     </row>
     <row r="48" spans="1:21" ht="18" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="17"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2129,7 +2269,7 @@
     </row>
     <row r="49" spans="1:21" ht="18" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="17"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -2152,7 +2292,7 @@
     </row>
     <row r="50" spans="1:21" ht="18" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="30"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="17"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -2175,7 +2315,7 @@
     </row>
     <row r="51" spans="1:21" ht="18" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="17"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2198,7 +2338,7 @@
     </row>
     <row r="52" spans="1:21" ht="18" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="30"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="17"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -2221,7 +2361,7 @@
     </row>
     <row r="53" spans="1:21" ht="18" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="17"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -2244,7 +2384,7 @@
     </row>
     <row r="54" spans="1:21" ht="18" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="17"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -2267,7 +2407,7 @@
     </row>
     <row r="55" spans="1:21" ht="18" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="17"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -2290,7 +2430,7 @@
     </row>
     <row r="56" spans="1:21" ht="18" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="17"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -2313,7 +2453,7 @@
     </row>
     <row r="57" spans="1:21" ht="18" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="17"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2336,7 +2476,7 @@
     </row>
     <row r="58" spans="1:21" ht="18" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="30"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="17"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -2359,7 +2499,7 @@
     </row>
     <row r="59" spans="1:21" ht="18" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="30"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="17"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2382,7 +2522,7 @@
     </row>
     <row r="60" spans="1:21" ht="18" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="17"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -2405,7 +2545,7 @@
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="17"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -2428,7 +2568,7 @@
     </row>
     <row r="62" spans="1:21" ht="18" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="17"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -2451,7 +2591,7 @@
     </row>
     <row r="63" spans="1:21" ht="18" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="17"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2474,7 +2614,7 @@
     </row>
     <row r="64" spans="1:21" ht="18" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="17"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -2497,7 +2637,7 @@
     </row>
     <row r="65" spans="1:21" ht="18" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="17"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -2520,7 +2660,7 @@
     </row>
     <row r="66" spans="1:21" ht="18" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="17"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -2543,7 +2683,7 @@
     </row>
     <row r="67" spans="1:21" ht="18" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="17"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -2566,7 +2706,7 @@
     </row>
     <row r="68" spans="1:21" ht="18" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="17"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -2589,7 +2729,7 @@
     </row>
     <row r="69" spans="1:21" ht="18" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="30"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="17"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -2612,7 +2752,7 @@
     </row>
     <row r="70" spans="1:21" ht="18" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="30"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="17"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2635,7 +2775,7 @@
     </row>
     <row r="71" spans="1:21" ht="18" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="17"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -2658,7 +2798,7 @@
     </row>
     <row r="72" spans="1:21" ht="18" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="30"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="17"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -2681,7 +2821,7 @@
     </row>
     <row r="73" spans="1:21" ht="18" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="30"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="17"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -2704,7 +2844,7 @@
     </row>
     <row r="74" spans="1:21" ht="18" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="30"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="17"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -2727,7 +2867,7 @@
     </row>
     <row r="75" spans="1:21" ht="18" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="30"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="17"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2750,7 +2890,7 @@
     </row>
     <row r="76" spans="1:21" ht="18" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="30"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="17"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -2773,7 +2913,7 @@
     </row>
     <row r="77" spans="1:21" ht="18" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="30"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="17"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -2796,7 +2936,7 @@
     </row>
     <row r="78" spans="1:21" ht="18" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="30"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="17"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -2819,7 +2959,7 @@
     </row>
     <row r="79" spans="1:21" ht="18" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="17"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -2842,7 +2982,7 @@
     </row>
     <row r="80" spans="1:21" ht="18" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="30"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="17"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -2865,7 +3005,7 @@
     </row>
     <row r="81" spans="1:21" ht="18" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="30"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="17"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2888,7 +3028,7 @@
     </row>
     <row r="82" spans="1:21" ht="18" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="30"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="17"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -2911,7 +3051,7 @@
     </row>
     <row r="83" spans="1:21" ht="18" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="30"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="17"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -2934,7 +3074,7 @@
     </row>
     <row r="84" spans="1:21" ht="18" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="30"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="17"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -2957,7 +3097,7 @@
     </row>
     <row r="85" spans="1:21" ht="18" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="30"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="17"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -2980,7 +3120,7 @@
     </row>
     <row r="86" spans="1:21" ht="18" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="30"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="17"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3003,7 +3143,7 @@
     </row>
     <row r="87" spans="1:21" ht="18" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="30"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="17"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -3026,7 +3166,7 @@
     </row>
     <row r="88" spans="1:21" ht="18" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="30"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="17"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -3049,7 +3189,7 @@
     </row>
     <row r="89" spans="1:21" ht="18" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="30"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="17"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -3072,7 +3212,7 @@
     </row>
     <row r="90" spans="1:21" ht="18" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="30"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="17"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -3095,7 +3235,7 @@
     </row>
     <row r="91" spans="1:21" ht="18" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="30"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="17"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -3118,7 +3258,7 @@
     </row>
     <row r="92" spans="1:21" ht="18" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="30"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="17"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -3141,7 +3281,7 @@
     </row>
     <row r="93" spans="1:21" ht="18" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="30"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="17"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -3164,7 +3304,7 @@
     </row>
     <row r="94" spans="1:21" ht="18" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="30"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="17"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -3187,7 +3327,7 @@
     </row>
     <row r="95" spans="1:21" ht="18" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="30"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="17"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3210,7 +3350,7 @@
     </row>
     <row r="96" spans="1:21" ht="18" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="30"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="17"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3233,7 +3373,7 @@
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="30"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="17"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -3256,7 +3396,7 @@
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="30"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="17"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3279,7 +3419,7 @@
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="30"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="17"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3302,7 +3442,7 @@
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="30"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="17"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3325,7 +3465,7 @@
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="30"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="17"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3348,7 +3488,7 @@
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="30"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="17"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3371,7 +3511,7 @@
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="30"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="17"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -3394,7 +3534,7 @@
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="30"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="17"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -3417,7 +3557,7 @@
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="30"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="17"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -3440,7 +3580,7 @@
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="30"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="17"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -3463,7 +3603,7 @@
     </row>
     <row r="107" spans="1:21" ht="18" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="30"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="17"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -3486,7 +3626,7 @@
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="30"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="17"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -3509,7 +3649,7 @@
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="30"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="17"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3532,7 +3672,7 @@
     </row>
     <row r="110" spans="1:21" ht="18" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="30"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="17"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -3555,7 +3695,7 @@
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="30"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="17"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -3578,7 +3718,7 @@
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="30"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="17"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -3601,7 +3741,7 @@
     </row>
     <row r="113" spans="1:21" ht="18" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="30"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="17"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -3624,7 +3764,7 @@
     </row>
     <row r="114" spans="1:21" ht="18" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="30"/>
+      <c r="B114" s="27"/>
       <c r="C114" s="17"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3647,7 +3787,7 @@
     </row>
     <row r="115" spans="1:21" ht="18" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="30"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="17"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -3670,7 +3810,7 @@
     </row>
     <row r="116" spans="1:21" ht="18" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="30"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="17"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -3693,7 +3833,7 @@
     </row>
     <row r="117" spans="1:21" ht="18" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="30"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="17"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -3716,7 +3856,7 @@
     </row>
     <row r="118" spans="1:21" ht="18" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="30"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="17"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -3739,7 +3879,7 @@
     </row>
     <row r="119" spans="1:21" ht="18" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="30"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="17"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -3762,7 +3902,7 @@
     </row>
     <row r="120" spans="1:21" ht="18" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="30"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="17"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -3785,7 +3925,7 @@
     </row>
     <row r="121" spans="1:21" ht="18" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="30"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="17"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -3808,7 +3948,7 @@
     </row>
     <row r="122" spans="1:21" ht="18" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="30"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="17"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -3831,7 +3971,7 @@
     </row>
     <row r="123" spans="1:21" ht="18" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="30"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="17"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -3854,7 +3994,7 @@
     </row>
     <row r="124" spans="1:21" ht="18" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="30"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="17"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -3877,7 +4017,7 @@
     </row>
     <row r="125" spans="1:21" ht="18" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="30"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="17"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -3900,7 +4040,7 @@
     </row>
     <row r="126" spans="1:21" ht="18" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="30"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="17"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -3923,7 +4063,7 @@
     </row>
     <row r="127" spans="1:21" ht="18" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="30"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="17"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
@@ -3946,7 +4086,7 @@
     </row>
     <row r="128" spans="1:21" ht="18" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="30"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="17"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -3969,7 +4109,7 @@
     </row>
     <row r="129" spans="1:21" ht="18" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="30"/>
+      <c r="B129" s="27"/>
       <c r="C129" s="17"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
@@ -3992,7 +4132,7 @@
     </row>
     <row r="130" spans="1:21" ht="18" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="30"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="17"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -4015,7 +4155,7 @@
     </row>
     <row r="131" spans="1:21" ht="18" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="30"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="17"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
@@ -4038,7 +4178,7 @@
     </row>
     <row r="132" spans="1:21" ht="18" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="30"/>
+      <c r="B132" s="27"/>
       <c r="C132" s="17"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -4061,7 +4201,7 @@
     </row>
     <row r="133" spans="1:21" ht="18" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="30"/>
+      <c r="B133" s="27"/>
       <c r="C133" s="17"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -4084,7 +4224,7 @@
     </row>
     <row r="134" spans="1:21" ht="18" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="30"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="17"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -4107,7 +4247,7 @@
     </row>
     <row r="135" spans="1:21" ht="18" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="30"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="17"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -4130,7 +4270,7 @@
     </row>
     <row r="136" spans="1:21" ht="18" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="30"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="17"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -4153,7 +4293,7 @@
     </row>
     <row r="137" spans="1:21" ht="18" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="30"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="17"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
@@ -4176,7 +4316,7 @@
     </row>
     <row r="138" spans="1:21" ht="18" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="30"/>
+      <c r="B138" s="27"/>
       <c r="C138" s="17"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -4199,7 +4339,7 @@
     </row>
     <row r="139" spans="1:21" ht="18" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="30"/>
+      <c r="B139" s="27"/>
       <c r="C139" s="17"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
@@ -4222,7 +4362,7 @@
     </row>
     <row r="140" spans="1:21" ht="18" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="30"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="17"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
@@ -4245,7 +4385,7 @@
     </row>
     <row r="141" spans="1:21" ht="18" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="30"/>
+      <c r="B141" s="27"/>
       <c r="C141" s="17"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -4268,7 +4408,7 @@
     </row>
     <row r="142" spans="1:21" ht="18" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="30"/>
+      <c r="B142" s="27"/>
       <c r="C142" s="17"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -4291,7 +4431,7 @@
     </row>
     <row r="143" spans="1:21" ht="18" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="30"/>
+      <c r="B143" s="27"/>
       <c r="C143" s="17"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -4314,7 +4454,7 @@
     </row>
     <row r="144" spans="1:21" ht="18" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="30"/>
+      <c r="B144" s="27"/>
       <c r="C144" s="17"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -4337,7 +4477,7 @@
     </row>
     <row r="145" spans="1:21" ht="18" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="30"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="17"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -4360,7 +4500,7 @@
     </row>
     <row r="146" spans="1:21" ht="18" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="30"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="17"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -4383,7 +4523,7 @@
     </row>
     <row r="147" spans="1:21" ht="18" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="30"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="17"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -4406,7 +4546,7 @@
     </row>
     <row r="148" spans="1:21" ht="18" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="17"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -4429,7 +4569,7 @@
     </row>
     <row r="149" spans="1:21" ht="18" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="17"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -4452,7 +4592,7 @@
     </row>
     <row r="150" spans="1:21" ht="18" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="30"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="17"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -4475,7 +4615,7 @@
     </row>
     <row r="151" spans="1:21" ht="18" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="30"/>
+      <c r="B151" s="27"/>
       <c r="C151" s="17"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -4498,7 +4638,7 @@
     </row>
     <row r="152" spans="1:21" ht="18" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="30"/>
+      <c r="B152" s="27"/>
       <c r="C152" s="17"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -4521,7 +4661,7 @@
     </row>
     <row r="153" spans="1:21" ht="18" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="30"/>
+      <c r="B153" s="27"/>
       <c r="C153" s="17"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -4544,7 +4684,7 @@
     </row>
     <row r="154" spans="1:21" ht="18" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="30"/>
+      <c r="B154" s="27"/>
       <c r="C154" s="17"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -4567,7 +4707,7 @@
     </row>
     <row r="155" spans="1:21" ht="18" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="30"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="17"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -4590,7 +4730,7 @@
     </row>
     <row r="156" spans="1:21" ht="18" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="30"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="17"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -4613,7 +4753,7 @@
     </row>
     <row r="157" spans="1:21" ht="18" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="30"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="17"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -4636,7 +4776,7 @@
     </row>
     <row r="158" spans="1:21" ht="18" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="30"/>
+      <c r="B158" s="27"/>
       <c r="C158" s="17"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -4659,7 +4799,7 @@
     </row>
     <row r="159" spans="1:21" ht="18" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="30"/>
+      <c r="B159" s="27"/>
       <c r="C159" s="17"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -4682,7 +4822,7 @@
     </row>
     <row r="160" spans="1:21" ht="18" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="30"/>
+      <c r="B160" s="27"/>
       <c r="C160" s="17"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -4705,7 +4845,7 @@
     </row>
     <row r="161" spans="1:21" ht="18" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="30"/>
+      <c r="B161" s="27"/>
       <c r="C161" s="17"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
@@ -4728,7 +4868,7 @@
     </row>
     <row r="162" spans="1:21" ht="18" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="30"/>
+      <c r="B162" s="27"/>
       <c r="C162" s="17"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -4751,7 +4891,7 @@
     </row>
     <row r="163" spans="1:21" ht="18" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="30"/>
+      <c r="B163" s="27"/>
       <c r="C163" s="17"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -4774,7 +4914,7 @@
     </row>
     <row r="164" spans="1:21" ht="18" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="30"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="17"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -4797,7 +4937,7 @@
     </row>
     <row r="165" spans="1:21" ht="18" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="30"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="17"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -4820,7 +4960,7 @@
     </row>
     <row r="166" spans="1:21" ht="18" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="30"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="17"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -4843,7 +4983,7 @@
     </row>
     <row r="167" spans="1:21" ht="18" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="30"/>
+      <c r="B167" s="27"/>
       <c r="C167" s="17"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
@@ -4866,7 +5006,7 @@
     </row>
     <row r="168" spans="1:21" ht="18" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="30"/>
+      <c r="B168" s="27"/>
       <c r="C168" s="17"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -4889,7 +5029,7 @@
     </row>
     <row r="169" spans="1:21" ht="18" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="30"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="17"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
@@ -4912,7 +5052,7 @@
     </row>
     <row r="170" spans="1:21" ht="18" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="30"/>
+      <c r="B170" s="27"/>
       <c r="C170" s="17"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4935,7 +5075,7 @@
     </row>
     <row r="171" spans="1:21" ht="18" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="30"/>
+      <c r="B171" s="27"/>
       <c r="C171" s="17"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -4958,7 +5098,7 @@
     </row>
     <row r="172" spans="1:21" ht="18" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="30"/>
+      <c r="B172" s="27"/>
       <c r="C172" s="17"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -4981,7 +5121,7 @@
     </row>
     <row r="173" spans="1:21" ht="18" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="30"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="17"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -5004,7 +5144,7 @@
     </row>
     <row r="174" spans="1:21" ht="18" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="30"/>
+      <c r="B174" s="27"/>
       <c r="C174" s="17"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -5027,7 +5167,7 @@
     </row>
     <row r="175" spans="1:21" ht="18" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="30"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="17"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -5050,7 +5190,7 @@
     </row>
     <row r="176" spans="1:21" ht="18" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="30"/>
+      <c r="B176" s="27"/>
       <c r="C176" s="17"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
@@ -5073,7 +5213,7 @@
     </row>
     <row r="177" spans="1:21" ht="18" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="30"/>
+      <c r="B177" s="27"/>
       <c r="C177" s="17"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
@@ -5096,7 +5236,7 @@
     </row>
     <row r="178" spans="1:21" ht="18" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="30"/>
+      <c r="B178" s="27"/>
       <c r="C178" s="17"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -5119,7 +5259,7 @@
     </row>
     <row r="179" spans="1:21" ht="18" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="30"/>
+      <c r="B179" s="27"/>
       <c r="C179" s="17"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -5142,7 +5282,7 @@
     </row>
     <row r="180" spans="1:21" ht="18" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="30"/>
+      <c r="B180" s="27"/>
       <c r="C180" s="17"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -5165,7 +5305,7 @@
     </row>
     <row r="181" spans="1:21" ht="18" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="30"/>
+      <c r="B181" s="27"/>
       <c r="C181" s="17"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -5188,7 +5328,7 @@
     </row>
     <row r="182" spans="1:21" ht="18" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="30"/>
+      <c r="B182" s="27"/>
       <c r="C182" s="17"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -5211,7 +5351,7 @@
     </row>
     <row r="183" spans="1:21" ht="18" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="30"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="17"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -5234,7 +5374,7 @@
     </row>
     <row r="184" spans="1:21" ht="18" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="30"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="17"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
@@ -5257,7 +5397,7 @@
     </row>
     <row r="185" spans="1:21" ht="18" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="30"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="17"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -5280,7 +5420,7 @@
     </row>
     <row r="186" spans="1:21" ht="18" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="30"/>
+      <c r="B186" s="27"/>
       <c r="C186" s="17"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -5303,7 +5443,7 @@
     </row>
     <row r="187" spans="1:21" ht="18" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="30"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="17"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -5326,7 +5466,7 @@
     </row>
     <row r="188" spans="1:21" ht="18" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="30"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="17"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -5349,7 +5489,7 @@
     </row>
     <row r="189" spans="1:21" ht="18" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="30"/>
+      <c r="B189" s="27"/>
       <c r="C189" s="17"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -5372,7 +5512,7 @@
     </row>
     <row r="190" spans="1:21" ht="18" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="30"/>
+      <c r="B190" s="27"/>
       <c r="C190" s="17"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -5395,7 +5535,7 @@
     </row>
     <row r="191" spans="1:21" ht="18" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="30"/>
+      <c r="B191" s="27"/>
       <c r="C191" s="17"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -5418,7 +5558,7 @@
     </row>
     <row r="192" spans="1:21" ht="18" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="30"/>
+      <c r="B192" s="27"/>
       <c r="C192" s="17"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -5441,7 +5581,7 @@
     </row>
     <row r="193" spans="1:21" ht="18" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="30"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="17"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -5464,7 +5604,7 @@
     </row>
     <row r="194" spans="1:21" ht="18" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="30"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="17"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -5487,7 +5627,7 @@
     </row>
     <row r="195" spans="1:21" ht="18" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="30"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="17"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -5510,7 +5650,7 @@
     </row>
     <row r="196" spans="1:21" ht="18" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="30"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="17"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -5533,7 +5673,7 @@
     </row>
     <row r="197" spans="1:21" ht="18" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="30"/>
+      <c r="B197" s="27"/>
       <c r="C197" s="17"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -5556,7 +5696,7 @@
     </row>
     <row r="198" spans="1:21" ht="18" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="30"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="17"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -5579,7 +5719,7 @@
     </row>
     <row r="199" spans="1:21" ht="18" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="30"/>
+      <c r="B199" s="27"/>
       <c r="C199" s="17"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -5602,7 +5742,7 @@
     </row>
     <row r="200" spans="1:21" ht="18" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="30"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="17"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -5625,7 +5765,7 @@
     </row>
     <row r="201" spans="1:21" ht="18" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="30"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="17"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
@@ -5648,7 +5788,7 @@
     </row>
     <row r="202" spans="1:21" ht="18" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="30"/>
+      <c r="B202" s="27"/>
       <c r="C202" s="17"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
@@ -5671,7 +5811,7 @@
     </row>
     <row r="203" spans="1:21" ht="18" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="30"/>
+      <c r="B203" s="27"/>
       <c r="C203" s="17"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
@@ -5694,7 +5834,7 @@
     </row>
     <row r="204" spans="1:21" ht="18" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="30"/>
+      <c r="B204" s="27"/>
       <c r="C204" s="17"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
@@ -5717,7 +5857,7 @@
     </row>
     <row r="205" spans="1:21" ht="18" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="30"/>
+      <c r="B205" s="27"/>
       <c r="C205" s="17"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -5740,7 +5880,7 @@
     </row>
     <row r="206" spans="1:21" ht="18" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="30"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="17"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -5763,7 +5903,7 @@
     </row>
     <row r="207" spans="1:21" ht="18" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="30"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="17"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -5786,7 +5926,7 @@
     </row>
     <row r="208" spans="1:21" ht="18" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="27"/>
       <c r="C208" s="17"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -5809,7 +5949,7 @@
     </row>
     <row r="209" spans="1:21" ht="18" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="30"/>
+      <c r="B209" s="27"/>
       <c r="C209" s="17"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -5832,7 +5972,7 @@
     </row>
     <row r="210" spans="1:21" ht="18" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="30"/>
+      <c r="B210" s="27"/>
       <c r="C210" s="17"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -5855,7 +5995,7 @@
     </row>
     <row r="211" spans="1:21" ht="18" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="30"/>
+      <c r="B211" s="27"/>
       <c r="C211" s="17"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
@@ -5878,7 +6018,7 @@
     </row>
     <row r="212" spans="1:21" ht="18" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="30"/>
+      <c r="B212" s="27"/>
       <c r="C212" s="17"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
@@ -5901,7 +6041,7 @@
     </row>
     <row r="213" spans="1:21" ht="18" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="30"/>
+      <c r="B213" s="27"/>
       <c r="C213" s="17"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -5924,7 +6064,7 @@
     </row>
     <row r="214" spans="1:21" ht="18" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="30"/>
+      <c r="B214" s="27"/>
       <c r="C214" s="17"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -5947,7 +6087,7 @@
     </row>
     <row r="215" spans="1:21" ht="18" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="30"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="17"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -5970,7 +6110,7 @@
     </row>
     <row r="216" spans="1:21" ht="18" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="30"/>
+      <c r="B216" s="27"/>
       <c r="C216" s="17"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -5993,7 +6133,7 @@
     </row>
     <row r="217" spans="1:21" ht="18" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="30"/>
+      <c r="B217" s="27"/>
       <c r="C217" s="17"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
@@ -6016,7 +6156,7 @@
     </row>
     <row r="218" spans="1:21" ht="18" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="30"/>
+      <c r="B218" s="27"/>
       <c r="C218" s="17"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -6039,7 +6179,7 @@
     </row>
     <row r="219" spans="1:21" ht="18" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="30"/>
+      <c r="B219" s="27"/>
       <c r="C219" s="17"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -6062,7 +6202,7 @@
     </row>
     <row r="220" spans="1:21" ht="18" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="30"/>
+      <c r="B220" s="27"/>
       <c r="C220" s="17"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -6085,7 +6225,7 @@
     </row>
     <row r="221" spans="1:21" ht="18" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="30"/>
+      <c r="B221" s="27"/>
       <c r="C221" s="17"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -6108,7 +6248,7 @@
     </row>
     <row r="222" spans="1:21" ht="18" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="30"/>
+      <c r="B222" s="27"/>
       <c r="C222" s="17"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -6131,7 +6271,7 @@
     </row>
     <row r="223" spans="1:21" ht="18" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="30"/>
+      <c r="B223" s="27"/>
       <c r="C223" s="17"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -6154,7 +6294,7 @@
     </row>
     <row r="224" spans="1:21" ht="18" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="30"/>
+      <c r="B224" s="27"/>
       <c r="C224" s="17"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
@@ -6177,7 +6317,7 @@
     </row>
     <row r="225" spans="1:21" ht="18" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="30"/>
+      <c r="B225" s="27"/>
       <c r="C225" s="17"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
@@ -6200,7 +6340,7 @@
     </row>
     <row r="226" spans="1:21" ht="18" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="30"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="17"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
@@ -6223,7 +6363,7 @@
     </row>
     <row r="227" spans="1:21" ht="18" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="30"/>
+      <c r="B227" s="27"/>
       <c r="C227" s="17"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -6246,7 +6386,7 @@
     </row>
     <row r="228" spans="1:21" ht="18" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="30"/>
+      <c r="B228" s="27"/>
       <c r="C228" s="17"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
@@ -6269,7 +6409,7 @@
     </row>
     <row r="229" spans="1:21" ht="18" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="30"/>
+      <c r="B229" s="27"/>
       <c r="C229" s="17"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
@@ -6292,7 +6432,7 @@
     </row>
     <row r="230" spans="1:21" ht="18" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="30"/>
+      <c r="B230" s="27"/>
       <c r="C230" s="17"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
@@ -6315,7 +6455,7 @@
     </row>
     <row r="231" spans="1:21" ht="18" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="30"/>
+      <c r="B231" s="27"/>
       <c r="C231" s="17"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -6338,7 +6478,7 @@
     </row>
     <row r="232" spans="1:21" ht="18" customHeight="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="30"/>
+      <c r="B232" s="27"/>
       <c r="C232" s="17"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -6361,7 +6501,7 @@
     </row>
     <row r="233" spans="1:21" ht="18" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="30"/>
+      <c r="B233" s="27"/>
       <c r="C233" s="17"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -6384,7 +6524,7 @@
     </row>
     <row r="234" spans="1:21" ht="18" customHeight="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="30"/>
+      <c r="B234" s="27"/>
       <c r="C234" s="17"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -6407,7 +6547,7 @@
     </row>
     <row r="235" spans="1:21" ht="18" customHeight="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="30"/>
+      <c r="B235" s="27"/>
       <c r="C235" s="17"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
@@ -6430,7 +6570,7 @@
     </row>
     <row r="236" spans="1:21" ht="18" customHeight="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="30"/>
+      <c r="B236" s="27"/>
       <c r="C236" s="17"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -6453,7 +6593,7 @@
     </row>
     <row r="237" spans="1:21" ht="18" customHeight="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="30"/>
+      <c r="B237" s="27"/>
       <c r="C237" s="17"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -6476,7 +6616,7 @@
     </row>
     <row r="238" spans="1:21" ht="18" customHeight="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="30"/>
+      <c r="B238" s="27"/>
       <c r="C238" s="17"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -6499,7 +6639,7 @@
     </row>
     <row r="239" spans="1:21" ht="18" customHeight="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="30"/>
+      <c r="B239" s="27"/>
       <c r="C239" s="17"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
@@ -6522,7 +6662,7 @@
     </row>
     <row r="240" spans="1:21" ht="18" customHeight="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="30"/>
+      <c r="B240" s="27"/>
       <c r="C240" s="17"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
@@ -6545,7 +6685,7 @@
     </row>
     <row r="241" spans="1:21" ht="18" customHeight="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="30"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="17"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
@@ -6568,7 +6708,7 @@
     </row>
     <row r="242" spans="1:21" ht="18" customHeight="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="30"/>
+      <c r="B242" s="27"/>
       <c r="C242" s="17"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
@@ -6591,7 +6731,7 @@
     </row>
     <row r="243" spans="1:21" ht="18" customHeight="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="30"/>
+      <c r="B243" s="27"/>
       <c r="C243" s="17"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -6614,7 +6754,7 @@
     </row>
     <row r="244" spans="1:21" ht="18" customHeight="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="30"/>
+      <c r="B244" s="27"/>
       <c r="C244" s="17"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -6637,7 +6777,7 @@
     </row>
     <row r="245" spans="1:21" ht="18" customHeight="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="30"/>
+      <c r="B245" s="27"/>
       <c r="C245" s="17"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -6660,7 +6800,7 @@
     </row>
     <row r="246" spans="1:21" ht="18" customHeight="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="30"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="17"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -6683,7 +6823,7 @@
     </row>
     <row r="247" spans="1:21" ht="18" customHeight="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="30"/>
+      <c r="B247" s="27"/>
       <c r="C247" s="17"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -6706,7 +6846,7 @@
     </row>
     <row r="248" spans="1:21" ht="18" customHeight="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="30"/>
+      <c r="B248" s="27"/>
       <c r="C248" s="17"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -6729,7 +6869,7 @@
     </row>
     <row r="249" spans="1:21" ht="18" customHeight="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="30"/>
+      <c r="B249" s="27"/>
       <c r="C249" s="17"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -6752,7 +6892,7 @@
     </row>
     <row r="250" spans="1:21" ht="18" customHeight="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="30"/>
+      <c r="B250" s="27"/>
       <c r="C250" s="17"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -6775,7 +6915,7 @@
     </row>
     <row r="251" spans="1:21" ht="18" customHeight="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="30"/>
+      <c r="B251" s="27"/>
       <c r="C251" s="17"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
@@ -6798,7 +6938,7 @@
     </row>
     <row r="252" spans="1:21" ht="18" customHeight="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="30"/>
+      <c r="B252" s="27"/>
       <c r="C252" s="17"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -6821,7 +6961,7 @@
     </row>
     <row r="253" spans="1:21" ht="18" customHeight="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="30"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="17"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -6844,7 +6984,7 @@
     </row>
     <row r="254" spans="1:21" ht="18" customHeight="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="30"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="17"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -6867,7 +7007,7 @@
     </row>
     <row r="255" spans="1:21" ht="18" customHeight="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="30"/>
+      <c r="B255" s="27"/>
       <c r="C255" s="17"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -6890,7 +7030,7 @@
     </row>
     <row r="256" spans="1:21" ht="18" customHeight="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="30"/>
+      <c r="B256" s="27"/>
       <c r="C256" s="17"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -6913,7 +7053,7 @@
     </row>
     <row r="257" spans="1:21" ht="18" customHeight="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="30"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="17"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
@@ -6936,7 +7076,7 @@
     </row>
     <row r="258" spans="1:21" ht="18" customHeight="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="30"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="17"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -6959,7 +7099,7 @@
     </row>
     <row r="259" spans="1:21" ht="18" customHeight="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="30"/>
+      <c r="B259" s="27"/>
       <c r="C259" s="17"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -6982,7 +7122,7 @@
     </row>
     <row r="260" spans="1:21" ht="18" customHeight="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="30"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="17"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -7005,7 +7145,7 @@
     </row>
     <row r="261" spans="1:21" ht="18" customHeight="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="30"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="17"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -7028,7 +7168,7 @@
     </row>
     <row r="262" spans="1:21" ht="18" customHeight="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="30"/>
+      <c r="B262" s="27"/>
       <c r="C262" s="17"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
@@ -7051,7 +7191,7 @@
     </row>
     <row r="263" spans="1:21" ht="18" customHeight="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="30"/>
+      <c r="B263" s="27"/>
       <c r="C263" s="17"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -7074,7 +7214,7 @@
     </row>
     <row r="264" spans="1:21" ht="18" customHeight="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="30"/>
+      <c r="B264" s="27"/>
       <c r="C264" s="17"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -7097,7 +7237,7 @@
     </row>
     <row r="265" spans="1:21" ht="18" customHeight="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="30"/>
+      <c r="B265" s="27"/>
       <c r="C265" s="17"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -7120,7 +7260,7 @@
     </row>
     <row r="266" spans="1:21" ht="18" customHeight="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="30"/>
+      <c r="B266" s="27"/>
       <c r="C266" s="17"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -7143,7 +7283,7 @@
     </row>
     <row r="267" spans="1:21" ht="18" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="30"/>
+      <c r="B267" s="27"/>
       <c r="C267" s="17"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -7166,7 +7306,7 @@
     </row>
     <row r="268" spans="1:21" ht="18" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="30"/>
+      <c r="B268" s="27"/>
       <c r="C268" s="17"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -7189,7 +7329,7 @@
     </row>
     <row r="269" spans="1:21" ht="18" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="30"/>
+      <c r="B269" s="27"/>
       <c r="C269" s="17"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -7212,7 +7352,7 @@
     </row>
     <row r="270" spans="1:21" ht="18" customHeight="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="30"/>
+      <c r="B270" s="27"/>
       <c r="C270" s="17"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -7235,7 +7375,7 @@
     </row>
     <row r="271" spans="1:21" ht="18" customHeight="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="30"/>
+      <c r="B271" s="27"/>
       <c r="C271" s="17"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -7258,7 +7398,7 @@
     </row>
     <row r="272" spans="1:21" ht="18" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="30"/>
+      <c r="B272" s="27"/>
       <c r="C272" s="17"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
@@ -7281,7 +7421,7 @@
     </row>
     <row r="273" spans="1:21" ht="18" customHeight="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="30"/>
+      <c r="B273" s="27"/>
       <c r="C273" s="17"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -7304,7 +7444,7 @@
     </row>
     <row r="274" spans="1:21" ht="18" customHeight="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="30"/>
+      <c r="B274" s="27"/>
       <c r="C274" s="17"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -7327,7 +7467,7 @@
     </row>
     <row r="275" spans="1:21" ht="18" customHeight="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="30"/>
+      <c r="B275" s="27"/>
       <c r="C275" s="17"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -7350,7 +7490,7 @@
     </row>
     <row r="276" spans="1:21" ht="18" customHeight="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="30"/>
+      <c r="B276" s="27"/>
       <c r="C276" s="17"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
@@ -7373,7 +7513,7 @@
     </row>
     <row r="277" spans="1:21" ht="18" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="30"/>
+      <c r="B277" s="27"/>
       <c r="C277" s="17"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -7396,7 +7536,7 @@
     </row>
     <row r="278" spans="1:21" ht="18" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="30"/>
+      <c r="B278" s="27"/>
       <c r="C278" s="17"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -7419,7 +7559,7 @@
     </row>
     <row r="279" spans="1:21" ht="18" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="30"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="17"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -7442,7 +7582,7 @@
     </row>
     <row r="280" spans="1:21" ht="18" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="30"/>
+      <c r="B280" s="27"/>
       <c r="C280" s="17"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
@@ -7465,7 +7605,7 @@
     </row>
     <row r="281" spans="1:21" ht="18" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="30"/>
+      <c r="B281" s="27"/>
       <c r="C281" s="17"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -7488,7 +7628,7 @@
     </row>
     <row r="282" spans="1:21" ht="18" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="30"/>
+      <c r="B282" s="27"/>
       <c r="C282" s="17"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -7511,7 +7651,7 @@
     </row>
     <row r="283" spans="1:21" ht="18" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="30"/>
+      <c r="B283" s="27"/>
       <c r="C283" s="17"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -7534,7 +7674,7 @@
     </row>
     <row r="284" spans="1:21" ht="18" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="30"/>
+      <c r="B284" s="27"/>
       <c r="C284" s="17"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
@@ -7557,7 +7697,7 @@
     </row>
     <row r="285" spans="1:21" ht="18" customHeight="1">
       <c r="A285" s="1"/>
-      <c r="B285" s="30"/>
+      <c r="B285" s="27"/>
       <c r="C285" s="17"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -7580,7 +7720,7 @@
     </row>
     <row r="286" spans="1:21" ht="18" customHeight="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="30"/>
+      <c r="B286" s="27"/>
       <c r="C286" s="17"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -7603,7 +7743,7 @@
     </row>
     <row r="287" spans="1:21" ht="18" customHeight="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="30"/>
+      <c r="B287" s="27"/>
       <c r="C287" s="17"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -7626,7 +7766,7 @@
     </row>
     <row r="288" spans="1:21" ht="18" customHeight="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="30"/>
+      <c r="B288" s="27"/>
       <c r="C288" s="17"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -7649,7 +7789,7 @@
     </row>
     <row r="289" spans="1:21" ht="18" customHeight="1">
       <c r="A289" s="1"/>
-      <c r="B289" s="30"/>
+      <c r="B289" s="27"/>
       <c r="C289" s="17"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -7672,7 +7812,7 @@
     </row>
     <row r="290" spans="1:21" ht="18" customHeight="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="30"/>
+      <c r="B290" s="27"/>
       <c r="C290" s="17"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -7695,7 +7835,7 @@
     </row>
     <row r="291" spans="1:21" ht="18" customHeight="1">
       <c r="A291" s="1"/>
-      <c r="B291" s="30"/>
+      <c r="B291" s="27"/>
       <c r="C291" s="17"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -7718,7 +7858,7 @@
     </row>
     <row r="292" spans="1:21" ht="18" customHeight="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="30"/>
+      <c r="B292" s="27"/>
       <c r="C292" s="17"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -7741,7 +7881,7 @@
     </row>
     <row r="293" spans="1:21" ht="18" customHeight="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="30"/>
+      <c r="B293" s="27"/>
       <c r="C293" s="17"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -7764,7 +7904,7 @@
     </row>
     <row r="294" spans="1:21" ht="18" customHeight="1">
       <c r="A294" s="1"/>
-      <c r="B294" s="30"/>
+      <c r="B294" s="27"/>
       <c r="C294" s="17"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -7787,7 +7927,7 @@
     </row>
     <row r="295" spans="1:21" ht="18" customHeight="1">
       <c r="A295" s="1"/>
-      <c r="B295" s="30"/>
+      <c r="B295" s="27"/>
       <c r="C295" s="17"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -7810,7 +7950,7 @@
     </row>
     <row r="296" spans="1:21" ht="18" customHeight="1">
       <c r="A296" s="1"/>
-      <c r="B296" s="30"/>
+      <c r="B296" s="27"/>
       <c r="C296" s="17"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
@@ -7833,7 +7973,7 @@
     </row>
     <row r="297" spans="1:21" ht="18" customHeight="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="30"/>
+      <c r="B297" s="27"/>
       <c r="C297" s="17"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
@@ -7856,7 +7996,7 @@
     </row>
     <row r="298" spans="1:21" ht="18" customHeight="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="30"/>
+      <c r="B298" s="27"/>
       <c r="C298" s="17"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
@@ -7879,7 +8019,7 @@
     </row>
     <row r="299" spans="1:21" ht="18" customHeight="1">
       <c r="A299" s="1"/>
-      <c r="B299" s="30"/>
+      <c r="B299" s="27"/>
       <c r="C299" s="17"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
@@ -7902,7 +8042,7 @@
     </row>
     <row r="300" spans="1:21" ht="18" customHeight="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="30"/>
+      <c r="B300" s="27"/>
       <c r="C300" s="17"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -7925,7 +8065,7 @@
     </row>
     <row r="301" spans="1:21" ht="18" customHeight="1">
       <c r="A301" s="1"/>
-      <c r="B301" s="30"/>
+      <c r="B301" s="27"/>
       <c r="C301" s="17"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
@@ -7948,7 +8088,7 @@
     </row>
     <row r="302" spans="1:21" ht="18" customHeight="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="30"/>
+      <c r="B302" s="27"/>
       <c r="C302" s="17"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -7971,7 +8111,7 @@
     </row>
     <row r="303" spans="1:21" ht="18" customHeight="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="30"/>
+      <c r="B303" s="27"/>
       <c r="C303" s="17"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
@@ -7994,7 +8134,7 @@
     </row>
     <row r="304" spans="1:21" ht="18" customHeight="1">
       <c r="A304" s="1"/>
-      <c r="B304" s="30"/>
+      <c r="B304" s="27"/>
       <c r="C304" s="17"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
@@ -8017,7 +8157,7 @@
     </row>
     <row r="305" spans="1:21" ht="18" customHeight="1">
       <c r="A305" s="1"/>
-      <c r="B305" s="30"/>
+      <c r="B305" s="27"/>
       <c r="C305" s="17"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
@@ -8040,7 +8180,7 @@
     </row>
     <row r="306" spans="1:21" ht="18" customHeight="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="30"/>
+      <c r="B306" s="27"/>
       <c r="C306" s="17"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -8063,7 +8203,7 @@
     </row>
     <row r="307" spans="1:21" ht="18" customHeight="1">
       <c r="A307" s="1"/>
-      <c r="B307" s="30"/>
+      <c r="B307" s="27"/>
       <c r="C307" s="17"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
@@ -8086,7 +8226,7 @@
     </row>
     <row r="308" spans="1:21" ht="18" customHeight="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="30"/>
+      <c r="B308" s="27"/>
       <c r="C308" s="17"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
@@ -8109,7 +8249,7 @@
     </row>
     <row r="309" spans="1:21" ht="18" customHeight="1">
       <c r="A309" s="1"/>
-      <c r="B309" s="30"/>
+      <c r="B309" s="27"/>
       <c r="C309" s="17"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
@@ -8132,7 +8272,7 @@
     </row>
     <row r="310" spans="1:21" ht="18" customHeight="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="30"/>
+      <c r="B310" s="27"/>
       <c r="C310" s="17"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
@@ -8155,7 +8295,7 @@
     </row>
     <row r="311" spans="1:21" ht="18" customHeight="1">
       <c r="A311" s="1"/>
-      <c r="B311" s="30"/>
+      <c r="B311" s="27"/>
       <c r="C311" s="17"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -8178,7 +8318,7 @@
     </row>
     <row r="312" spans="1:21" ht="18" customHeight="1">
       <c r="A312" s="1"/>
-      <c r="B312" s="30"/>
+      <c r="B312" s="27"/>
       <c r="C312" s="17"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
@@ -8201,7 +8341,7 @@
     </row>
     <row r="313" spans="1:21" ht="18" customHeight="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="30"/>
+      <c r="B313" s="27"/>
       <c r="C313" s="17"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
@@ -8224,7 +8364,7 @@
     </row>
     <row r="314" spans="1:21" ht="18" customHeight="1">
       <c r="A314" s="1"/>
-      <c r="B314" s="30"/>
+      <c r="B314" s="27"/>
       <c r="C314" s="17"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
@@ -8247,7 +8387,7 @@
     </row>
     <row r="315" spans="1:21" ht="18" customHeight="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="30"/>
+      <c r="B315" s="27"/>
       <c r="C315" s="17"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -8270,7 +8410,7 @@
     </row>
     <row r="316" spans="1:21" ht="18" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="30"/>
+      <c r="B316" s="27"/>
       <c r="C316" s="17"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
@@ -8293,7 +8433,7 @@
     </row>
     <row r="317" spans="1:21" ht="18" customHeight="1">
       <c r="A317" s="1"/>
-      <c r="B317" s="30"/>
+      <c r="B317" s="27"/>
       <c r="C317" s="17"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
@@ -8316,7 +8456,7 @@
     </row>
     <row r="318" spans="1:21" ht="18" customHeight="1">
       <c r="A318" s="1"/>
-      <c r="B318" s="30"/>
+      <c r="B318" s="27"/>
       <c r="C318" s="17"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
@@ -8339,7 +8479,7 @@
     </row>
     <row r="319" spans="1:21" ht="18" customHeight="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="30"/>
+      <c r="B319" s="27"/>
       <c r="C319" s="17"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
@@ -8362,7 +8502,7 @@
     </row>
     <row r="320" spans="1:21" ht="18" customHeight="1">
       <c r="A320" s="1"/>
-      <c r="B320" s="30"/>
+      <c r="B320" s="27"/>
       <c r="C320" s="17"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
@@ -8385,7 +8525,7 @@
     </row>
     <row r="321" spans="1:21" ht="18" customHeight="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="30"/>
+      <c r="B321" s="27"/>
       <c r="C321" s="17"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
@@ -8408,7 +8548,7 @@
     </row>
     <row r="322" spans="1:21" ht="18" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="30"/>
+      <c r="B322" s="27"/>
       <c r="C322" s="17"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
@@ -8431,7 +8571,7 @@
     </row>
     <row r="323" spans="1:21" ht="18" customHeight="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="30"/>
+      <c r="B323" s="27"/>
       <c r="C323" s="17"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
@@ -8454,7 +8594,7 @@
     </row>
     <row r="324" spans="1:21" ht="18" customHeight="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="30"/>
+      <c r="B324" s="27"/>
       <c r="C324" s="17"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
@@ -8477,7 +8617,7 @@
     </row>
     <row r="325" spans="1:21" ht="18" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="30"/>
+      <c r="B325" s="27"/>
       <c r="C325" s="17"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
@@ -8500,7 +8640,7 @@
     </row>
     <row r="326" spans="1:21" ht="18" customHeight="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="30"/>
+      <c r="B326" s="27"/>
       <c r="C326" s="17"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
@@ -8523,7 +8663,7 @@
     </row>
     <row r="327" spans="1:21" ht="18" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="30"/>
+      <c r="B327" s="27"/>
       <c r="C327" s="17"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
@@ -8546,7 +8686,7 @@
     </row>
     <row r="328" spans="1:21" ht="18" customHeight="1">
       <c r="A328" s="1"/>
-      <c r="B328" s="30"/>
+      <c r="B328" s="27"/>
       <c r="C328" s="17"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
@@ -8569,7 +8709,7 @@
     </row>
     <row r="329" spans="1:21" ht="18" customHeight="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="30"/>
+      <c r="B329" s="27"/>
       <c r="C329" s="17"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
@@ -8592,7 +8732,7 @@
     </row>
     <row r="330" spans="1:21" ht="18" customHeight="1">
       <c r="A330" s="1"/>
-      <c r="B330" s="30"/>
+      <c r="B330" s="27"/>
       <c r="C330" s="17"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
@@ -8615,7 +8755,7 @@
     </row>
     <row r="331" spans="1:21" ht="18" customHeight="1">
       <c r="A331" s="1"/>
-      <c r="B331" s="30"/>
+      <c r="B331" s="27"/>
       <c r="C331" s="17"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
@@ -8638,7 +8778,7 @@
     </row>
     <row r="332" spans="1:21" ht="18" customHeight="1">
       <c r="A332" s="1"/>
-      <c r="B332" s="30"/>
+      <c r="B332" s="27"/>
       <c r="C332" s="17"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
@@ -8661,7 +8801,7 @@
     </row>
     <row r="333" spans="1:21" ht="18" customHeight="1">
       <c r="A333" s="1"/>
-      <c r="B333" s="30"/>
+      <c r="B333" s="27"/>
       <c r="C333" s="17"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -8684,7 +8824,7 @@
     </row>
     <row r="334" spans="1:21" ht="18" customHeight="1">
       <c r="A334" s="1"/>
-      <c r="B334" s="30"/>
+      <c r="B334" s="27"/>
       <c r="C334" s="17"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
@@ -8707,7 +8847,7 @@
     </row>
     <row r="335" spans="1:21" ht="18" customHeight="1">
       <c r="A335" s="1"/>
-      <c r="B335" s="30"/>
+      <c r="B335" s="27"/>
       <c r="C335" s="17"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
@@ -8730,7 +8870,7 @@
     </row>
     <row r="336" spans="1:21" ht="18" customHeight="1">
       <c r="A336" s="1"/>
-      <c r="B336" s="30"/>
+      <c r="B336" s="27"/>
       <c r="C336" s="17"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
@@ -8753,7 +8893,7 @@
     </row>
     <row r="337" spans="1:21" ht="18" customHeight="1">
       <c r="A337" s="1"/>
-      <c r="B337" s="30"/>
+      <c r="B337" s="27"/>
       <c r="C337" s="17"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
@@ -8776,7 +8916,7 @@
     </row>
     <row r="338" spans="1:21" ht="18" customHeight="1">
       <c r="A338" s="1"/>
-      <c r="B338" s="30"/>
+      <c r="B338" s="27"/>
       <c r="C338" s="17"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
@@ -8799,7 +8939,7 @@
     </row>
     <row r="339" spans="1:21" ht="18" customHeight="1">
       <c r="A339" s="1"/>
-      <c r="B339" s="30"/>
+      <c r="B339" s="27"/>
       <c r="C339" s="17"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -8822,7 +8962,7 @@
     </row>
     <row r="340" spans="1:21" ht="18" customHeight="1">
       <c r="A340" s="1"/>
-      <c r="B340" s="30"/>
+      <c r="B340" s="27"/>
       <c r="C340" s="17"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
@@ -8845,7 +8985,7 @@
     </row>
     <row r="341" spans="1:21" ht="18" customHeight="1">
       <c r="A341" s="1"/>
-      <c r="B341" s="30"/>
+      <c r="B341" s="27"/>
       <c r="C341" s="17"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
@@ -8868,7 +9008,7 @@
     </row>
     <row r="342" spans="1:21" ht="18" customHeight="1">
       <c r="A342" s="1"/>
-      <c r="B342" s="30"/>
+      <c r="B342" s="27"/>
       <c r="C342" s="17"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
@@ -8891,7 +9031,7 @@
     </row>
     <row r="343" spans="1:21" ht="18" customHeight="1">
       <c r="A343" s="1"/>
-      <c r="B343" s="30"/>
+      <c r="B343" s="27"/>
       <c r="C343" s="17"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
@@ -8914,7 +9054,7 @@
     </row>
     <row r="344" spans="1:21" ht="18" customHeight="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="30"/>
+      <c r="B344" s="27"/>
       <c r="C344" s="17"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
@@ -8937,7 +9077,7 @@
     </row>
     <row r="345" spans="1:21" ht="18" customHeight="1">
       <c r="A345" s="1"/>
-      <c r="B345" s="30"/>
+      <c r="B345" s="27"/>
       <c r="C345" s="17"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
@@ -8960,7 +9100,7 @@
     </row>
     <row r="346" spans="1:21" ht="18" customHeight="1">
       <c r="A346" s="1"/>
-      <c r="B346" s="30"/>
+      <c r="B346" s="27"/>
       <c r="C346" s="17"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
@@ -8983,7 +9123,7 @@
     </row>
     <row r="347" spans="1:21" ht="18" customHeight="1">
       <c r="A347" s="1"/>
-      <c r="B347" s="30"/>
+      <c r="B347" s="27"/>
       <c r="C347" s="17"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
@@ -9006,7 +9146,7 @@
     </row>
     <row r="348" spans="1:21" ht="18" customHeight="1">
       <c r="A348" s="1"/>
-      <c r="B348" s="30"/>
+      <c r="B348" s="27"/>
       <c r="C348" s="17"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
@@ -9029,7 +9169,7 @@
     </row>
     <row r="349" spans="1:21" ht="18" customHeight="1">
       <c r="A349" s="1"/>
-      <c r="B349" s="30"/>
+      <c r="B349" s="27"/>
       <c r="C349" s="17"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
@@ -9052,7 +9192,7 @@
     </row>
     <row r="350" spans="1:21" ht="18" customHeight="1">
       <c r="A350" s="1"/>
-      <c r="B350" s="30"/>
+      <c r="B350" s="27"/>
       <c r="C350" s="17"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
@@ -9075,7 +9215,7 @@
     </row>
     <row r="351" spans="1:21" ht="18" customHeight="1">
       <c r="A351" s="1"/>
-      <c r="B351" s="30"/>
+      <c r="B351" s="27"/>
       <c r="C351" s="17"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
@@ -9098,7 +9238,7 @@
     </row>
     <row r="352" spans="1:21" ht="18" customHeight="1">
       <c r="A352" s="1"/>
-      <c r="B352" s="30"/>
+      <c r="B352" s="27"/>
       <c r="C352" s="17"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
@@ -9121,7 +9261,7 @@
     </row>
     <row r="353" spans="1:21" ht="18" customHeight="1">
       <c r="A353" s="1"/>
-      <c r="B353" s="30"/>
+      <c r="B353" s="27"/>
       <c r="C353" s="17"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
@@ -9144,7 +9284,7 @@
     </row>
     <row r="354" spans="1:21" ht="18" customHeight="1">
       <c r="A354" s="1"/>
-      <c r="B354" s="30"/>
+      <c r="B354" s="27"/>
       <c r="C354" s="17"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
@@ -9167,7 +9307,7 @@
     </row>
     <row r="355" spans="1:21" ht="18" customHeight="1">
       <c r="A355" s="1"/>
-      <c r="B355" s="30"/>
+      <c r="B355" s="27"/>
       <c r="C355" s="17"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
@@ -9190,7 +9330,7 @@
     </row>
     <row r="356" spans="1:21" ht="18" customHeight="1">
       <c r="A356" s="1"/>
-      <c r="B356" s="30"/>
+      <c r="B356" s="27"/>
       <c r="C356" s="17"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
@@ -9213,7 +9353,7 @@
     </row>
     <row r="357" spans="1:21" ht="18" customHeight="1">
       <c r="A357" s="1"/>
-      <c r="B357" s="30"/>
+      <c r="B357" s="27"/>
       <c r="C357" s="17"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -9236,7 +9376,7 @@
     </row>
     <row r="358" spans="1:21" ht="18" customHeight="1">
       <c r="A358" s="1"/>
-      <c r="B358" s="30"/>
+      <c r="B358" s="27"/>
       <c r="C358" s="17"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
@@ -9259,7 +9399,7 @@
     </row>
     <row r="359" spans="1:21" ht="18" customHeight="1">
       <c r="A359" s="1"/>
-      <c r="B359" s="30"/>
+      <c r="B359" s="27"/>
       <c r="C359" s="17"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
@@ -9282,7 +9422,7 @@
     </row>
     <row r="360" spans="1:21" ht="18" customHeight="1">
       <c r="A360" s="1"/>
-      <c r="B360" s="30"/>
+      <c r="B360" s="27"/>
       <c r="C360" s="17"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
@@ -9305,7 +9445,7 @@
     </row>
     <row r="361" spans="1:21" ht="18" customHeight="1">
       <c r="A361" s="1"/>
-      <c r="B361" s="30"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="17"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
@@ -9328,7 +9468,7 @@
     </row>
     <row r="362" spans="1:21" ht="18" customHeight="1">
       <c r="A362" s="1"/>
-      <c r="B362" s="30"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="17"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
@@ -9351,7 +9491,7 @@
     </row>
     <row r="363" spans="1:21" ht="18" customHeight="1">
       <c r="A363" s="1"/>
-      <c r="B363" s="30"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="17"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
@@ -9374,7 +9514,7 @@
     </row>
     <row r="364" spans="1:21" ht="18" customHeight="1">
       <c r="A364" s="1"/>
-      <c r="B364" s="30"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="17"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
@@ -9397,7 +9537,7 @@
     </row>
     <row r="365" spans="1:21" ht="18" customHeight="1">
       <c r="A365" s="1"/>
-      <c r="B365" s="30"/>
+      <c r="B365" s="27"/>
       <c r="C365" s="17"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
@@ -9420,7 +9560,7 @@
     </row>
     <row r="366" spans="1:21" ht="18" customHeight="1">
       <c r="A366" s="1"/>
-      <c r="B366" s="30"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="17"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -9443,7 +9583,7 @@
     </row>
     <row r="367" spans="1:21" ht="18" customHeight="1">
       <c r="A367" s="1"/>
-      <c r="B367" s="30"/>
+      <c r="B367" s="27"/>
       <c r="C367" s="17"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -9466,7 +9606,7 @@
     </row>
     <row r="368" spans="1:21" ht="18" customHeight="1">
       <c r="A368" s="1"/>
-      <c r="B368" s="30"/>
+      <c r="B368" s="27"/>
       <c r="C368" s="17"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -9489,7 +9629,7 @@
     </row>
     <row r="369" spans="1:21" ht="18" customHeight="1">
       <c r="A369" s="1"/>
-      <c r="B369" s="30"/>
+      <c r="B369" s="27"/>
       <c r="C369" s="17"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
@@ -9512,7 +9652,7 @@
     </row>
     <row r="370" spans="1:21" ht="18" customHeight="1">
       <c r="A370" s="1"/>
-      <c r="B370" s="30"/>
+      <c r="B370" s="27"/>
       <c r="C370" s="17"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
@@ -9535,7 +9675,7 @@
     </row>
     <row r="371" spans="1:21" ht="18" customHeight="1">
       <c r="A371" s="1"/>
-      <c r="B371" s="30"/>
+      <c r="B371" s="27"/>
       <c r="C371" s="17"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
@@ -9558,7 +9698,7 @@
     </row>
     <row r="372" spans="1:21" ht="18" customHeight="1">
       <c r="A372" s="1"/>
-      <c r="B372" s="30"/>
+      <c r="B372" s="27"/>
       <c r="C372" s="17"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
@@ -9581,7 +9721,7 @@
     </row>
     <row r="373" spans="1:21" ht="18" customHeight="1">
       <c r="A373" s="1"/>
-      <c r="B373" s="30"/>
+      <c r="B373" s="27"/>
       <c r="C373" s="17"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -9604,7 +9744,7 @@
     </row>
     <row r="374" spans="1:21" ht="18" customHeight="1">
       <c r="A374" s="1"/>
-      <c r="B374" s="30"/>
+      <c r="B374" s="27"/>
       <c r="C374" s="17"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -9627,7 +9767,7 @@
     </row>
     <row r="375" spans="1:21" ht="18" customHeight="1">
       <c r="A375" s="1"/>
-      <c r="B375" s="30"/>
+      <c r="B375" s="27"/>
       <c r="C375" s="17"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -9650,7 +9790,7 @@
     </row>
     <row r="376" spans="1:21" ht="18" customHeight="1">
       <c r="A376" s="1"/>
-      <c r="B376" s="30"/>
+      <c r="B376" s="27"/>
       <c r="C376" s="17"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -9673,7 +9813,7 @@
     </row>
     <row r="377" spans="1:21" ht="18" customHeight="1">
       <c r="A377" s="1"/>
-      <c r="B377" s="30"/>
+      <c r="B377" s="27"/>
       <c r="C377" s="17"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -9696,7 +9836,7 @@
     </row>
     <row r="378" spans="1:21" ht="18" customHeight="1">
       <c r="A378" s="1"/>
-      <c r="B378" s="30"/>
+      <c r="B378" s="27"/>
       <c r="C378" s="17"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -9719,7 +9859,7 @@
     </row>
     <row r="379" spans="1:21" ht="18" customHeight="1">
       <c r="A379" s="1"/>
-      <c r="B379" s="30"/>
+      <c r="B379" s="27"/>
       <c r="C379" s="17"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -9742,7 +9882,7 @@
     </row>
     <row r="380" spans="1:21" ht="18" customHeight="1">
       <c r="A380" s="1"/>
-      <c r="B380" s="30"/>
+      <c r="B380" s="27"/>
       <c r="C380" s="17"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -9765,7 +9905,7 @@
     </row>
     <row r="381" spans="1:21" ht="18" customHeight="1">
       <c r="A381" s="1"/>
-      <c r="B381" s="30"/>
+      <c r="B381" s="27"/>
       <c r="C381" s="17"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -9788,7 +9928,7 @@
     </row>
     <row r="382" spans="1:21" ht="18" customHeight="1">
       <c r="A382" s="1"/>
-      <c r="B382" s="30"/>
+      <c r="B382" s="27"/>
       <c r="C382" s="17"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -9811,7 +9951,7 @@
     </row>
     <row r="383" spans="1:21" ht="18" customHeight="1">
       <c r="A383" s="1"/>
-      <c r="B383" s="30"/>
+      <c r="B383" s="27"/>
       <c r="C383" s="17"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -9834,7 +9974,7 @@
     </row>
     <row r="384" spans="1:21" ht="18" customHeight="1">
       <c r="A384" s="1"/>
-      <c r="B384" s="30"/>
+      <c r="B384" s="27"/>
       <c r="C384" s="17"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -9857,7 +9997,7 @@
     </row>
     <row r="385" spans="1:21" ht="18" customHeight="1">
       <c r="A385" s="1"/>
-      <c r="B385" s="30"/>
+      <c r="B385" s="27"/>
       <c r="C385" s="17"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -9880,7 +10020,7 @@
     </row>
     <row r="386" spans="1:21" ht="18" customHeight="1">
       <c r="A386" s="1"/>
-      <c r="B386" s="30"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="17"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -9903,7 +10043,7 @@
     </row>
     <row r="387" spans="1:21" ht="18" customHeight="1">
       <c r="A387" s="1"/>
-      <c r="B387" s="30"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="17"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -9926,7 +10066,7 @@
     </row>
     <row r="388" spans="1:21" ht="18" customHeight="1">
       <c r="A388" s="1"/>
-      <c r="B388" s="30"/>
+      <c r="B388" s="27"/>
       <c r="C388" s="17"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -9949,7 +10089,7 @@
     </row>
     <row r="389" spans="1:21" ht="18" customHeight="1">
       <c r="A389" s="1"/>
-      <c r="B389" s="30"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="17"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -9972,7 +10112,7 @@
     </row>
     <row r="390" spans="1:21" ht="18" customHeight="1">
       <c r="A390" s="1"/>
-      <c r="B390" s="30"/>
+      <c r="B390" s="27"/>
       <c r="C390" s="17"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -9995,7 +10135,7 @@
     </row>
     <row r="391" spans="1:21" ht="18" customHeight="1">
       <c r="A391" s="1"/>
-      <c r="B391" s="30"/>
+      <c r="B391" s="27"/>
       <c r="C391" s="17"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -10018,7 +10158,7 @@
     </row>
     <row r="392" spans="1:21" ht="18" customHeight="1">
       <c r="A392" s="1"/>
-      <c r="B392" s="30"/>
+      <c r="B392" s="27"/>
       <c r="C392" s="17"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -10041,7 +10181,7 @@
     </row>
     <row r="393" spans="1:21" ht="18" customHeight="1">
       <c r="A393" s="1"/>
-      <c r="B393" s="30"/>
+      <c r="B393" s="27"/>
       <c r="C393" s="17"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -10064,7 +10204,7 @@
     </row>
     <row r="394" spans="1:21" ht="18" customHeight="1">
       <c r="A394" s="1"/>
-      <c r="B394" s="30"/>
+      <c r="B394" s="27"/>
       <c r="C394" s="17"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -10087,7 +10227,7 @@
     </row>
     <row r="395" spans="1:21" ht="18" customHeight="1">
       <c r="A395" s="1"/>
-      <c r="B395" s="30"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="17"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -10110,7 +10250,7 @@
     </row>
     <row r="396" spans="1:21" ht="18" customHeight="1">
       <c r="A396" s="1"/>
-      <c r="B396" s="30"/>
+      <c r="B396" s="27"/>
       <c r="C396" s="17"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -10133,7 +10273,7 @@
     </row>
     <row r="397" spans="1:21" ht="18" customHeight="1">
       <c r="A397" s="1"/>
-      <c r="B397" s="30"/>
+      <c r="B397" s="27"/>
       <c r="C397" s="17"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
@@ -10156,7 +10296,7 @@
     </row>
     <row r="398" spans="1:21" ht="18" customHeight="1">
       <c r="A398" s="1"/>
-      <c r="B398" s="30"/>
+      <c r="B398" s="27"/>
       <c r="C398" s="17"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
@@ -10179,7 +10319,7 @@
     </row>
     <row r="399" spans="1:21" ht="18" customHeight="1">
       <c r="A399" s="1"/>
-      <c r="B399" s="30"/>
+      <c r="B399" s="27"/>
       <c r="C399" s="17"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -10202,7 +10342,7 @@
     </row>
     <row r="400" spans="1:21" ht="18" customHeight="1">
       <c r="A400" s="1"/>
-      <c r="B400" s="30"/>
+      <c r="B400" s="27"/>
       <c r="C400" s="17"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -10225,7 +10365,7 @@
     </row>
     <row r="401" spans="1:21" ht="18" customHeight="1">
       <c r="A401" s="1"/>
-      <c r="B401" s="30"/>
+      <c r="B401" s="27"/>
       <c r="C401" s="17"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -10248,7 +10388,7 @@
     </row>
     <row r="402" spans="1:21" ht="18" customHeight="1">
       <c r="A402" s="1"/>
-      <c r="B402" s="30"/>
+      <c r="B402" s="27"/>
       <c r="C402" s="17"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -10271,7 +10411,7 @@
     </row>
     <row r="403" spans="1:21" ht="18" customHeight="1">
       <c r="A403" s="1"/>
-      <c r="B403" s="30"/>
+      <c r="B403" s="27"/>
       <c r="C403" s="17"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -10294,7 +10434,7 @@
     </row>
     <row r="404" spans="1:21" ht="18" customHeight="1">
       <c r="A404" s="1"/>
-      <c r="B404" s="30"/>
+      <c r="B404" s="27"/>
       <c r="C404" s="17"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -10317,7 +10457,7 @@
     </row>
     <row r="405" spans="1:21" ht="18" customHeight="1">
       <c r="A405" s="1"/>
-      <c r="B405" s="30"/>
+      <c r="B405" s="27"/>
       <c r="C405" s="17"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
@@ -10340,7 +10480,7 @@
     </row>
     <row r="406" spans="1:21" ht="18" customHeight="1">
       <c r="A406" s="1"/>
-      <c r="B406" s="30"/>
+      <c r="B406" s="27"/>
       <c r="C406" s="17"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
@@ -10363,7 +10503,7 @@
     </row>
     <row r="407" spans="1:21" ht="18" customHeight="1">
       <c r="A407" s="1"/>
-      <c r="B407" s="30"/>
+      <c r="B407" s="27"/>
       <c r="C407" s="17"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -10386,7 +10526,7 @@
     </row>
     <row r="408" spans="1:21" ht="18" customHeight="1">
       <c r="A408" s="1"/>
-      <c r="B408" s="30"/>
+      <c r="B408" s="27"/>
       <c r="C408" s="17"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -10409,7 +10549,7 @@
     </row>
     <row r="409" spans="1:21" ht="18" customHeight="1">
       <c r="A409" s="1"/>
-      <c r="B409" s="30"/>
+      <c r="B409" s="27"/>
       <c r="C409" s="17"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -10432,7 +10572,7 @@
     </row>
     <row r="410" spans="1:21" ht="18" customHeight="1">
       <c r="A410" s="1"/>
-      <c r="B410" s="30"/>
+      <c r="B410" s="27"/>
       <c r="C410" s="17"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -10455,7 +10595,7 @@
     </row>
     <row r="411" spans="1:21" ht="18" customHeight="1">
       <c r="A411" s="1"/>
-      <c r="B411" s="30"/>
+      <c r="B411" s="27"/>
       <c r="C411" s="17"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -10478,7 +10618,7 @@
     </row>
     <row r="412" spans="1:21" ht="18" customHeight="1">
       <c r="A412" s="1"/>
-      <c r="B412" s="30"/>
+      <c r="B412" s="27"/>
       <c r="C412" s="17"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -10501,7 +10641,7 @@
     </row>
     <row r="413" spans="1:21" ht="18" customHeight="1">
       <c r="A413" s="1"/>
-      <c r="B413" s="30"/>
+      <c r="B413" s="27"/>
       <c r="C413" s="17"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -10524,7 +10664,7 @@
     </row>
     <row r="414" spans="1:21" ht="18" customHeight="1">
       <c r="A414" s="1"/>
-      <c r="B414" s="30"/>
+      <c r="B414" s="27"/>
       <c r="C414" s="17"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -10547,7 +10687,7 @@
     </row>
     <row r="415" spans="1:21" ht="18" customHeight="1">
       <c r="A415" s="1"/>
-      <c r="B415" s="30"/>
+      <c r="B415" s="27"/>
       <c r="C415" s="17"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -10570,7 +10710,7 @@
     </row>
     <row r="416" spans="1:21" ht="18" customHeight="1">
       <c r="A416" s="1"/>
-      <c r="B416" s="30"/>
+      <c r="B416" s="27"/>
       <c r="C416" s="17"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -10593,7 +10733,7 @@
     </row>
     <row r="417" spans="1:21" ht="18" customHeight="1">
       <c r="A417" s="1"/>
-      <c r="B417" s="30"/>
+      <c r="B417" s="27"/>
       <c r="C417" s="17"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -10616,7 +10756,7 @@
     </row>
     <row r="418" spans="1:21" ht="18" customHeight="1">
       <c r="A418" s="1"/>
-      <c r="B418" s="30"/>
+      <c r="B418" s="27"/>
       <c r="C418" s="17"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -10639,7 +10779,7 @@
     </row>
     <row r="419" spans="1:21" ht="18" customHeight="1">
       <c r="A419" s="1"/>
-      <c r="B419" s="30"/>
+      <c r="B419" s="27"/>
       <c r="C419" s="17"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
@@ -10662,7 +10802,7 @@
     </row>
     <row r="420" spans="1:21" ht="18" customHeight="1">
       <c r="A420" s="1"/>
-      <c r="B420" s="30"/>
+      <c r="B420" s="27"/>
       <c r="C420" s="17"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
@@ -10685,7 +10825,7 @@
     </row>
     <row r="421" spans="1:21" ht="18" customHeight="1">
       <c r="A421" s="1"/>
-      <c r="B421" s="30"/>
+      <c r="B421" s="27"/>
       <c r="C421" s="17"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
@@ -10708,7 +10848,7 @@
     </row>
     <row r="422" spans="1:21" ht="18" customHeight="1">
       <c r="A422" s="1"/>
-      <c r="B422" s="30"/>
+      <c r="B422" s="27"/>
       <c r="C422" s="17"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
@@ -10731,7 +10871,7 @@
     </row>
     <row r="423" spans="1:21" ht="18" customHeight="1">
       <c r="A423" s="1"/>
-      <c r="B423" s="30"/>
+      <c r="B423" s="27"/>
       <c r="C423" s="17"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -10754,7 +10894,7 @@
     </row>
     <row r="424" spans="1:21" ht="18" customHeight="1">
       <c r="A424" s="1"/>
-      <c r="B424" s="30"/>
+      <c r="B424" s="27"/>
       <c r="C424" s="17"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -10777,7 +10917,7 @@
     </row>
     <row r="425" spans="1:21" ht="18" customHeight="1">
       <c r="A425" s="1"/>
-      <c r="B425" s="30"/>
+      <c r="B425" s="27"/>
       <c r="C425" s="17"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -10800,7 +10940,7 @@
     </row>
     <row r="426" spans="1:21" ht="18" customHeight="1">
       <c r="A426" s="1"/>
-      <c r="B426" s="30"/>
+      <c r="B426" s="27"/>
       <c r="C426" s="17"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
@@ -10823,7 +10963,7 @@
     </row>
     <row r="427" spans="1:21" ht="18" customHeight="1">
       <c r="A427" s="1"/>
-      <c r="B427" s="30"/>
+      <c r="B427" s="27"/>
       <c r="C427" s="17"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
@@ -10846,7 +10986,7 @@
     </row>
     <row r="428" spans="1:21" ht="18" customHeight="1">
       <c r="A428" s="1"/>
-      <c r="B428" s="30"/>
+      <c r="B428" s="27"/>
       <c r="C428" s="17"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
@@ -10869,7 +11009,7 @@
     </row>
     <row r="429" spans="1:21" ht="18" customHeight="1">
       <c r="A429" s="1"/>
-      <c r="B429" s="30"/>
+      <c r="B429" s="27"/>
       <c r="C429" s="17"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
@@ -10892,7 +11032,7 @@
     </row>
     <row r="430" spans="1:21" ht="18" customHeight="1">
       <c r="A430" s="1"/>
-      <c r="B430" s="30"/>
+      <c r="B430" s="27"/>
       <c r="C430" s="17"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
@@ -10915,7 +11055,7 @@
     </row>
     <row r="431" spans="1:21" ht="18" customHeight="1">
       <c r="A431" s="1"/>
-      <c r="B431" s="30"/>
+      <c r="B431" s="27"/>
       <c r="C431" s="17"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
@@ -10938,7 +11078,7 @@
     </row>
     <row r="432" spans="1:21" ht="18" customHeight="1">
       <c r="A432" s="1"/>
-      <c r="B432" s="30"/>
+      <c r="B432" s="27"/>
       <c r="C432" s="17"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
@@ -10961,7 +11101,7 @@
     </row>
     <row r="433" spans="1:21" ht="18" customHeight="1">
       <c r="A433" s="1"/>
-      <c r="B433" s="30"/>
+      <c r="B433" s="27"/>
       <c r="C433" s="17"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -10984,7 +11124,7 @@
     </row>
     <row r="434" spans="1:21" ht="18" customHeight="1">
       <c r="A434" s="1"/>
-      <c r="B434" s="30"/>
+      <c r="B434" s="27"/>
       <c r="C434" s="17"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -11007,7 +11147,7 @@
     </row>
     <row r="435" spans="1:21" ht="18" customHeight="1">
       <c r="A435" s="1"/>
-      <c r="B435" s="30"/>
+      <c r="B435" s="27"/>
       <c r="C435" s="17"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
@@ -11030,7 +11170,7 @@
     </row>
     <row r="436" spans="1:21" ht="18" customHeight="1">
       <c r="A436" s="1"/>
-      <c r="B436" s="30"/>
+      <c r="B436" s="27"/>
       <c r="C436" s="17"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
@@ -11053,7 +11193,7 @@
     </row>
     <row r="437" spans="1:21" ht="18" customHeight="1">
       <c r="A437" s="1"/>
-      <c r="B437" s="30"/>
+      <c r="B437" s="27"/>
       <c r="C437" s="17"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
@@ -11076,7 +11216,7 @@
     </row>
     <row r="438" spans="1:21" ht="18" customHeight="1">
       <c r="A438" s="1"/>
-      <c r="B438" s="30"/>
+      <c r="B438" s="27"/>
       <c r="C438" s="17"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -11099,7 +11239,7 @@
     </row>
     <row r="439" spans="1:21" ht="18" customHeight="1">
       <c r="A439" s="1"/>
-      <c r="B439" s="30"/>
+      <c r="B439" s="27"/>
       <c r="C439" s="17"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
@@ -11122,7 +11262,7 @@
     </row>
     <row r="440" spans="1:21" ht="18" customHeight="1">
       <c r="A440" s="1"/>
-      <c r="B440" s="30"/>
+      <c r="B440" s="27"/>
       <c r="C440" s="17"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -11145,7 +11285,7 @@
     </row>
     <row r="441" spans="1:21" ht="18" customHeight="1">
       <c r="A441" s="1"/>
-      <c r="B441" s="30"/>
+      <c r="B441" s="27"/>
       <c r="C441" s="17"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
@@ -11168,7 +11308,7 @@
     </row>
     <row r="442" spans="1:21" ht="18" customHeight="1">
       <c r="A442" s="1"/>
-      <c r="B442" s="30"/>
+      <c r="B442" s="27"/>
       <c r="C442" s="17"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
@@ -11191,7 +11331,7 @@
     </row>
     <row r="443" spans="1:21" ht="18" customHeight="1">
       <c r="A443" s="1"/>
-      <c r="B443" s="30"/>
+      <c r="B443" s="27"/>
       <c r="C443" s="17"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
@@ -11214,7 +11354,7 @@
     </row>
     <row r="444" spans="1:21" ht="18" customHeight="1">
       <c r="A444" s="1"/>
-      <c r="B444" s="30"/>
+      <c r="B444" s="27"/>
       <c r="C444" s="17"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
@@ -11237,7 +11377,7 @@
     </row>
     <row r="445" spans="1:21" ht="18" customHeight="1">
       <c r="A445" s="1"/>
-      <c r="B445" s="30"/>
+      <c r="B445" s="27"/>
       <c r="C445" s="17"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
@@ -11260,7 +11400,7 @@
     </row>
     <row r="446" spans="1:21" ht="18" customHeight="1">
       <c r="A446" s="1"/>
-      <c r="B446" s="30"/>
+      <c r="B446" s="27"/>
       <c r="C446" s="17"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
@@ -11283,7 +11423,7 @@
     </row>
     <row r="447" spans="1:21" ht="18" customHeight="1">
       <c r="A447" s="1"/>
-      <c r="B447" s="30"/>
+      <c r="B447" s="27"/>
       <c r="C447" s="17"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
@@ -11306,7 +11446,7 @@
     </row>
     <row r="448" spans="1:21" ht="18" customHeight="1">
       <c r="A448" s="1"/>
-      <c r="B448" s="30"/>
+      <c r="B448" s="27"/>
       <c r="C448" s="17"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
@@ -11329,7 +11469,7 @@
     </row>
     <row r="449" spans="1:21" ht="18" customHeight="1">
       <c r="A449" s="1"/>
-      <c r="B449" s="30"/>
+      <c r="B449" s="27"/>
       <c r="C449" s="17"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
@@ -11352,7 +11492,7 @@
     </row>
     <row r="450" spans="1:21" ht="18" customHeight="1">
       <c r="A450" s="1"/>
-      <c r="B450" s="30"/>
+      <c r="B450" s="27"/>
       <c r="C450" s="17"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
@@ -11375,7 +11515,7 @@
     </row>
     <row r="451" spans="1:21" ht="18" customHeight="1">
       <c r="A451" s="1"/>
-      <c r="B451" s="30"/>
+      <c r="B451" s="27"/>
       <c r="C451" s="17"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -11398,7 +11538,7 @@
     </row>
     <row r="452" spans="1:21" ht="18" customHeight="1">
       <c r="A452" s="1"/>
-      <c r="B452" s="30"/>
+      <c r="B452" s="27"/>
       <c r="C452" s="17"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
@@ -11421,7 +11561,7 @@
     </row>
     <row r="453" spans="1:21" ht="18" customHeight="1">
       <c r="A453" s="1"/>
-      <c r="B453" s="30"/>
+      <c r="B453" s="27"/>
       <c r="C453" s="17"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
@@ -11444,7 +11584,7 @@
     </row>
     <row r="454" spans="1:21" ht="18" customHeight="1">
       <c r="A454" s="1"/>
-      <c r="B454" s="30"/>
+      <c r="B454" s="27"/>
       <c r="C454" s="17"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -11467,7 +11607,7 @@
     </row>
     <row r="455" spans="1:21" ht="18" customHeight="1">
       <c r="A455" s="1"/>
-      <c r="B455" s="30"/>
+      <c r="B455" s="27"/>
       <c r="C455" s="17"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
@@ -11490,7 +11630,7 @@
     </row>
     <row r="456" spans="1:21" ht="18" customHeight="1">
       <c r="A456" s="1"/>
-      <c r="B456" s="30"/>
+      <c r="B456" s="27"/>
       <c r="C456" s="17"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
@@ -11513,7 +11653,7 @@
     </row>
     <row r="457" spans="1:21" ht="18" customHeight="1">
       <c r="A457" s="1"/>
-      <c r="B457" s="30"/>
+      <c r="B457" s="27"/>
       <c r="C457" s="17"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
@@ -11536,7 +11676,7 @@
     </row>
     <row r="458" spans="1:21" ht="18" customHeight="1">
       <c r="A458" s="1"/>
-      <c r="B458" s="30"/>
+      <c r="B458" s="27"/>
       <c r="C458" s="17"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
@@ -11559,7 +11699,7 @@
     </row>
     <row r="459" spans="1:21" ht="18" customHeight="1">
       <c r="A459" s="1"/>
-      <c r="B459" s="30"/>
+      <c r="B459" s="27"/>
       <c r="C459" s="17"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
@@ -11582,7 +11722,7 @@
     </row>
     <row r="460" spans="1:21" ht="18" customHeight="1">
       <c r="A460" s="1"/>
-      <c r="B460" s="30"/>
+      <c r="B460" s="27"/>
       <c r="C460" s="17"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
@@ -11605,7 +11745,7 @@
     </row>
     <row r="461" spans="1:21" ht="18" customHeight="1">
       <c r="A461" s="1"/>
-      <c r="B461" s="30"/>
+      <c r="B461" s="27"/>
       <c r="C461" s="17"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
@@ -11628,7 +11768,7 @@
     </row>
     <row r="462" spans="1:21" ht="18" customHeight="1">
       <c r="A462" s="1"/>
-      <c r="B462" s="30"/>
+      <c r="B462" s="27"/>
       <c r="C462" s="17"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
@@ -11651,7 +11791,7 @@
     </row>
     <row r="463" spans="1:21" ht="18" customHeight="1">
       <c r="A463" s="1"/>
-      <c r="B463" s="30"/>
+      <c r="B463" s="27"/>
       <c r="C463" s="17"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
@@ -11674,7 +11814,7 @@
     </row>
     <row r="464" spans="1:21" ht="18" customHeight="1">
       <c r="A464" s="1"/>
-      <c r="B464" s="30"/>
+      <c r="B464" s="27"/>
       <c r="C464" s="17"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
@@ -11697,7 +11837,7 @@
     </row>
     <row r="465" spans="1:21" ht="18" customHeight="1">
       <c r="A465" s="1"/>
-      <c r="B465" s="30"/>
+      <c r="B465" s="27"/>
       <c r="C465" s="17"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
@@ -11720,7 +11860,7 @@
     </row>
     <row r="466" spans="1:21" ht="18" customHeight="1">
       <c r="A466" s="1"/>
-      <c r="B466" s="30"/>
+      <c r="B466" s="27"/>
       <c r="C466" s="17"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
@@ -11743,7 +11883,7 @@
     </row>
     <row r="467" spans="1:21" ht="18" customHeight="1">
       <c r="A467" s="1"/>
-      <c r="B467" s="30"/>
+      <c r="B467" s="27"/>
       <c r="C467" s="17"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
@@ -11766,7 +11906,7 @@
     </row>
     <row r="468" spans="1:21" ht="18" customHeight="1">
       <c r="A468" s="1"/>
-      <c r="B468" s="30"/>
+      <c r="B468" s="27"/>
       <c r="C468" s="17"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
@@ -11789,7 +11929,7 @@
     </row>
     <row r="469" spans="1:21" ht="18" customHeight="1">
       <c r="A469" s="1"/>
-      <c r="B469" s="30"/>
+      <c r="B469" s="27"/>
       <c r="C469" s="17"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
@@ -11812,7 +11952,7 @@
     </row>
     <row r="470" spans="1:21" ht="18" customHeight="1">
       <c r="A470" s="1"/>
-      <c r="B470" s="30"/>
+      <c r="B470" s="27"/>
       <c r="C470" s="17"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
@@ -11835,7 +11975,7 @@
     </row>
     <row r="471" spans="1:21" ht="18" customHeight="1">
       <c r="A471" s="1"/>
-      <c r="B471" s="30"/>
+      <c r="B471" s="27"/>
       <c r="C471" s="17"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
@@ -11858,7 +11998,7 @@
     </row>
     <row r="472" spans="1:21" ht="18" customHeight="1">
       <c r="A472" s="1"/>
-      <c r="B472" s="30"/>
+      <c r="B472" s="27"/>
       <c r="C472" s="17"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
@@ -11881,7 +12021,7 @@
     </row>
     <row r="473" spans="1:21" ht="18" customHeight="1">
       <c r="A473" s="1"/>
-      <c r="B473" s="30"/>
+      <c r="B473" s="27"/>
       <c r="C473" s="17"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
@@ -11904,7 +12044,7 @@
     </row>
     <row r="474" spans="1:21" ht="18" customHeight="1">
       <c r="A474" s="1"/>
-      <c r="B474" s="30"/>
+      <c r="B474" s="27"/>
       <c r="C474" s="17"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
@@ -11927,7 +12067,7 @@
     </row>
     <row r="475" spans="1:21" ht="18" customHeight="1">
       <c r="A475" s="1"/>
-      <c r="B475" s="30"/>
+      <c r="B475" s="27"/>
       <c r="C475" s="17"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
@@ -11950,7 +12090,7 @@
     </row>
     <row r="476" spans="1:21" ht="18" customHeight="1">
       <c r="A476" s="1"/>
-      <c r="B476" s="30"/>
+      <c r="B476" s="27"/>
       <c r="C476" s="17"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
@@ -11973,7 +12113,7 @@
     </row>
     <row r="477" spans="1:21" ht="18" customHeight="1">
       <c r="A477" s="1"/>
-      <c r="B477" s="30"/>
+      <c r="B477" s="27"/>
       <c r="C477" s="17"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
@@ -11996,7 +12136,7 @@
     </row>
     <row r="478" spans="1:21" ht="18" customHeight="1">
       <c r="A478" s="1"/>
-      <c r="B478" s="30"/>
+      <c r="B478" s="27"/>
       <c r="C478" s="17"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
@@ -12019,7 +12159,7 @@
     </row>
     <row r="479" spans="1:21" ht="18" customHeight="1">
       <c r="A479" s="1"/>
-      <c r="B479" s="30"/>
+      <c r="B479" s="27"/>
       <c r="C479" s="17"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -12042,7 +12182,7 @@
     </row>
     <row r="480" spans="1:21" ht="18" customHeight="1">
       <c r="A480" s="1"/>
-      <c r="B480" s="30"/>
+      <c r="B480" s="27"/>
       <c r="C480" s="17"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
@@ -12065,7 +12205,7 @@
     </row>
     <row r="481" spans="1:21" ht="18" customHeight="1">
       <c r="A481" s="1"/>
-      <c r="B481" s="30"/>
+      <c r="B481" s="27"/>
       <c r="C481" s="17"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
@@ -12088,7 +12228,7 @@
     </row>
     <row r="482" spans="1:21" ht="18" customHeight="1">
       <c r="A482" s="1"/>
-      <c r="B482" s="30"/>
+      <c r="B482" s="27"/>
       <c r="C482" s="17"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
@@ -12111,7 +12251,7 @@
     </row>
     <row r="483" spans="1:21" ht="18" customHeight="1">
       <c r="A483" s="1"/>
-      <c r="B483" s="30"/>
+      <c r="B483" s="27"/>
       <c r="C483" s="17"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
@@ -12134,7 +12274,7 @@
     </row>
     <row r="484" spans="1:21" ht="18" customHeight="1">
       <c r="A484" s="1"/>
-      <c r="B484" s="30"/>
+      <c r="B484" s="27"/>
       <c r="C484" s="17"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
@@ -12157,7 +12297,7 @@
     </row>
     <row r="485" spans="1:21" ht="18" customHeight="1">
       <c r="A485" s="1"/>
-      <c r="B485" s="30"/>
+      <c r="B485" s="27"/>
       <c r="C485" s="17"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
@@ -12180,7 +12320,7 @@
     </row>
     <row r="486" spans="1:21" ht="18" customHeight="1">
       <c r="A486" s="1"/>
-      <c r="B486" s="30"/>
+      <c r="B486" s="27"/>
       <c r="C486" s="17"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
@@ -12203,7 +12343,7 @@
     </row>
     <row r="487" spans="1:21" ht="18" customHeight="1">
       <c r="A487" s="1"/>
-      <c r="B487" s="30"/>
+      <c r="B487" s="27"/>
       <c r="C487" s="17"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
@@ -12226,7 +12366,7 @@
     </row>
     <row r="488" spans="1:21" ht="18" customHeight="1">
       <c r="A488" s="1"/>
-      <c r="B488" s="30"/>
+      <c r="B488" s="27"/>
       <c r="C488" s="17"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
@@ -12249,7 +12389,7 @@
     </row>
     <row r="489" spans="1:21" ht="18" customHeight="1">
       <c r="A489" s="1"/>
-      <c r="B489" s="30"/>
+      <c r="B489" s="27"/>
       <c r="C489" s="17"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
@@ -12272,7 +12412,7 @@
     </row>
     <row r="490" spans="1:21" ht="18" customHeight="1">
       <c r="A490" s="1"/>
-      <c r="B490" s="30"/>
+      <c r="B490" s="27"/>
       <c r="C490" s="17"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
@@ -12295,7 +12435,7 @@
     </row>
     <row r="491" spans="1:21" ht="18" customHeight="1">
       <c r="A491" s="1"/>
-      <c r="B491" s="30"/>
+      <c r="B491" s="27"/>
       <c r="C491" s="17"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
@@ -12318,7 +12458,7 @@
     </row>
     <row r="492" spans="1:21" ht="18" customHeight="1">
       <c r="A492" s="1"/>
-      <c r="B492" s="30"/>
+      <c r="B492" s="27"/>
       <c r="C492" s="17"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
@@ -12341,7 +12481,7 @@
     </row>
     <row r="493" spans="1:21" ht="18" customHeight="1">
       <c r="A493" s="1"/>
-      <c r="B493" s="30"/>
+      <c r="B493" s="27"/>
       <c r="C493" s="17"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
@@ -12364,7 +12504,7 @@
     </row>
     <row r="494" spans="1:21" ht="18" customHeight="1">
       <c r="A494" s="1"/>
-      <c r="B494" s="30"/>
+      <c r="B494" s="27"/>
       <c r="C494" s="17"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
@@ -12387,7 +12527,7 @@
     </row>
     <row r="495" spans="1:21" ht="18" customHeight="1">
       <c r="A495" s="1"/>
-      <c r="B495" s="30"/>
+      <c r="B495" s="27"/>
       <c r="C495" s="17"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -12410,7 +12550,7 @@
     </row>
     <row r="496" spans="1:21" ht="18" customHeight="1">
       <c r="A496" s="1"/>
-      <c r="B496" s="30"/>
+      <c r="B496" s="27"/>
       <c r="C496" s="17"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
@@ -12433,7 +12573,7 @@
     </row>
     <row r="497" spans="1:21" ht="18" customHeight="1">
       <c r="A497" s="1"/>
-      <c r="B497" s="30"/>
+      <c r="B497" s="27"/>
       <c r="C497" s="17"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
@@ -12456,7 +12596,7 @@
     </row>
     <row r="498" spans="1:21" ht="18" customHeight="1">
       <c r="A498" s="1"/>
-      <c r="B498" s="30"/>
+      <c r="B498" s="27"/>
       <c r="C498" s="17"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
@@ -12479,7 +12619,7 @@
     </row>
     <row r="499" spans="1:21" ht="18" customHeight="1">
       <c r="A499" s="1"/>
-      <c r="B499" s="30"/>
+      <c r="B499" s="27"/>
       <c r="C499" s="17"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -12502,7 +12642,7 @@
     </row>
     <row r="500" spans="1:21" ht="18" customHeight="1">
       <c r="A500" s="1"/>
-      <c r="B500" s="30"/>
+      <c r="B500" s="27"/>
       <c r="C500" s="17"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -12525,7 +12665,7 @@
     </row>
     <row r="501" spans="1:21" ht="18" customHeight="1">
       <c r="A501" s="1"/>
-      <c r="B501" s="30"/>
+      <c r="B501" s="27"/>
       <c r="C501" s="17"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
@@ -12548,7 +12688,7 @@
     </row>
     <row r="502" spans="1:21" ht="18" customHeight="1">
       <c r="A502" s="1"/>
-      <c r="B502" s="30"/>
+      <c r="B502" s="27"/>
       <c r="C502" s="17"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
@@ -12571,7 +12711,7 @@
     </row>
     <row r="503" spans="1:21" ht="18" customHeight="1">
       <c r="A503" s="1"/>
-      <c r="B503" s="30"/>
+      <c r="B503" s="27"/>
       <c r="C503" s="17"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
@@ -12594,7 +12734,7 @@
     </row>
     <row r="504" spans="1:21" ht="18" customHeight="1">
       <c r="A504" s="1"/>
-      <c r="B504" s="30"/>
+      <c r="B504" s="27"/>
       <c r="C504" s="17"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -12617,7 +12757,7 @@
     </row>
     <row r="505" spans="1:21" ht="18" customHeight="1">
       <c r="A505" s="1"/>
-      <c r="B505" s="30"/>
+      <c r="B505" s="27"/>
       <c r="C505" s="17"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -12640,7 +12780,7 @@
     </row>
     <row r="506" spans="1:21" ht="18" customHeight="1">
       <c r="A506" s="1"/>
-      <c r="B506" s="30"/>
+      <c r="B506" s="27"/>
       <c r="C506" s="17"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -12663,7 +12803,7 @@
     </row>
     <row r="507" spans="1:21" ht="18" customHeight="1">
       <c r="A507" s="1"/>
-      <c r="B507" s="30"/>
+      <c r="B507" s="27"/>
       <c r="C507" s="17"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
@@ -12686,7 +12826,7 @@
     </row>
     <row r="508" spans="1:21" ht="18" customHeight="1">
       <c r="A508" s="1"/>
-      <c r="B508" s="30"/>
+      <c r="B508" s="27"/>
       <c r="C508" s="17"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
@@ -12709,7 +12849,7 @@
     </row>
     <row r="509" spans="1:21" ht="18" customHeight="1">
       <c r="A509" s="1"/>
-      <c r="B509" s="30"/>
+      <c r="B509" s="27"/>
       <c r="C509" s="17"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -12732,7 +12872,7 @@
     </row>
     <row r="510" spans="1:21" ht="18" customHeight="1">
       <c r="A510" s="1"/>
-      <c r="B510" s="30"/>
+      <c r="B510" s="27"/>
       <c r="C510" s="17"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
@@ -12755,7 +12895,7 @@
     </row>
     <row r="511" spans="1:21" ht="18" customHeight="1">
       <c r="A511" s="1"/>
-      <c r="B511" s="30"/>
+      <c r="B511" s="27"/>
       <c r="C511" s="17"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
@@ -12778,7 +12918,7 @@
     </row>
     <row r="512" spans="1:21" ht="18" customHeight="1">
       <c r="A512" s="1"/>
-      <c r="B512" s="30"/>
+      <c r="B512" s="27"/>
       <c r="C512" s="17"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
@@ -12801,7 +12941,7 @@
     </row>
     <row r="513" spans="1:21" ht="18" customHeight="1">
       <c r="A513" s="1"/>
-      <c r="B513" s="30"/>
+      <c r="B513" s="27"/>
       <c r="C513" s="17"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
@@ -12824,7 +12964,7 @@
     </row>
     <row r="514" spans="1:21" ht="18" customHeight="1">
       <c r="A514" s="1"/>
-      <c r="B514" s="30"/>
+      <c r="B514" s="27"/>
       <c r="C514" s="17"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
@@ -12847,7 +12987,7 @@
     </row>
     <row r="515" spans="1:21" ht="18" customHeight="1">
       <c r="A515" s="1"/>
-      <c r="B515" s="30"/>
+      <c r="B515" s="27"/>
       <c r="C515" s="17"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
@@ -12870,7 +13010,7 @@
     </row>
     <row r="516" spans="1:21" ht="18" customHeight="1">
       <c r="A516" s="1"/>
-      <c r="B516" s="30"/>
+      <c r="B516" s="27"/>
       <c r="C516" s="17"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
@@ -12893,7 +13033,7 @@
     </row>
     <row r="517" spans="1:21" ht="18" customHeight="1">
       <c r="A517" s="1"/>
-      <c r="B517" s="30"/>
+      <c r="B517" s="27"/>
       <c r="C517" s="17"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
@@ -12916,7 +13056,7 @@
     </row>
     <row r="518" spans="1:21" ht="18" customHeight="1">
       <c r="A518" s="1"/>
-      <c r="B518" s="30"/>
+      <c r="B518" s="27"/>
       <c r="C518" s="17"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -12939,7 +13079,7 @@
     </row>
     <row r="519" spans="1:21" ht="18" customHeight="1">
       <c r="A519" s="1"/>
-      <c r="B519" s="30"/>
+      <c r="B519" s="27"/>
       <c r="C519" s="17"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -12962,7 +13102,7 @@
     </row>
     <row r="520" spans="1:21" ht="18" customHeight="1">
       <c r="A520" s="1"/>
-      <c r="B520" s="30"/>
+      <c r="B520" s="27"/>
       <c r="C520" s="17"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -12985,7 +13125,7 @@
     </row>
     <row r="521" spans="1:21" ht="18" customHeight="1">
       <c r="A521" s="1"/>
-      <c r="B521" s="30"/>
+      <c r="B521" s="27"/>
       <c r="C521" s="17"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -13008,7 +13148,7 @@
     </row>
     <row r="522" spans="1:21" ht="18" customHeight="1">
       <c r="A522" s="1"/>
-      <c r="B522" s="30"/>
+      <c r="B522" s="27"/>
       <c r="C522" s="17"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
@@ -13031,7 +13171,7 @@
     </row>
     <row r="523" spans="1:21" ht="18" customHeight="1">
       <c r="A523" s="1"/>
-      <c r="B523" s="30"/>
+      <c r="B523" s="27"/>
       <c r="C523" s="17"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
@@ -13054,7 +13194,7 @@
     </row>
     <row r="524" spans="1:21" ht="18" customHeight="1">
       <c r="A524" s="1"/>
-      <c r="B524" s="30"/>
+      <c r="B524" s="27"/>
       <c r="C524" s="17"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
@@ -13077,7 +13217,7 @@
     </row>
     <row r="525" spans="1:21" ht="18" customHeight="1">
       <c r="A525" s="1"/>
-      <c r="B525" s="30"/>
+      <c r="B525" s="27"/>
       <c r="C525" s="17"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
@@ -13100,7 +13240,7 @@
     </row>
     <row r="526" spans="1:21" ht="18" customHeight="1">
       <c r="A526" s="1"/>
-      <c r="B526" s="30"/>
+      <c r="B526" s="27"/>
       <c r="C526" s="17"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
@@ -13123,7 +13263,7 @@
     </row>
     <row r="527" spans="1:21" ht="18" customHeight="1">
       <c r="A527" s="1"/>
-      <c r="B527" s="30"/>
+      <c r="B527" s="27"/>
       <c r="C527" s="17"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -13146,7 +13286,7 @@
     </row>
     <row r="528" spans="1:21" ht="18" customHeight="1">
       <c r="A528" s="1"/>
-      <c r="B528" s="30"/>
+      <c r="B528" s="27"/>
       <c r="C528" s="17"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
@@ -13169,7 +13309,7 @@
     </row>
     <row r="529" spans="1:21" ht="18" customHeight="1">
       <c r="A529" s="1"/>
-      <c r="B529" s="30"/>
+      <c r="B529" s="27"/>
       <c r="C529" s="17"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
@@ -13192,7 +13332,7 @@
     </row>
     <row r="530" spans="1:21" ht="18" customHeight="1">
       <c r="A530" s="1"/>
-      <c r="B530" s="30"/>
+      <c r="B530" s="27"/>
       <c r="C530" s="17"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
@@ -13215,7 +13355,7 @@
     </row>
     <row r="531" spans="1:21" ht="18" customHeight="1">
       <c r="A531" s="1"/>
-      <c r="B531" s="30"/>
+      <c r="B531" s="27"/>
       <c r="C531" s="17"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
@@ -13238,7 +13378,7 @@
     </row>
     <row r="532" spans="1:21" ht="18" customHeight="1">
       <c r="A532" s="1"/>
-      <c r="B532" s="30"/>
+      <c r="B532" s="27"/>
       <c r="C532" s="17"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
@@ -13261,7 +13401,7 @@
     </row>
     <row r="533" spans="1:21" ht="18" customHeight="1">
       <c r="A533" s="1"/>
-      <c r="B533" s="30"/>
+      <c r="B533" s="27"/>
       <c r="C533" s="17"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -13284,7 +13424,7 @@
     </row>
     <row r="534" spans="1:21" ht="18" customHeight="1">
       <c r="A534" s="1"/>
-      <c r="B534" s="30"/>
+      <c r="B534" s="27"/>
       <c r="C534" s="17"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
@@ -13307,7 +13447,7 @@
     </row>
     <row r="535" spans="1:21" ht="18" customHeight="1">
       <c r="A535" s="1"/>
-      <c r="B535" s="30"/>
+      <c r="B535" s="27"/>
       <c r="C535" s="17"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -13330,7 +13470,7 @@
     </row>
     <row r="536" spans="1:21" ht="18" customHeight="1">
       <c r="A536" s="1"/>
-      <c r="B536" s="30"/>
+      <c r="B536" s="27"/>
       <c r="C536" s="17"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
@@ -13353,7 +13493,7 @@
     </row>
     <row r="537" spans="1:21" ht="18" customHeight="1">
       <c r="A537" s="1"/>
-      <c r="B537" s="30"/>
+      <c r="B537" s="27"/>
       <c r="C537" s="17"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
@@ -13376,7 +13516,7 @@
     </row>
     <row r="538" spans="1:21" ht="18" customHeight="1">
       <c r="A538" s="1"/>
-      <c r="B538" s="30"/>
+      <c r="B538" s="27"/>
       <c r="C538" s="17"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -13399,7 +13539,7 @@
     </row>
     <row r="539" spans="1:21" ht="18" customHeight="1">
       <c r="A539" s="1"/>
-      <c r="B539" s="30"/>
+      <c r="B539" s="27"/>
       <c r="C539" s="17"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -13422,7 +13562,7 @@
     </row>
     <row r="540" spans="1:21" ht="18" customHeight="1">
       <c r="A540" s="1"/>
-      <c r="B540" s="30"/>
+      <c r="B540" s="27"/>
       <c r="C540" s="17"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
@@ -13445,7 +13585,7 @@
     </row>
     <row r="541" spans="1:21" ht="18" customHeight="1">
       <c r="A541" s="1"/>
-      <c r="B541" s="30"/>
+      <c r="B541" s="27"/>
       <c r="C541" s="17"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
@@ -13468,7 +13608,7 @@
     </row>
     <row r="542" spans="1:21" ht="18" customHeight="1">
       <c r="A542" s="1"/>
-      <c r="B542" s="30"/>
+      <c r="B542" s="27"/>
       <c r="C542" s="17"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
@@ -13491,7 +13631,7 @@
     </row>
     <row r="543" spans="1:21" ht="18" customHeight="1">
       <c r="A543" s="1"/>
-      <c r="B543" s="30"/>
+      <c r="B543" s="27"/>
       <c r="C543" s="17"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
@@ -13514,7 +13654,7 @@
     </row>
     <row r="544" spans="1:21" ht="18" customHeight="1">
       <c r="A544" s="1"/>
-      <c r="B544" s="30"/>
+      <c r="B544" s="27"/>
       <c r="C544" s="17"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -13537,7 +13677,7 @@
     </row>
     <row r="545" spans="1:21" ht="18" customHeight="1">
       <c r="A545" s="1"/>
-      <c r="B545" s="30"/>
+      <c r="B545" s="27"/>
       <c r="C545" s="17"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -13560,7 +13700,7 @@
     </row>
     <row r="546" spans="1:21" ht="18" customHeight="1">
       <c r="A546" s="1"/>
-      <c r="B546" s="30"/>
+      <c r="B546" s="27"/>
       <c r="C546" s="17"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -13583,7 +13723,7 @@
     </row>
     <row r="547" spans="1:21" ht="18" customHeight="1">
       <c r="A547" s="1"/>
-      <c r="B547" s="30"/>
+      <c r="B547" s="27"/>
       <c r="C547" s="17"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
@@ -13606,7 +13746,7 @@
     </row>
     <row r="548" spans="1:21" ht="18" customHeight="1">
       <c r="A548" s="1"/>
-      <c r="B548" s="30"/>
+      <c r="B548" s="27"/>
       <c r="C548" s="17"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -13629,7 +13769,7 @@
     </row>
     <row r="549" spans="1:21" ht="18" customHeight="1">
       <c r="A549" s="1"/>
-      <c r="B549" s="30"/>
+      <c r="B549" s="27"/>
       <c r="C549" s="17"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
@@ -13652,7 +13792,7 @@
     </row>
     <row r="550" spans="1:21" ht="18" customHeight="1">
       <c r="A550" s="1"/>
-      <c r="B550" s="30"/>
+      <c r="B550" s="27"/>
       <c r="C550" s="17"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
@@ -13675,7 +13815,7 @@
     </row>
     <row r="551" spans="1:21" ht="18" customHeight="1">
       <c r="A551" s="1"/>
-      <c r="B551" s="30"/>
+      <c r="B551" s="27"/>
       <c r="C551" s="17"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
@@ -13698,7 +13838,7 @@
     </row>
     <row r="552" spans="1:21" ht="18" customHeight="1">
       <c r="A552" s="1"/>
-      <c r="B552" s="30"/>
+      <c r="B552" s="27"/>
       <c r="C552" s="17"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
@@ -13721,7 +13861,7 @@
     </row>
     <row r="553" spans="1:21" ht="18" customHeight="1">
       <c r="A553" s="1"/>
-      <c r="B553" s="30"/>
+      <c r="B553" s="27"/>
       <c r="C553" s="17"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
@@ -13744,7 +13884,7 @@
     </row>
     <row r="554" spans="1:21" ht="18" customHeight="1">
       <c r="A554" s="1"/>
-      <c r="B554" s="30"/>
+      <c r="B554" s="27"/>
       <c r="C554" s="17"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
@@ -13767,7 +13907,7 @@
     </row>
     <row r="555" spans="1:21" ht="18" customHeight="1">
       <c r="A555" s="1"/>
-      <c r="B555" s="30"/>
+      <c r="B555" s="27"/>
       <c r="C555" s="17"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
@@ -13790,7 +13930,7 @@
     </row>
     <row r="556" spans="1:21" ht="18" customHeight="1">
       <c r="A556" s="1"/>
-      <c r="B556" s="30"/>
+      <c r="B556" s="27"/>
       <c r="C556" s="17"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
@@ -13813,7 +13953,7 @@
     </row>
     <row r="557" spans="1:21" ht="18" customHeight="1">
       <c r="A557" s="1"/>
-      <c r="B557" s="30"/>
+      <c r="B557" s="27"/>
       <c r="C557" s="17"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
@@ -13836,7 +13976,7 @@
     </row>
     <row r="558" spans="1:21" ht="18" customHeight="1">
       <c r="A558" s="1"/>
-      <c r="B558" s="30"/>
+      <c r="B558" s="27"/>
       <c r="C558" s="17"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
@@ -13859,7 +13999,7 @@
     </row>
     <row r="559" spans="1:21" ht="18" customHeight="1">
       <c r="A559" s="1"/>
-      <c r="B559" s="30"/>
+      <c r="B559" s="27"/>
       <c r="C559" s="17"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
@@ -13882,7 +14022,7 @@
     </row>
     <row r="560" spans="1:21" ht="18" customHeight="1">
       <c r="A560" s="1"/>
-      <c r="B560" s="30"/>
+      <c r="B560" s="27"/>
       <c r="C560" s="17"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
@@ -13905,7 +14045,7 @@
     </row>
     <row r="561" spans="1:21" ht="18" customHeight="1">
       <c r="A561" s="1"/>
-      <c r="B561" s="30"/>
+      <c r="B561" s="27"/>
       <c r="C561" s="17"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
@@ -13928,7 +14068,7 @@
     </row>
     <row r="562" spans="1:21" ht="18" customHeight="1">
       <c r="A562" s="1"/>
-      <c r="B562" s="30"/>
+      <c r="B562" s="27"/>
       <c r="C562" s="17"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
@@ -13951,7 +14091,7 @@
     </row>
     <row r="563" spans="1:21" ht="18" customHeight="1">
       <c r="A563" s="1"/>
-      <c r="B563" s="30"/>
+      <c r="B563" s="27"/>
       <c r="C563" s="17"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
@@ -13974,7 +14114,7 @@
     </row>
     <row r="564" spans="1:21" ht="18" customHeight="1">
       <c r="A564" s="1"/>
-      <c r="B564" s="30"/>
+      <c r="B564" s="27"/>
       <c r="C564" s="17"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
@@ -13997,7 +14137,7 @@
     </row>
     <row r="565" spans="1:21" ht="18" customHeight="1">
       <c r="A565" s="1"/>
-      <c r="B565" s="30"/>
+      <c r="B565" s="27"/>
       <c r="C565" s="17"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
@@ -14020,7 +14160,7 @@
     </row>
     <row r="566" spans="1:21" ht="18" customHeight="1">
       <c r="A566" s="1"/>
-      <c r="B566" s="30"/>
+      <c r="B566" s="27"/>
       <c r="C566" s="17"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
@@ -14043,7 +14183,7 @@
     </row>
     <row r="567" spans="1:21" ht="18" customHeight="1">
       <c r="A567" s="1"/>
-      <c r="B567" s="30"/>
+      <c r="B567" s="27"/>
       <c r="C567" s="17"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
@@ -14066,7 +14206,7 @@
     </row>
     <row r="568" spans="1:21" ht="18" customHeight="1">
       <c r="A568" s="1"/>
-      <c r="B568" s="30"/>
+      <c r="B568" s="27"/>
       <c r="C568" s="17"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
@@ -14089,7 +14229,7 @@
     </row>
     <row r="569" spans="1:21" ht="18" customHeight="1">
       <c r="A569" s="1"/>
-      <c r="B569" s="30"/>
+      <c r="B569" s="27"/>
       <c r="C569" s="17"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -14112,7 +14252,7 @@
     </row>
     <row r="570" spans="1:21" ht="18" customHeight="1">
       <c r="A570" s="1"/>
-      <c r="B570" s="30"/>
+      <c r="B570" s="27"/>
       <c r="C570" s="17"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
@@ -14135,7 +14275,7 @@
     </row>
     <row r="571" spans="1:21" ht="18" customHeight="1">
       <c r="A571" s="1"/>
-      <c r="B571" s="30"/>
+      <c r="B571" s="27"/>
       <c r="C571" s="17"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
@@ -14158,7 +14298,7 @@
     </row>
     <row r="572" spans="1:21" ht="18" customHeight="1">
       <c r="A572" s="1"/>
-      <c r="B572" s="30"/>
+      <c r="B572" s="27"/>
       <c r="C572" s="17"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
@@ -14181,7 +14321,7 @@
     </row>
     <row r="573" spans="1:21" ht="18" customHeight="1">
       <c r="A573" s="1"/>
-      <c r="B573" s="30"/>
+      <c r="B573" s="27"/>
       <c r="C573" s="17"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
@@ -14204,7 +14344,7 @@
     </row>
     <row r="574" spans="1:21" ht="18" customHeight="1">
       <c r="A574" s="1"/>
-      <c r="B574" s="30"/>
+      <c r="B574" s="27"/>
       <c r="C574" s="17"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
@@ -14227,7 +14367,7 @@
     </row>
     <row r="575" spans="1:21" ht="18" customHeight="1">
       <c r="A575" s="1"/>
-      <c r="B575" s="30"/>
+      <c r="B575" s="27"/>
       <c r="C575" s="17"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
@@ -14250,7 +14390,7 @@
     </row>
     <row r="576" spans="1:21" ht="18" customHeight="1">
       <c r="A576" s="1"/>
-      <c r="B576" s="30"/>
+      <c r="B576" s="27"/>
       <c r="C576" s="17"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
@@ -14273,7 +14413,7 @@
     </row>
     <row r="577" spans="1:21" ht="18" customHeight="1">
       <c r="A577" s="1"/>
-      <c r="B577" s="30"/>
+      <c r="B577" s="27"/>
       <c r="C577" s="17"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
@@ -14296,7 +14436,7 @@
     </row>
     <row r="578" spans="1:21" ht="18" customHeight="1">
       <c r="A578" s="1"/>
-      <c r="B578" s="30"/>
+      <c r="B578" s="27"/>
       <c r="C578" s="17"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
@@ -14319,7 +14459,7 @@
     </row>
     <row r="579" spans="1:21" ht="18" customHeight="1">
       <c r="A579" s="1"/>
-      <c r="B579" s="30"/>
+      <c r="B579" s="27"/>
       <c r="C579" s="17"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
@@ -14342,7 +14482,7 @@
     </row>
     <row r="580" spans="1:21" ht="18" customHeight="1">
       <c r="A580" s="1"/>
-      <c r="B580" s="30"/>
+      <c r="B580" s="27"/>
       <c r="C580" s="17"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
@@ -14365,7 +14505,7 @@
     </row>
     <row r="581" spans="1:21" ht="18" customHeight="1">
       <c r="A581" s="1"/>
-      <c r="B581" s="30"/>
+      <c r="B581" s="27"/>
       <c r="C581" s="17"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
@@ -14388,7 +14528,7 @@
     </row>
     <row r="582" spans="1:21" ht="18" customHeight="1">
       <c r="A582" s="1"/>
-      <c r="B582" s="30"/>
+      <c r="B582" s="27"/>
       <c r="C582" s="17"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
@@ -14411,7 +14551,7 @@
     </row>
     <row r="583" spans="1:21" ht="18" customHeight="1">
       <c r="A583" s="1"/>
-      <c r="B583" s="30"/>
+      <c r="B583" s="27"/>
       <c r="C583" s="17"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
@@ -14434,7 +14574,7 @@
     </row>
     <row r="584" spans="1:21" ht="18" customHeight="1">
       <c r="A584" s="1"/>
-      <c r="B584" s="30"/>
+      <c r="B584" s="27"/>
       <c r="C584" s="17"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
@@ -14457,7 +14597,7 @@
     </row>
     <row r="585" spans="1:21" ht="18" customHeight="1">
       <c r="A585" s="1"/>
-      <c r="B585" s="30"/>
+      <c r="B585" s="27"/>
       <c r="C585" s="17"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
@@ -14480,7 +14620,7 @@
     </row>
     <row r="586" spans="1:21" ht="18" customHeight="1">
       <c r="A586" s="1"/>
-      <c r="B586" s="30"/>
+      <c r="B586" s="27"/>
       <c r="C586" s="17"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
@@ -14503,7 +14643,7 @@
     </row>
     <row r="587" spans="1:21" ht="18" customHeight="1">
       <c r="A587" s="1"/>
-      <c r="B587" s="30"/>
+      <c r="B587" s="27"/>
       <c r="C587" s="17"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
@@ -14526,7 +14666,7 @@
     </row>
     <row r="588" spans="1:21" ht="18" customHeight="1">
       <c r="A588" s="1"/>
-      <c r="B588" s="30"/>
+      <c r="B588" s="27"/>
       <c r="C588" s="17"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
@@ -14549,7 +14689,7 @@
     </row>
     <row r="589" spans="1:21" ht="18" customHeight="1">
       <c r="A589" s="1"/>
-      <c r="B589" s="30"/>
+      <c r="B589" s="27"/>
       <c r="C589" s="17"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
@@ -14572,7 +14712,7 @@
     </row>
     <row r="590" spans="1:21" ht="18" customHeight="1">
       <c r="A590" s="1"/>
-      <c r="B590" s="30"/>
+      <c r="B590" s="27"/>
       <c r="C590" s="17"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
@@ -14595,7 +14735,7 @@
     </row>
     <row r="591" spans="1:21" ht="18" customHeight="1">
       <c r="A591" s="1"/>
-      <c r="B591" s="30"/>
+      <c r="B591" s="27"/>
       <c r="C591" s="17"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
@@ -14618,7 +14758,7 @@
     </row>
     <row r="592" spans="1:21" ht="18" customHeight="1">
       <c r="A592" s="1"/>
-      <c r="B592" s="30"/>
+      <c r="B592" s="27"/>
       <c r="C592" s="17"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
@@ -14641,7 +14781,7 @@
     </row>
     <row r="593" spans="1:21" ht="18" customHeight="1">
       <c r="A593" s="1"/>
-      <c r="B593" s="30"/>
+      <c r="B593" s="27"/>
       <c r="C593" s="17"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
@@ -14664,7 +14804,7 @@
     </row>
     <row r="594" spans="1:21" ht="18" customHeight="1">
       <c r="A594" s="1"/>
-      <c r="B594" s="30"/>
+      <c r="B594" s="27"/>
       <c r="C594" s="17"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
@@ -14687,7 +14827,7 @@
     </row>
     <row r="595" spans="1:21" ht="18" customHeight="1">
       <c r="A595" s="1"/>
-      <c r="B595" s="30"/>
+      <c r="B595" s="27"/>
       <c r="C595" s="17"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
@@ -14710,7 +14850,7 @@
     </row>
     <row r="596" spans="1:21" ht="18" customHeight="1">
       <c r="A596" s="1"/>
-      <c r="B596" s="30"/>
+      <c r="B596" s="27"/>
       <c r="C596" s="17"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
@@ -14733,7 +14873,7 @@
     </row>
     <row r="597" spans="1:21" ht="18" customHeight="1">
       <c r="A597" s="1"/>
-      <c r="B597" s="30"/>
+      <c r="B597" s="27"/>
       <c r="C597" s="17"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
@@ -14756,7 +14896,7 @@
     </row>
     <row r="598" spans="1:21" ht="18" customHeight="1">
       <c r="A598" s="1"/>
-      <c r="B598" s="30"/>
+      <c r="B598" s="27"/>
       <c r="C598" s="17"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
@@ -14779,7 +14919,7 @@
     </row>
     <row r="599" spans="1:21" ht="18" customHeight="1">
       <c r="A599" s="1"/>
-      <c r="B599" s="30"/>
+      <c r="B599" s="27"/>
       <c r="C599" s="17"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
@@ -14802,7 +14942,7 @@
     </row>
     <row r="600" spans="1:21" ht="18" customHeight="1">
       <c r="A600" s="1"/>
-      <c r="B600" s="30"/>
+      <c r="B600" s="27"/>
       <c r="C600" s="17"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -14825,7 +14965,7 @@
     </row>
     <row r="601" spans="1:21" ht="18" customHeight="1">
       <c r="A601" s="1"/>
-      <c r="B601" s="30"/>
+      <c r="B601" s="27"/>
       <c r="C601" s="17"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
@@ -14848,7 +14988,7 @@
     </row>
     <row r="602" spans="1:21" ht="18" customHeight="1">
       <c r="A602" s="1"/>
-      <c r="B602" s="30"/>
+      <c r="B602" s="27"/>
       <c r="C602" s="17"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
@@ -14871,7 +15011,7 @@
     </row>
     <row r="603" spans="1:21" ht="18" customHeight="1">
       <c r="A603" s="1"/>
-      <c r="B603" s="30"/>
+      <c r="B603" s="27"/>
       <c r="C603" s="17"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
@@ -14894,7 +15034,7 @@
     </row>
     <row r="604" spans="1:21" ht="18" customHeight="1">
       <c r="A604" s="1"/>
-      <c r="B604" s="30"/>
+      <c r="B604" s="27"/>
       <c r="C604" s="17"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
@@ -14917,7 +15057,7 @@
     </row>
     <row r="605" spans="1:21" ht="18" customHeight="1">
       <c r="A605" s="1"/>
-      <c r="B605" s="30"/>
+      <c r="B605" s="27"/>
       <c r="C605" s="17"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
@@ -14940,7 +15080,7 @@
     </row>
     <row r="606" spans="1:21" ht="18" customHeight="1">
       <c r="A606" s="1"/>
-      <c r="B606" s="30"/>
+      <c r="B606" s="27"/>
       <c r="C606" s="17"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
@@ -14963,7 +15103,7 @@
     </row>
     <row r="607" spans="1:21" ht="18" customHeight="1">
       <c r="A607" s="1"/>
-      <c r="B607" s="30"/>
+      <c r="B607" s="27"/>
       <c r="C607" s="17"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
@@ -14986,7 +15126,7 @@
     </row>
     <row r="608" spans="1:21" ht="18" customHeight="1">
       <c r="A608" s="1"/>
-      <c r="B608" s="30"/>
+      <c r="B608" s="27"/>
       <c r="C608" s="17"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
@@ -15009,7 +15149,7 @@
     </row>
     <row r="609" spans="1:21" ht="18" customHeight="1">
       <c r="A609" s="1"/>
-      <c r="B609" s="30"/>
+      <c r="B609" s="27"/>
       <c r="C609" s="17"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
@@ -15032,7 +15172,7 @@
     </row>
     <row r="610" spans="1:21" ht="18" customHeight="1">
       <c r="A610" s="1"/>
-      <c r="B610" s="30"/>
+      <c r="B610" s="27"/>
       <c r="C610" s="17"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
@@ -15055,7 +15195,7 @@
     </row>
     <row r="611" spans="1:21" ht="18" customHeight="1">
       <c r="A611" s="1"/>
-      <c r="B611" s="30"/>
+      <c r="B611" s="27"/>
       <c r="C611" s="17"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
@@ -15078,7 +15218,7 @@
     </row>
     <row r="612" spans="1:21" ht="18" customHeight="1">
       <c r="A612" s="1"/>
-      <c r="B612" s="30"/>
+      <c r="B612" s="27"/>
       <c r="C612" s="17"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
@@ -15101,7 +15241,7 @@
     </row>
     <row r="613" spans="1:21" ht="18" customHeight="1">
       <c r="A613" s="1"/>
-      <c r="B613" s="30"/>
+      <c r="B613" s="27"/>
       <c r="C613" s="17"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
@@ -15124,7 +15264,7 @@
     </row>
     <row r="614" spans="1:21" ht="18" customHeight="1">
       <c r="A614" s="1"/>
-      <c r="B614" s="30"/>
+      <c r="B614" s="27"/>
       <c r="C614" s="17"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -15147,7 +15287,7 @@
     </row>
     <row r="615" spans="1:21" ht="18" customHeight="1">
       <c r="A615" s="1"/>
-      <c r="B615" s="30"/>
+      <c r="B615" s="27"/>
       <c r="C615" s="17"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -15170,7 +15310,7 @@
     </row>
     <row r="616" spans="1:21" ht="18" customHeight="1">
       <c r="A616" s="1"/>
-      <c r="B616" s="30"/>
+      <c r="B616" s="27"/>
       <c r="C616" s="17"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -15193,7 +15333,7 @@
     </row>
     <row r="617" spans="1:21" ht="18" customHeight="1">
       <c r="A617" s="1"/>
-      <c r="B617" s="30"/>
+      <c r="B617" s="27"/>
       <c r="C617" s="17"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -15216,7 +15356,7 @@
     </row>
     <row r="618" spans="1:21" ht="18" customHeight="1">
       <c r="A618" s="1"/>
-      <c r="B618" s="30"/>
+      <c r="B618" s="27"/>
       <c r="C618" s="17"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -15239,7 +15379,7 @@
     </row>
     <row r="619" spans="1:21" ht="18" customHeight="1">
       <c r="A619" s="1"/>
-      <c r="B619" s="30"/>
+      <c r="B619" s="27"/>
       <c r="C619" s="17"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -15262,7 +15402,7 @@
     </row>
     <row r="620" spans="1:21" ht="18" customHeight="1">
       <c r="A620" s="1"/>
-      <c r="B620" s="30"/>
+      <c r="B620" s="27"/>
       <c r="C620" s="17"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -15285,7 +15425,7 @@
     </row>
     <row r="621" spans="1:21" ht="18" customHeight="1">
       <c r="A621" s="1"/>
-      <c r="B621" s="30"/>
+      <c r="B621" s="27"/>
       <c r="C621" s="17"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
@@ -15308,7 +15448,7 @@
     </row>
     <row r="622" spans="1:21" ht="18" customHeight="1">
       <c r="A622" s="1"/>
-      <c r="B622" s="30"/>
+      <c r="B622" s="27"/>
       <c r="C622" s="17"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
@@ -15331,7 +15471,7 @@
     </row>
     <row r="623" spans="1:21" ht="18" customHeight="1">
       <c r="A623" s="1"/>
-      <c r="B623" s="30"/>
+      <c r="B623" s="27"/>
       <c r="C623" s="17"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
@@ -15354,7 +15494,7 @@
     </row>
     <row r="624" spans="1:21" ht="18" customHeight="1">
       <c r="A624" s="1"/>
-      <c r="B624" s="30"/>
+      <c r="B624" s="27"/>
       <c r="C624" s="17"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
@@ -15377,7 +15517,7 @@
     </row>
     <row r="625" spans="1:21" ht="18" customHeight="1">
       <c r="A625" s="1"/>
-      <c r="B625" s="30"/>
+      <c r="B625" s="27"/>
       <c r="C625" s="17"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -15400,7 +15540,7 @@
     </row>
     <row r="626" spans="1:21" ht="18" customHeight="1">
       <c r="A626" s="1"/>
-      <c r="B626" s="30"/>
+      <c r="B626" s="27"/>
       <c r="C626" s="17"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -15423,7 +15563,7 @@
     </row>
     <row r="627" spans="1:21" ht="18" customHeight="1">
       <c r="A627" s="1"/>
-      <c r="B627" s="30"/>
+      <c r="B627" s="27"/>
       <c r="C627" s="17"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
@@ -15446,7 +15586,7 @@
     </row>
     <row r="628" spans="1:21" ht="18" customHeight="1">
       <c r="A628" s="1"/>
-      <c r="B628" s="30"/>
+      <c r="B628" s="27"/>
       <c r="C628" s="17"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
@@ -15469,7 +15609,7 @@
     </row>
     <row r="629" spans="1:21" ht="18" customHeight="1">
       <c r="A629" s="1"/>
-      <c r="B629" s="30"/>
+      <c r="B629" s="27"/>
       <c r="C629" s="17"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
@@ -15492,7 +15632,7 @@
     </row>
     <row r="630" spans="1:21" ht="18" customHeight="1">
       <c r="A630" s="1"/>
-      <c r="B630" s="30"/>
+      <c r="B630" s="27"/>
       <c r="C630" s="17"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
@@ -15515,7 +15655,7 @@
     </row>
     <row r="631" spans="1:21" ht="18" customHeight="1">
       <c r="A631" s="1"/>
-      <c r="B631" s="30"/>
+      <c r="B631" s="27"/>
       <c r="C631" s="17"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -15538,7 +15678,7 @@
     </row>
     <row r="632" spans="1:21" ht="18" customHeight="1">
       <c r="A632" s="1"/>
-      <c r="B632" s="30"/>
+      <c r="B632" s="27"/>
       <c r="C632" s="17"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -15561,7 +15701,7 @@
     </row>
     <row r="633" spans="1:21" ht="18" customHeight="1">
       <c r="A633" s="1"/>
-      <c r="B633" s="30"/>
+      <c r="B633" s="27"/>
       <c r="C633" s="17"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
@@ -15584,7 +15724,7 @@
     </row>
     <row r="634" spans="1:21" ht="18" customHeight="1">
       <c r="A634" s="1"/>
-      <c r="B634" s="30"/>
+      <c r="B634" s="27"/>
       <c r="C634" s="17"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
@@ -15607,7 +15747,7 @@
     </row>
     <row r="635" spans="1:21" ht="18" customHeight="1">
       <c r="A635" s="1"/>
-      <c r="B635" s="30"/>
+      <c r="B635" s="27"/>
       <c r="C635" s="17"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
@@ -15630,7 +15770,7 @@
     </row>
     <row r="636" spans="1:21" ht="18" customHeight="1">
       <c r="A636" s="1"/>
-      <c r="B636" s="30"/>
+      <c r="B636" s="27"/>
       <c r="C636" s="17"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -15653,7 +15793,7 @@
     </row>
     <row r="637" spans="1:21" ht="18" customHeight="1">
       <c r="A637" s="1"/>
-      <c r="B637" s="30"/>
+      <c r="B637" s="27"/>
       <c r="C637" s="17"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -15676,7 +15816,7 @@
     </row>
     <row r="638" spans="1:21" ht="18" customHeight="1">
       <c r="A638" s="1"/>
-      <c r="B638" s="30"/>
+      <c r="B638" s="27"/>
       <c r="C638" s="17"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
@@ -15699,7 +15839,7 @@
     </row>
     <row r="639" spans="1:21" ht="18" customHeight="1">
       <c r="A639" s="1"/>
-      <c r="B639" s="30"/>
+      <c r="B639" s="27"/>
       <c r="C639" s="17"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
@@ -15722,7 +15862,7 @@
     </row>
     <row r="640" spans="1:21" ht="18" customHeight="1">
       <c r="A640" s="1"/>
-      <c r="B640" s="30"/>
+      <c r="B640" s="27"/>
       <c r="C640" s="17"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
@@ -15745,7 +15885,7 @@
     </row>
     <row r="641" spans="1:21" ht="18" customHeight="1">
       <c r="A641" s="1"/>
-      <c r="B641" s="30"/>
+      <c r="B641" s="27"/>
       <c r="C641" s="17"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -15768,7 +15908,7 @@
     </row>
     <row r="642" spans="1:21" ht="18" customHeight="1">
       <c r="A642" s="1"/>
-      <c r="B642" s="30"/>
+      <c r="B642" s="27"/>
       <c r="C642" s="17"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
@@ -15791,7 +15931,7 @@
     </row>
     <row r="643" spans="1:21" ht="18" customHeight="1">
       <c r="A643" s="1"/>
-      <c r="B643" s="30"/>
+      <c r="B643" s="27"/>
       <c r="C643" s="17"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -15814,7 +15954,7 @@
     </row>
     <row r="644" spans="1:21" ht="18" customHeight="1">
       <c r="A644" s="1"/>
-      <c r="B644" s="30"/>
+      <c r="B644" s="27"/>
       <c r="C644" s="17"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
@@ -15837,7 +15977,7 @@
     </row>
     <row r="645" spans="1:21" ht="18" customHeight="1">
       <c r="A645" s="1"/>
-      <c r="B645" s="30"/>
+      <c r="B645" s="27"/>
       <c r="C645" s="17"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -15860,7 +16000,7 @@
     </row>
     <row r="646" spans="1:21" ht="18" customHeight="1">
       <c r="A646" s="1"/>
-      <c r="B646" s="30"/>
+      <c r="B646" s="27"/>
       <c r="C646" s="17"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
@@ -15883,7 +16023,7 @@
     </row>
     <row r="647" spans="1:21" ht="18" customHeight="1">
       <c r="A647" s="1"/>
-      <c r="B647" s="30"/>
+      <c r="B647" s="27"/>
       <c r="C647" s="17"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -15906,7 +16046,7 @@
     </row>
     <row r="648" spans="1:21" ht="18" customHeight="1">
       <c r="A648" s="1"/>
-      <c r="B648" s="30"/>
+      <c r="B648" s="27"/>
       <c r="C648" s="17"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -15929,7 +16069,7 @@
     </row>
     <row r="649" spans="1:21" ht="18" customHeight="1">
       <c r="A649" s="1"/>
-      <c r="B649" s="30"/>
+      <c r="B649" s="27"/>
       <c r="C649" s="17"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -15952,7 +16092,7 @@
     </row>
     <row r="650" spans="1:21" ht="18" customHeight="1">
       <c r="A650" s="1"/>
-      <c r="B650" s="30"/>
+      <c r="B650" s="27"/>
       <c r="C650" s="17"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -15975,7 +16115,7 @@
     </row>
     <row r="651" spans="1:21" ht="18" customHeight="1">
       <c r="A651" s="1"/>
-      <c r="B651" s="30"/>
+      <c r="B651" s="27"/>
       <c r="C651" s="17"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -15998,7 +16138,7 @@
     </row>
     <row r="652" spans="1:21" ht="18" customHeight="1">
       <c r="A652" s="1"/>
-      <c r="B652" s="30"/>
+      <c r="B652" s="27"/>
       <c r="C652" s="17"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
@@ -16021,7 +16161,7 @@
     </row>
     <row r="653" spans="1:21" ht="18" customHeight="1">
       <c r="A653" s="1"/>
-      <c r="B653" s="30"/>
+      <c r="B653" s="27"/>
       <c r="C653" s="17"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -16044,7 +16184,7 @@
     </row>
     <row r="654" spans="1:21" ht="18" customHeight="1">
       <c r="A654" s="1"/>
-      <c r="B654" s="30"/>
+      <c r="B654" s="27"/>
       <c r="C654" s="17"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
@@ -16067,7 +16207,7 @@
     </row>
     <row r="655" spans="1:21" ht="18" customHeight="1">
       <c r="A655" s="1"/>
-      <c r="B655" s="30"/>
+      <c r="B655" s="27"/>
       <c r="C655" s="17"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
@@ -16090,7 +16230,7 @@
     </row>
     <row r="656" spans="1:21" ht="18" customHeight="1">
       <c r="A656" s="1"/>
-      <c r="B656" s="30"/>
+      <c r="B656" s="27"/>
       <c r="C656" s="17"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
@@ -16113,7 +16253,7 @@
     </row>
     <row r="657" spans="1:21" ht="18" customHeight="1">
       <c r="A657" s="1"/>
-      <c r="B657" s="30"/>
+      <c r="B657" s="27"/>
       <c r="C657" s="17"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
@@ -16136,7 +16276,7 @@
     </row>
     <row r="658" spans="1:21" ht="18" customHeight="1">
       <c r="A658" s="1"/>
-      <c r="B658" s="30"/>
+      <c r="B658" s="27"/>
       <c r="C658" s="17"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
@@ -16159,7 +16299,7 @@
     </row>
     <row r="659" spans="1:21" ht="18" customHeight="1">
       <c r="A659" s="1"/>
-      <c r="B659" s="30"/>
+      <c r="B659" s="27"/>
       <c r="C659" s="17"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
@@ -16182,7 +16322,7 @@
     </row>
     <row r="660" spans="1:21" ht="18" customHeight="1">
       <c r="A660" s="1"/>
-      <c r="B660" s="30"/>
+      <c r="B660" s="27"/>
       <c r="C660" s="17"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
@@ -16205,7 +16345,7 @@
     </row>
     <row r="661" spans="1:21" ht="18" customHeight="1">
       <c r="A661" s="1"/>
-      <c r="B661" s="30"/>
+      <c r="B661" s="27"/>
       <c r="C661" s="17"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
@@ -16228,7 +16368,7 @@
     </row>
     <row r="662" spans="1:21" ht="18" customHeight="1">
       <c r="A662" s="1"/>
-      <c r="B662" s="30"/>
+      <c r="B662" s="27"/>
       <c r="C662" s="17"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -16251,7 +16391,7 @@
     </row>
     <row r="663" spans="1:21" ht="18" customHeight="1">
       <c r="A663" s="1"/>
-      <c r="B663" s="30"/>
+      <c r="B663" s="27"/>
       <c r="C663" s="17"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -16274,7 +16414,7 @@
     </row>
     <row r="664" spans="1:21" ht="18" customHeight="1">
       <c r="A664" s="1"/>
-      <c r="B664" s="30"/>
+      <c r="B664" s="27"/>
       <c r="C664" s="17"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -16297,7 +16437,7 @@
     </row>
     <row r="665" spans="1:21" ht="18" customHeight="1">
       <c r="A665" s="1"/>
-      <c r="B665" s="30"/>
+      <c r="B665" s="27"/>
       <c r="C665" s="17"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -16320,7 +16460,7 @@
     </row>
     <row r="666" spans="1:21" ht="18" customHeight="1">
       <c r="A666" s="1"/>
-      <c r="B666" s="30"/>
+      <c r="B666" s="27"/>
       <c r="C666" s="17"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -16343,7 +16483,7 @@
     </row>
     <row r="667" spans="1:21" ht="18" customHeight="1">
       <c r="A667" s="1"/>
-      <c r="B667" s="30"/>
+      <c r="B667" s="27"/>
       <c r="C667" s="17"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
@@ -16366,7 +16506,7 @@
     </row>
     <row r="668" spans="1:21" ht="18" customHeight="1">
       <c r="A668" s="1"/>
-      <c r="B668" s="30"/>
+      <c r="B668" s="27"/>
       <c r="C668" s="17"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
@@ -16389,7 +16529,7 @@
     </row>
     <row r="669" spans="1:21" ht="18" customHeight="1">
       <c r="A669" s="1"/>
-      <c r="B669" s="30"/>
+      <c r="B669" s="27"/>
       <c r="C669" s="17"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
@@ -16412,7 +16552,7 @@
     </row>
     <row r="670" spans="1:21" ht="18" customHeight="1">
       <c r="A670" s="1"/>
-      <c r="B670" s="30"/>
+      <c r="B670" s="27"/>
       <c r="C670" s="17"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
@@ -16435,7 +16575,7 @@
     </row>
     <row r="671" spans="1:21" ht="18" customHeight="1">
       <c r="A671" s="1"/>
-      <c r="B671" s="30"/>
+      <c r="B671" s="27"/>
       <c r="C671" s="17"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
@@ -16458,7 +16598,7 @@
     </row>
     <row r="672" spans="1:21" ht="18" customHeight="1">
       <c r="A672" s="1"/>
-      <c r="B672" s="30"/>
+      <c r="B672" s="27"/>
       <c r="C672" s="17"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
@@ -16481,7 +16621,7 @@
     </row>
     <row r="673" spans="1:21" ht="18" customHeight="1">
       <c r="A673" s="1"/>
-      <c r="B673" s="30"/>
+      <c r="B673" s="27"/>
       <c r="C673" s="17"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
@@ -16504,7 +16644,7 @@
     </row>
     <row r="674" spans="1:21" ht="18" customHeight="1">
       <c r="A674" s="1"/>
-      <c r="B674" s="30"/>
+      <c r="B674" s="27"/>
       <c r="C674" s="17"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -16527,7 +16667,7 @@
     </row>
     <row r="675" spans="1:21" ht="18" customHeight="1">
       <c r="A675" s="1"/>
-      <c r="B675" s="30"/>
+      <c r="B675" s="27"/>
       <c r="C675" s="17"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -16550,7 +16690,7 @@
     </row>
     <row r="676" spans="1:21" ht="18" customHeight="1">
       <c r="A676" s="1"/>
-      <c r="B676" s="30"/>
+      <c r="B676" s="27"/>
       <c r="C676" s="17"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
@@ -16573,7 +16713,7 @@
     </row>
     <row r="677" spans="1:21" ht="18" customHeight="1">
       <c r="A677" s="1"/>
-      <c r="B677" s="30"/>
+      <c r="B677" s="27"/>
       <c r="C677" s="17"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
@@ -16596,7 +16736,7 @@
     </row>
     <row r="678" spans="1:21" ht="18" customHeight="1">
       <c r="A678" s="1"/>
-      <c r="B678" s="30"/>
+      <c r="B678" s="27"/>
       <c r="C678" s="17"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
@@ -16619,7 +16759,7 @@
     </row>
     <row r="679" spans="1:21" ht="18" customHeight="1">
       <c r="A679" s="1"/>
-      <c r="B679" s="30"/>
+      <c r="B679" s="27"/>
       <c r="C679" s="17"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -16642,7 +16782,7 @@
     </row>
     <row r="680" spans="1:21" ht="18" customHeight="1">
       <c r="A680" s="1"/>
-      <c r="B680" s="30"/>
+      <c r="B680" s="27"/>
       <c r="C680" s="17"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -16665,7 +16805,7 @@
     </row>
     <row r="681" spans="1:21" ht="18" customHeight="1">
       <c r="A681" s="1"/>
-      <c r="B681" s="30"/>
+      <c r="B681" s="27"/>
       <c r="C681" s="17"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -16688,7 +16828,7 @@
     </row>
     <row r="682" spans="1:21" ht="18" customHeight="1">
       <c r="A682" s="1"/>
-      <c r="B682" s="30"/>
+      <c r="B682" s="27"/>
       <c r="C682" s="17"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -16711,7 +16851,7 @@
     </row>
     <row r="683" spans="1:21" ht="18" customHeight="1">
       <c r="A683" s="1"/>
-      <c r="B683" s="30"/>
+      <c r="B683" s="27"/>
       <c r="C683" s="17"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -16734,7 +16874,7 @@
     </row>
     <row r="684" spans="1:21" ht="18" customHeight="1">
       <c r="A684" s="1"/>
-      <c r="B684" s="30"/>
+      <c r="B684" s="27"/>
       <c r="C684" s="17"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -16757,7 +16897,7 @@
     </row>
     <row r="685" spans="1:21" ht="18" customHeight="1">
       <c r="A685" s="1"/>
-      <c r="B685" s="30"/>
+      <c r="B685" s="27"/>
       <c r="C685" s="17"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -16780,7 +16920,7 @@
     </row>
     <row r="686" spans="1:21" ht="18" customHeight="1">
       <c r="A686" s="1"/>
-      <c r="B686" s="30"/>
+      <c r="B686" s="27"/>
       <c r="C686" s="17"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -16803,7 +16943,7 @@
     </row>
     <row r="687" spans="1:21" ht="18" customHeight="1">
       <c r="A687" s="1"/>
-      <c r="B687" s="30"/>
+      <c r="B687" s="27"/>
       <c r="C687" s="17"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -16826,7 +16966,7 @@
     </row>
     <row r="688" spans="1:21" ht="18" customHeight="1">
       <c r="A688" s="1"/>
-      <c r="B688" s="30"/>
+      <c r="B688" s="27"/>
       <c r="C688" s="17"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -16849,7 +16989,7 @@
     </row>
     <row r="689" spans="1:21" ht="18" customHeight="1">
       <c r="A689" s="1"/>
-      <c r="B689" s="30"/>
+      <c r="B689" s="27"/>
       <c r="C689" s="17"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -16872,7 +17012,7 @@
     </row>
     <row r="690" spans="1:21" ht="18" customHeight="1">
       <c r="A690" s="1"/>
-      <c r="B690" s="30"/>
+      <c r="B690" s="27"/>
       <c r="C690" s="17"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -16895,7 +17035,7 @@
     </row>
     <row r="691" spans="1:21" ht="18" customHeight="1">
       <c r="A691" s="1"/>
-      <c r="B691" s="30"/>
+      <c r="B691" s="27"/>
       <c r="C691" s="17"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -16918,7 +17058,7 @@
     </row>
     <row r="692" spans="1:21" ht="18" customHeight="1">
       <c r="A692" s="1"/>
-      <c r="B692" s="30"/>
+      <c r="B692" s="27"/>
       <c r="C692" s="17"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -16941,7 +17081,7 @@
     </row>
     <row r="693" spans="1:21" ht="18" customHeight="1">
       <c r="A693" s="1"/>
-      <c r="B693" s="30"/>
+      <c r="B693" s="27"/>
       <c r="C693" s="17"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -16964,7 +17104,7 @@
     </row>
     <row r="694" spans="1:21" ht="18" customHeight="1">
       <c r="A694" s="1"/>
-      <c r="B694" s="30"/>
+      <c r="B694" s="27"/>
       <c r="C694" s="17"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -16987,7 +17127,7 @@
     </row>
     <row r="695" spans="1:21" ht="18" customHeight="1">
       <c r="A695" s="1"/>
-      <c r="B695" s="30"/>
+      <c r="B695" s="27"/>
       <c r="C695" s="17"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -17010,7 +17150,7 @@
     </row>
     <row r="696" spans="1:21" ht="18" customHeight="1">
       <c r="A696" s="1"/>
-      <c r="B696" s="30"/>
+      <c r="B696" s="27"/>
       <c r="C696" s="17"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -17033,7 +17173,7 @@
     </row>
     <row r="697" spans="1:21" ht="18" customHeight="1">
       <c r="A697" s="1"/>
-      <c r="B697" s="30"/>
+      <c r="B697" s="27"/>
       <c r="C697" s="17"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -17056,7 +17196,7 @@
     </row>
     <row r="698" spans="1:21" ht="18" customHeight="1">
       <c r="A698" s="1"/>
-      <c r="B698" s="30"/>
+      <c r="B698" s="27"/>
       <c r="C698" s="17"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -17079,7 +17219,7 @@
     </row>
     <row r="699" spans="1:21" ht="18" customHeight="1">
       <c r="A699" s="1"/>
-      <c r="B699" s="30"/>
+      <c r="B699" s="27"/>
       <c r="C699" s="17"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -17102,7 +17242,7 @@
     </row>
     <row r="700" spans="1:21" ht="18" customHeight="1">
       <c r="A700" s="1"/>
-      <c r="B700" s="30"/>
+      <c r="B700" s="27"/>
       <c r="C700" s="17"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -17125,7 +17265,7 @@
     </row>
     <row r="701" spans="1:21" ht="18" customHeight="1">
       <c r="A701" s="1"/>
-      <c r="B701" s="30"/>
+      <c r="B701" s="27"/>
       <c r="C701" s="17"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -17148,7 +17288,7 @@
     </row>
     <row r="702" spans="1:21" ht="18" customHeight="1">
       <c r="A702" s="1"/>
-      <c r="B702" s="30"/>
+      <c r="B702" s="27"/>
       <c r="C702" s="17"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -17171,7 +17311,7 @@
     </row>
     <row r="703" spans="1:21" ht="18" customHeight="1">
       <c r="A703" s="1"/>
-      <c r="B703" s="30"/>
+      <c r="B703" s="27"/>
       <c r="C703" s="17"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -17194,7 +17334,7 @@
     </row>
     <row r="704" spans="1:21" ht="18" customHeight="1">
       <c r="A704" s="1"/>
-      <c r="B704" s="30"/>
+      <c r="B704" s="27"/>
       <c r="C704" s="17"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -17217,7 +17357,7 @@
     </row>
     <row r="705" spans="1:21" ht="18" customHeight="1">
       <c r="A705" s="1"/>
-      <c r="B705" s="30"/>
+      <c r="B705" s="27"/>
       <c r="C705" s="17"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
@@ -17240,7 +17380,7 @@
     </row>
     <row r="706" spans="1:21" ht="18" customHeight="1">
       <c r="A706" s="1"/>
-      <c r="B706" s="30"/>
+      <c r="B706" s="27"/>
       <c r="C706" s="17"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
@@ -17263,7 +17403,7 @@
     </row>
     <row r="707" spans="1:21" ht="18" customHeight="1">
       <c r="A707" s="1"/>
-      <c r="B707" s="30"/>
+      <c r="B707" s="27"/>
       <c r="C707" s="17"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
@@ -17286,7 +17426,7 @@
     </row>
     <row r="708" spans="1:21" ht="18" customHeight="1">
       <c r="A708" s="1"/>
-      <c r="B708" s="30"/>
+      <c r="B708" s="27"/>
       <c r="C708" s="17"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
@@ -17309,7 +17449,7 @@
     </row>
     <row r="709" spans="1:21" ht="18" customHeight="1">
       <c r="A709" s="1"/>
-      <c r="B709" s="30"/>
+      <c r="B709" s="27"/>
       <c r="C709" s="17"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
@@ -17332,7 +17472,7 @@
     </row>
     <row r="710" spans="1:21" ht="18" customHeight="1">
       <c r="A710" s="1"/>
-      <c r="B710" s="30"/>
+      <c r="B710" s="27"/>
       <c r="C710" s="17"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
@@ -17355,7 +17495,7 @@
     </row>
     <row r="711" spans="1:21" ht="18" customHeight="1">
       <c r="A711" s="1"/>
-      <c r="B711" s="30"/>
+      <c r="B711" s="27"/>
       <c r="C711" s="17"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
@@ -17378,7 +17518,7 @@
     </row>
     <row r="712" spans="1:21" ht="18" customHeight="1">
       <c r="A712" s="1"/>
-      <c r="B712" s="30"/>
+      <c r="B712" s="27"/>
       <c r="C712" s="17"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
@@ -17401,7 +17541,7 @@
     </row>
     <row r="713" spans="1:21" ht="18" customHeight="1">
       <c r="A713" s="1"/>
-      <c r="B713" s="30"/>
+      <c r="B713" s="27"/>
       <c r="C713" s="17"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -17424,7 +17564,7 @@
     </row>
     <row r="714" spans="1:21" ht="18" customHeight="1">
       <c r="A714" s="1"/>
-      <c r="B714" s="30"/>
+      <c r="B714" s="27"/>
       <c r="C714" s="17"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
@@ -17447,7 +17587,7 @@
     </row>
     <row r="715" spans="1:21" ht="18" customHeight="1">
       <c r="A715" s="1"/>
-      <c r="B715" s="30"/>
+      <c r="B715" s="27"/>
       <c r="C715" s="17"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
@@ -17470,7 +17610,7 @@
     </row>
     <row r="716" spans="1:21" ht="18" customHeight="1">
       <c r="A716" s="1"/>
-      <c r="B716" s="30"/>
+      <c r="B716" s="27"/>
       <c r="C716" s="17"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
@@ -17493,7 +17633,7 @@
     </row>
     <row r="717" spans="1:21" ht="18" customHeight="1">
       <c r="A717" s="1"/>
-      <c r="B717" s="30"/>
+      <c r="B717" s="27"/>
       <c r="C717" s="17"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
@@ -17516,7 +17656,7 @@
     </row>
     <row r="718" spans="1:21" ht="18" customHeight="1">
       <c r="A718" s="1"/>
-      <c r="B718" s="30"/>
+      <c r="B718" s="27"/>
       <c r="C718" s="17"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
@@ -17539,7 +17679,7 @@
     </row>
     <row r="719" spans="1:21" ht="18" customHeight="1">
       <c r="A719" s="1"/>
-      <c r="B719" s="30"/>
+      <c r="B719" s="27"/>
       <c r="C719" s="17"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
@@ -17562,7 +17702,7 @@
     </row>
     <row r="720" spans="1:21" ht="18" customHeight="1">
       <c r="A720" s="1"/>
-      <c r="B720" s="30"/>
+      <c r="B720" s="27"/>
       <c r="C720" s="17"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
@@ -17585,7 +17725,7 @@
     </row>
     <row r="721" spans="1:21" ht="18" customHeight="1">
       <c r="A721" s="1"/>
-      <c r="B721" s="30"/>
+      <c r="B721" s="27"/>
       <c r="C721" s="17"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
@@ -17608,7 +17748,7 @@
     </row>
     <row r="722" spans="1:21" ht="18" customHeight="1">
       <c r="A722" s="1"/>
-      <c r="B722" s="30"/>
+      <c r="B722" s="27"/>
       <c r="C722" s="17"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
@@ -17631,7 +17771,7 @@
     </row>
     <row r="723" spans="1:21" ht="18" customHeight="1">
       <c r="A723" s="1"/>
-      <c r="B723" s="30"/>
+      <c r="B723" s="27"/>
       <c r="C723" s="17"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
@@ -17654,7 +17794,7 @@
     </row>
     <row r="724" spans="1:21" ht="18" customHeight="1">
       <c r="A724" s="1"/>
-      <c r="B724" s="30"/>
+      <c r="B724" s="27"/>
       <c r="C724" s="17"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -17677,7 +17817,7 @@
     </row>
     <row r="725" spans="1:21" ht="18" customHeight="1">
       <c r="A725" s="1"/>
-      <c r="B725" s="30"/>
+      <c r="B725" s="27"/>
       <c r="C725" s="17"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -17700,7 +17840,7 @@
     </row>
     <row r="726" spans="1:21" ht="18" customHeight="1">
       <c r="A726" s="1"/>
-      <c r="B726" s="30"/>
+      <c r="B726" s="27"/>
       <c r="C726" s="17"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
@@ -17723,7 +17863,7 @@
     </row>
     <row r="727" spans="1:21" ht="18" customHeight="1">
       <c r="A727" s="1"/>
-      <c r="B727" s="30"/>
+      <c r="B727" s="27"/>
       <c r="C727" s="17"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
@@ -17746,7 +17886,7 @@
     </row>
     <row r="728" spans="1:21" ht="18" customHeight="1">
       <c r="A728" s="1"/>
-      <c r="B728" s="30"/>
+      <c r="B728" s="27"/>
       <c r="C728" s="17"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
@@ -17769,7 +17909,7 @@
     </row>
     <row r="729" spans="1:21" ht="18" customHeight="1">
       <c r="A729" s="1"/>
-      <c r="B729" s="30"/>
+      <c r="B729" s="27"/>
       <c r="C729" s="17"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -17792,7 +17932,7 @@
     </row>
     <row r="730" spans="1:21" ht="18" customHeight="1">
       <c r="A730" s="1"/>
-      <c r="B730" s="30"/>
+      <c r="B730" s="27"/>
       <c r="C730" s="17"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -17815,7 +17955,7 @@
     </row>
     <row r="731" spans="1:21" ht="18" customHeight="1">
       <c r="A731" s="1"/>
-      <c r="B731" s="30"/>
+      <c r="B731" s="27"/>
       <c r="C731" s="17"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
@@ -17838,7 +17978,7 @@
     </row>
     <row r="732" spans="1:21" ht="18" customHeight="1">
       <c r="A732" s="1"/>
-      <c r="B732" s="30"/>
+      <c r="B732" s="27"/>
       <c r="C732" s="17"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
@@ -17861,7 +18001,7 @@
     </row>
     <row r="733" spans="1:21" ht="18" customHeight="1">
       <c r="A733" s="1"/>
-      <c r="B733" s="30"/>
+      <c r="B733" s="27"/>
       <c r="C733" s="17"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
@@ -17884,7 +18024,7 @@
     </row>
     <row r="734" spans="1:21" ht="18" customHeight="1">
       <c r="A734" s="1"/>
-      <c r="B734" s="30"/>
+      <c r="B734" s="27"/>
       <c r="C734" s="17"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
@@ -17907,7 +18047,7 @@
     </row>
     <row r="735" spans="1:21" ht="18" customHeight="1">
       <c r="A735" s="1"/>
-      <c r="B735" s="30"/>
+      <c r="B735" s="27"/>
       <c r="C735" s="17"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
@@ -17930,7 +18070,7 @@
     </row>
     <row r="736" spans="1:21" ht="18" customHeight="1">
       <c r="A736" s="1"/>
-      <c r="B736" s="30"/>
+      <c r="B736" s="27"/>
       <c r="C736" s="17"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -17953,7 +18093,7 @@
     </row>
     <row r="737" spans="1:21" ht="18" customHeight="1">
       <c r="A737" s="1"/>
-      <c r="B737" s="30"/>
+      <c r="B737" s="27"/>
       <c r="C737" s="17"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
@@ -17976,7 +18116,7 @@
     </row>
     <row r="738" spans="1:21" ht="18" customHeight="1">
       <c r="A738" s="1"/>
-      <c r="B738" s="30"/>
+      <c r="B738" s="27"/>
       <c r="C738" s="17"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -17999,7 +18139,7 @@
     </row>
     <row r="739" spans="1:21" ht="18" customHeight="1">
       <c r="A739" s="1"/>
-      <c r="B739" s="30"/>
+      <c r="B739" s="27"/>
       <c r="C739" s="17"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
@@ -18022,7 +18162,7 @@
     </row>
     <row r="740" spans="1:21" ht="18" customHeight="1">
       <c r="A740" s="1"/>
-      <c r="B740" s="30"/>
+      <c r="B740" s="27"/>
       <c r="C740" s="17"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
@@ -18045,7 +18185,7 @@
     </row>
     <row r="741" spans="1:21" ht="18" customHeight="1">
       <c r="A741" s="1"/>
-      <c r="B741" s="30"/>
+      <c r="B741" s="27"/>
       <c r="C741" s="17"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
@@ -18068,7 +18208,7 @@
     </row>
     <row r="742" spans="1:21" ht="18" customHeight="1">
       <c r="A742" s="1"/>
-      <c r="B742" s="30"/>
+      <c r="B742" s="27"/>
       <c r="C742" s="17"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
@@ -18091,7 +18231,7 @@
     </row>
     <row r="743" spans="1:21" ht="18" customHeight="1">
       <c r="A743" s="1"/>
-      <c r="B743" s="30"/>
+      <c r="B743" s="27"/>
       <c r="C743" s="17"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
@@ -18114,7 +18254,7 @@
     </row>
     <row r="744" spans="1:21" ht="18" customHeight="1">
       <c r="A744" s="1"/>
-      <c r="B744" s="30"/>
+      <c r="B744" s="27"/>
       <c r="C744" s="17"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
@@ -18137,7 +18277,7 @@
     </row>
     <row r="745" spans="1:21" ht="18" customHeight="1">
       <c r="A745" s="1"/>
-      <c r="B745" s="30"/>
+      <c r="B745" s="27"/>
       <c r="C745" s="17"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
@@ -18160,7 +18300,7 @@
     </row>
     <row r="746" spans="1:21" ht="18" customHeight="1">
       <c r="A746" s="1"/>
-      <c r="B746" s="30"/>
+      <c r="B746" s="27"/>
       <c r="C746" s="17"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
@@ -18183,7 +18323,7 @@
     </row>
     <row r="747" spans="1:21" ht="18" customHeight="1">
       <c r="A747" s="1"/>
-      <c r="B747" s="30"/>
+      <c r="B747" s="27"/>
       <c r="C747" s="17"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
@@ -18206,7 +18346,7 @@
     </row>
     <row r="748" spans="1:21" ht="18" customHeight="1">
       <c r="A748" s="1"/>
-      <c r="B748" s="30"/>
+      <c r="B748" s="27"/>
       <c r="C748" s="17"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
@@ -18229,7 +18369,7 @@
     </row>
     <row r="749" spans="1:21" ht="18" customHeight="1">
       <c r="A749" s="1"/>
-      <c r="B749" s="30"/>
+      <c r="B749" s="27"/>
       <c r="C749" s="17"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
@@ -18252,7 +18392,7 @@
     </row>
     <row r="750" spans="1:21" ht="18" customHeight="1">
       <c r="A750" s="1"/>
-      <c r="B750" s="30"/>
+      <c r="B750" s="27"/>
       <c r="C750" s="17"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
@@ -18275,7 +18415,7 @@
     </row>
     <row r="751" spans="1:21" ht="18" customHeight="1">
       <c r="A751" s="1"/>
-      <c r="B751" s="30"/>
+      <c r="B751" s="27"/>
       <c r="C751" s="17"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
@@ -18298,7 +18438,7 @@
     </row>
     <row r="752" spans="1:21" ht="18" customHeight="1">
       <c r="A752" s="1"/>
-      <c r="B752" s="30"/>
+      <c r="B752" s="27"/>
       <c r="C752" s="17"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
@@ -18321,7 +18461,7 @@
     </row>
     <row r="753" spans="1:21" ht="18" customHeight="1">
       <c r="A753" s="1"/>
-      <c r="B753" s="30"/>
+      <c r="B753" s="27"/>
       <c r="C753" s="17"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
@@ -18344,7 +18484,7 @@
     </row>
     <row r="754" spans="1:21" ht="18" customHeight="1">
       <c r="A754" s="1"/>
-      <c r="B754" s="30"/>
+      <c r="B754" s="27"/>
       <c r="C754" s="17"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
@@ -18367,7 +18507,7 @@
     </row>
     <row r="755" spans="1:21" ht="18" customHeight="1">
       <c r="A755" s="1"/>
-      <c r="B755" s="30"/>
+      <c r="B755" s="27"/>
       <c r="C755" s="17"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
@@ -18390,7 +18530,7 @@
     </row>
     <row r="756" spans="1:21" ht="18" customHeight="1">
       <c r="A756" s="1"/>
-      <c r="B756" s="30"/>
+      <c r="B756" s="27"/>
       <c r="C756" s="17"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -18413,7 +18553,7 @@
     </row>
     <row r="757" spans="1:21" ht="18" customHeight="1">
       <c r="A757" s="1"/>
-      <c r="B757" s="30"/>
+      <c r="B757" s="27"/>
       <c r="C757" s="17"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
@@ -18436,7 +18576,7 @@
     </row>
     <row r="758" spans="1:21" ht="18" customHeight="1">
       <c r="A758" s="1"/>
-      <c r="B758" s="30"/>
+      <c r="B758" s="27"/>
       <c r="C758" s="17"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
@@ -18459,7 +18599,7 @@
     </row>
     <row r="759" spans="1:21" ht="18" customHeight="1">
       <c r="A759" s="1"/>
-      <c r="B759" s="30"/>
+      <c r="B759" s="27"/>
       <c r="C759" s="17"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -18482,7 +18622,7 @@
     </row>
     <row r="760" spans="1:21" ht="18" customHeight="1">
       <c r="A760" s="1"/>
-      <c r="B760" s="30"/>
+      <c r="B760" s="27"/>
       <c r="C760" s="17"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -18505,7 +18645,7 @@
     </row>
     <row r="761" spans="1:21" ht="18" customHeight="1">
       <c r="A761" s="1"/>
-      <c r="B761" s="30"/>
+      <c r="B761" s="27"/>
       <c r="C761" s="17"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
@@ -18528,7 +18668,7 @@
     </row>
     <row r="762" spans="1:21" ht="18" customHeight="1">
       <c r="A762" s="1"/>
-      <c r="B762" s="30"/>
+      <c r="B762" s="27"/>
       <c r="C762" s="17"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -18551,7 +18691,7 @@
     </row>
     <row r="763" spans="1:21" ht="18" customHeight="1">
       <c r="A763" s="1"/>
-      <c r="B763" s="30"/>
+      <c r="B763" s="27"/>
       <c r="C763" s="17"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
@@ -18574,7 +18714,7 @@
     </row>
     <row r="764" spans="1:21" ht="18" customHeight="1">
       <c r="A764" s="1"/>
-      <c r="B764" s="30"/>
+      <c r="B764" s="27"/>
       <c r="C764" s="17"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
@@ -18597,7 +18737,7 @@
     </row>
     <row r="765" spans="1:21" ht="18" customHeight="1">
       <c r="A765" s="1"/>
-      <c r="B765" s="30"/>
+      <c r="B765" s="27"/>
       <c r="C765" s="17"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
@@ -18620,7 +18760,7 @@
     </row>
     <row r="766" spans="1:21" ht="18" customHeight="1">
       <c r="A766" s="1"/>
-      <c r="B766" s="30"/>
+      <c r="B766" s="27"/>
       <c r="C766" s="17"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
@@ -18643,7 +18783,7 @@
     </row>
     <row r="767" spans="1:21" ht="18" customHeight="1">
       <c r="A767" s="1"/>
-      <c r="B767" s="30"/>
+      <c r="B767" s="27"/>
       <c r="C767" s="17"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
@@ -18666,7 +18806,7 @@
     </row>
     <row r="768" spans="1:21" ht="18" customHeight="1">
       <c r="A768" s="1"/>
-      <c r="B768" s="30"/>
+      <c r="B768" s="27"/>
       <c r="C768" s="17"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
@@ -18689,7 +18829,7 @@
     </row>
     <row r="769" spans="1:21" ht="18" customHeight="1">
       <c r="A769" s="1"/>
-      <c r="B769" s="30"/>
+      <c r="B769" s="27"/>
       <c r="C769" s="17"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
@@ -18712,7 +18852,7 @@
     </row>
     <row r="770" spans="1:21" ht="18" customHeight="1">
       <c r="A770" s="1"/>
-      <c r="B770" s="30"/>
+      <c r="B770" s="27"/>
       <c r="C770" s="17"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
@@ -18735,7 +18875,7 @@
     </row>
     <row r="771" spans="1:21" ht="18" customHeight="1">
       <c r="A771" s="1"/>
-      <c r="B771" s="30"/>
+      <c r="B771" s="27"/>
       <c r="C771" s="17"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
@@ -18758,7 +18898,7 @@
     </row>
     <row r="772" spans="1:21" ht="18" customHeight="1">
       <c r="A772" s="1"/>
-      <c r="B772" s="30"/>
+      <c r="B772" s="27"/>
       <c r="C772" s="17"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
@@ -18781,7 +18921,7 @@
     </row>
     <row r="773" spans="1:21" ht="18" customHeight="1">
       <c r="A773" s="1"/>
-      <c r="B773" s="30"/>
+      <c r="B773" s="27"/>
       <c r="C773" s="17"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
@@ -18804,7 +18944,7 @@
     </row>
     <row r="774" spans="1:21" ht="18" customHeight="1">
       <c r="A774" s="1"/>
-      <c r="B774" s="30"/>
+      <c r="B774" s="27"/>
       <c r="C774" s="17"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
@@ -18827,7 +18967,7 @@
     </row>
     <row r="775" spans="1:21" ht="18" customHeight="1">
       <c r="A775" s="1"/>
-      <c r="B775" s="30"/>
+      <c r="B775" s="27"/>
       <c r="C775" s="17"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
@@ -18850,7 +18990,7 @@
     </row>
     <row r="776" spans="1:21" ht="18" customHeight="1">
       <c r="A776" s="1"/>
-      <c r="B776" s="30"/>
+      <c r="B776" s="27"/>
       <c r="C776" s="17"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
@@ -18873,7 +19013,7 @@
     </row>
     <row r="777" spans="1:21" ht="18" customHeight="1">
       <c r="A777" s="1"/>
-      <c r="B777" s="30"/>
+      <c r="B777" s="27"/>
       <c r="C777" s="17"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
@@ -18896,7 +19036,7 @@
     </row>
     <row r="778" spans="1:21" ht="18" customHeight="1">
       <c r="A778" s="1"/>
-      <c r="B778" s="30"/>
+      <c r="B778" s="27"/>
       <c r="C778" s="17"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
@@ -18919,7 +19059,7 @@
     </row>
     <row r="779" spans="1:21" ht="18" customHeight="1">
       <c r="A779" s="1"/>
-      <c r="B779" s="30"/>
+      <c r="B779" s="27"/>
       <c r="C779" s="17"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
@@ -18942,7 +19082,7 @@
     </row>
     <row r="780" spans="1:21" ht="18" customHeight="1">
       <c r="A780" s="1"/>
-      <c r="B780" s="30"/>
+      <c r="B780" s="27"/>
       <c r="C780" s="17"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
@@ -18965,7 +19105,7 @@
     </row>
     <row r="781" spans="1:21" ht="18" customHeight="1">
       <c r="A781" s="1"/>
-      <c r="B781" s="30"/>
+      <c r="B781" s="27"/>
       <c r="C781" s="17"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
@@ -18988,7 +19128,7 @@
     </row>
     <row r="782" spans="1:21" ht="18" customHeight="1">
       <c r="A782" s="1"/>
-      <c r="B782" s="30"/>
+      <c r="B782" s="27"/>
       <c r="C782" s="17"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
@@ -19011,7 +19151,7 @@
     </row>
     <row r="783" spans="1:21" ht="18" customHeight="1">
       <c r="A783" s="1"/>
-      <c r="B783" s="30"/>
+      <c r="B783" s="27"/>
       <c r="C783" s="17"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
@@ -19034,7 +19174,7 @@
     </row>
     <row r="784" spans="1:21" ht="18" customHeight="1">
       <c r="A784" s="1"/>
-      <c r="B784" s="30"/>
+      <c r="B784" s="27"/>
       <c r="C784" s="17"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
@@ -19057,7 +19197,7 @@
     </row>
     <row r="785" spans="1:21" ht="18" customHeight="1">
       <c r="A785" s="1"/>
-      <c r="B785" s="30"/>
+      <c r="B785" s="27"/>
       <c r="C785" s="17"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
@@ -19080,7 +19220,7 @@
     </row>
     <row r="786" spans="1:21" ht="18" customHeight="1">
       <c r="A786" s="1"/>
-      <c r="B786" s="30"/>
+      <c r="B786" s="27"/>
       <c r="C786" s="17"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
@@ -19103,7 +19243,7 @@
     </row>
     <row r="787" spans="1:21" ht="18" customHeight="1">
       <c r="A787" s="1"/>
-      <c r="B787" s="30"/>
+      <c r="B787" s="27"/>
       <c r="C787" s="17"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
@@ -19126,7 +19266,7 @@
     </row>
     <row r="788" spans="1:21" ht="18" customHeight="1">
       <c r="A788" s="1"/>
-      <c r="B788" s="30"/>
+      <c r="B788" s="27"/>
       <c r="C788" s="17"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -19149,7 +19289,7 @@
     </row>
     <row r="789" spans="1:21" ht="18" customHeight="1">
       <c r="A789" s="1"/>
-      <c r="B789" s="30"/>
+      <c r="B789" s="27"/>
       <c r="C789" s="17"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
@@ -19172,7 +19312,7 @@
     </row>
     <row r="790" spans="1:21" ht="18" customHeight="1">
       <c r="A790" s="1"/>
-      <c r="B790" s="30"/>
+      <c r="B790" s="27"/>
       <c r="C790" s="17"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
@@ -19195,7 +19335,7 @@
     </row>
     <row r="791" spans="1:21" ht="18" customHeight="1">
       <c r="A791" s="1"/>
-      <c r="B791" s="30"/>
+      <c r="B791" s="27"/>
       <c r="C791" s="17"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
@@ -19218,7 +19358,7 @@
     </row>
     <row r="792" spans="1:21" ht="18" customHeight="1">
       <c r="A792" s="1"/>
-      <c r="B792" s="30"/>
+      <c r="B792" s="27"/>
       <c r="C792" s="17"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
@@ -19241,7 +19381,7 @@
     </row>
     <row r="793" spans="1:21" ht="18" customHeight="1">
       <c r="A793" s="1"/>
-      <c r="B793" s="30"/>
+      <c r="B793" s="27"/>
       <c r="C793" s="17"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
@@ -19264,7 +19404,7 @@
     </row>
     <row r="794" spans="1:21" ht="18" customHeight="1">
       <c r="A794" s="1"/>
-      <c r="B794" s="30"/>
+      <c r="B794" s="27"/>
       <c r="C794" s="17"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
@@ -19287,7 +19427,7 @@
     </row>
     <row r="795" spans="1:21" ht="18" customHeight="1">
       <c r="A795" s="1"/>
-      <c r="B795" s="30"/>
+      <c r="B795" s="27"/>
       <c r="C795" s="17"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
@@ -19310,7 +19450,7 @@
     </row>
     <row r="796" spans="1:21" ht="18" customHeight="1">
       <c r="A796" s="1"/>
-      <c r="B796" s="30"/>
+      <c r="B796" s="27"/>
       <c r="C796" s="17"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
@@ -19333,7 +19473,7 @@
     </row>
     <row r="797" spans="1:21" ht="18" customHeight="1">
       <c r="A797" s="1"/>
-      <c r="B797" s="30"/>
+      <c r="B797" s="27"/>
       <c r="C797" s="17"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
@@ -19356,7 +19496,7 @@
     </row>
     <row r="798" spans="1:21" ht="18" customHeight="1">
       <c r="A798" s="1"/>
-      <c r="B798" s="30"/>
+      <c r="B798" s="27"/>
       <c r="C798" s="17"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
@@ -19379,7 +19519,7 @@
     </row>
     <row r="799" spans="1:21" ht="18" customHeight="1">
       <c r="A799" s="1"/>
-      <c r="B799" s="30"/>
+      <c r="B799" s="27"/>
       <c r="C799" s="17"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
@@ -19402,7 +19542,7 @@
     </row>
     <row r="800" spans="1:21" ht="18" customHeight="1">
       <c r="A800" s="1"/>
-      <c r="B800" s="30"/>
+      <c r="B800" s="27"/>
       <c r="C800" s="17"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
@@ -19425,7 +19565,7 @@
     </row>
     <row r="801" spans="1:21" ht="18" customHeight="1">
       <c r="A801" s="1"/>
-      <c r="B801" s="30"/>
+      <c r="B801" s="27"/>
       <c r="C801" s="17"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
@@ -19448,7 +19588,7 @@
     </row>
     <row r="802" spans="1:21" ht="18" customHeight="1">
       <c r="A802" s="1"/>
-      <c r="B802" s="30"/>
+      <c r="B802" s="27"/>
       <c r="C802" s="17"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
@@ -19471,7 +19611,7 @@
     </row>
     <row r="803" spans="1:21" ht="18" customHeight="1">
       <c r="A803" s="1"/>
-      <c r="B803" s="30"/>
+      <c r="B803" s="27"/>
       <c r="C803" s="17"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
@@ -19494,7 +19634,7 @@
     </row>
     <row r="804" spans="1:21" ht="18" customHeight="1">
       <c r="A804" s="1"/>
-      <c r="B804" s="30"/>
+      <c r="B804" s="27"/>
       <c r="C804" s="17"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -19517,7 +19657,7 @@
     </row>
     <row r="805" spans="1:21" ht="18" customHeight="1">
       <c r="A805" s="1"/>
-      <c r="B805" s="30"/>
+      <c r="B805" s="27"/>
       <c r="C805" s="17"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -19540,7 +19680,7 @@
     </row>
     <row r="806" spans="1:21" ht="18" customHeight="1">
       <c r="A806" s="1"/>
-      <c r="B806" s="30"/>
+      <c r="B806" s="27"/>
       <c r="C806" s="17"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -19563,7 +19703,7 @@
     </row>
     <row r="807" spans="1:21" ht="18" customHeight="1">
       <c r="A807" s="1"/>
-      <c r="B807" s="30"/>
+      <c r="B807" s="27"/>
       <c r="C807" s="17"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -19586,7 +19726,7 @@
     </row>
     <row r="808" spans="1:21" ht="18" customHeight="1">
       <c r="A808" s="1"/>
-      <c r="B808" s="30"/>
+      <c r="B808" s="27"/>
       <c r="C808" s="17"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
@@ -19609,7 +19749,7 @@
     </row>
     <row r="809" spans="1:21" ht="18" customHeight="1">
       <c r="A809" s="1"/>
-      <c r="B809" s="30"/>
+      <c r="B809" s="27"/>
       <c r="C809" s="17"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
@@ -19632,7 +19772,7 @@
     </row>
     <row r="810" spans="1:21" ht="18" customHeight="1">
       <c r="A810" s="1"/>
-      <c r="B810" s="30"/>
+      <c r="B810" s="27"/>
       <c r="C810" s="17"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
@@ -19655,7 +19795,7 @@
     </row>
     <row r="811" spans="1:21" ht="18" customHeight="1">
       <c r="A811" s="1"/>
-      <c r="B811" s="30"/>
+      <c r="B811" s="27"/>
       <c r="C811" s="17"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
@@ -19678,7 +19818,7 @@
     </row>
     <row r="812" spans="1:21" ht="18" customHeight="1">
       <c r="A812" s="1"/>
-      <c r="B812" s="30"/>
+      <c r="B812" s="27"/>
       <c r="C812" s="17"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
@@ -19701,7 +19841,7 @@
     </row>
     <row r="813" spans="1:21" ht="18" customHeight="1">
       <c r="A813" s="1"/>
-      <c r="B813" s="30"/>
+      <c r="B813" s="27"/>
       <c r="C813" s="17"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
@@ -19724,7 +19864,7 @@
     </row>
     <row r="814" spans="1:21" ht="18" customHeight="1">
       <c r="A814" s="1"/>
-      <c r="B814" s="30"/>
+      <c r="B814" s="27"/>
       <c r="C814" s="17"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
@@ -19747,7 +19887,7 @@
     </row>
     <row r="815" spans="1:21" ht="18" customHeight="1">
       <c r="A815" s="1"/>
-      <c r="B815" s="30"/>
+      <c r="B815" s="27"/>
       <c r="C815" s="17"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
@@ -19770,7 +19910,7 @@
     </row>
     <row r="816" spans="1:21" ht="18" customHeight="1">
       <c r="A816" s="1"/>
-      <c r="B816" s="30"/>
+      <c r="B816" s="27"/>
       <c r="C816" s="17"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -19793,7 +19933,7 @@
     </row>
     <row r="817" spans="1:21" ht="18" customHeight="1">
       <c r="A817" s="1"/>
-      <c r="B817" s="30"/>
+      <c r="B817" s="27"/>
       <c r="C817" s="17"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
@@ -19816,7 +19956,7 @@
     </row>
     <row r="818" spans="1:21" ht="18" customHeight="1">
       <c r="A818" s="1"/>
-      <c r="B818" s="30"/>
+      <c r="B818" s="27"/>
       <c r="C818" s="17"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
@@ -19839,7 +19979,7 @@
     </row>
     <row r="819" spans="1:21" ht="18" customHeight="1">
       <c r="A819" s="1"/>
-      <c r="B819" s="30"/>
+      <c r="B819" s="27"/>
       <c r="C819" s="17"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
@@ -19862,7 +20002,7 @@
     </row>
     <row r="820" spans="1:21" ht="18" customHeight="1">
       <c r="A820" s="1"/>
-      <c r="B820" s="30"/>
+      <c r="B820" s="27"/>
       <c r="C820" s="17"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
@@ -19885,7 +20025,7 @@
     </row>
     <row r="821" spans="1:21" ht="18" customHeight="1">
       <c r="A821" s="1"/>
-      <c r="B821" s="30"/>
+      <c r="B821" s="27"/>
       <c r="C821" s="17"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
@@ -19908,7 +20048,7 @@
     </row>
     <row r="822" spans="1:21" ht="18" customHeight="1">
       <c r="A822" s="1"/>
-      <c r="B822" s="30"/>
+      <c r="B822" s="27"/>
       <c r="C822" s="17"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
@@ -19931,7 +20071,7 @@
     </row>
     <row r="823" spans="1:21" ht="18" customHeight="1">
       <c r="A823" s="1"/>
-      <c r="B823" s="30"/>
+      <c r="B823" s="27"/>
       <c r="C823" s="17"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
@@ -19954,7 +20094,7 @@
     </row>
     <row r="824" spans="1:21" ht="18" customHeight="1">
       <c r="A824" s="1"/>
-      <c r="B824" s="30"/>
+      <c r="B824" s="27"/>
       <c r="C824" s="17"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
@@ -19977,7 +20117,7 @@
     </row>
     <row r="825" spans="1:21" ht="18" customHeight="1">
       <c r="A825" s="1"/>
-      <c r="B825" s="30"/>
+      <c r="B825" s="27"/>
       <c r="C825" s="17"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
@@ -20000,7 +20140,7 @@
     </row>
     <row r="826" spans="1:21" ht="18" customHeight="1">
       <c r="A826" s="1"/>
-      <c r="B826" s="30"/>
+      <c r="B826" s="27"/>
       <c r="C826" s="17"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
@@ -20023,7 +20163,7 @@
     </row>
     <row r="827" spans="1:21" ht="18" customHeight="1">
       <c r="A827" s="1"/>
-      <c r="B827" s="30"/>
+      <c r="B827" s="27"/>
       <c r="C827" s="17"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
@@ -20046,7 +20186,7 @@
     </row>
     <row r="828" spans="1:21" ht="18" customHeight="1">
       <c r="A828" s="1"/>
-      <c r="B828" s="30"/>
+      <c r="B828" s="27"/>
       <c r="C828" s="17"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
@@ -20069,7 +20209,7 @@
     </row>
     <row r="829" spans="1:21" ht="18" customHeight="1">
       <c r="A829" s="1"/>
-      <c r="B829" s="30"/>
+      <c r="B829" s="27"/>
       <c r="C829" s="17"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
@@ -20092,7 +20232,7 @@
     </row>
     <row r="830" spans="1:21" ht="18" customHeight="1">
       <c r="A830" s="1"/>
-      <c r="B830" s="30"/>
+      <c r="B830" s="27"/>
       <c r="C830" s="17"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
@@ -20115,7 +20255,7 @@
     </row>
     <row r="831" spans="1:21" ht="18" customHeight="1">
       <c r="A831" s="1"/>
-      <c r="B831" s="30"/>
+      <c r="B831" s="27"/>
       <c r="C831" s="17"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
@@ -20138,7 +20278,7 @@
     </row>
     <row r="832" spans="1:21" ht="18" customHeight="1">
       <c r="A832" s="1"/>
-      <c r="B832" s="30"/>
+      <c r="B832" s="27"/>
       <c r="C832" s="17"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
@@ -20161,7 +20301,7 @@
     </row>
     <row r="833" spans="1:21" ht="18" customHeight="1">
       <c r="A833" s="1"/>
-      <c r="B833" s="30"/>
+      <c r="B833" s="27"/>
       <c r="C833" s="17"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
@@ -20184,7 +20324,7 @@
     </row>
     <row r="834" spans="1:21" ht="18" customHeight="1">
       <c r="A834" s="1"/>
-      <c r="B834" s="30"/>
+      <c r="B834" s="27"/>
       <c r="C834" s="17"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
@@ -20207,7 +20347,7 @@
     </row>
     <row r="835" spans="1:21" ht="18" customHeight="1">
       <c r="A835" s="1"/>
-      <c r="B835" s="30"/>
+      <c r="B835" s="27"/>
       <c r="C835" s="17"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
@@ -20230,7 +20370,7 @@
     </row>
     <row r="836" spans="1:21" ht="18" customHeight="1">
       <c r="A836" s="1"/>
-      <c r="B836" s="30"/>
+      <c r="B836" s="27"/>
       <c r="C836" s="17"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
@@ -20253,7 +20393,7 @@
     </row>
     <row r="837" spans="1:21" ht="18" customHeight="1">
       <c r="A837" s="1"/>
-      <c r="B837" s="30"/>
+      <c r="B837" s="27"/>
       <c r="C837" s="17"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
@@ -20276,7 +20416,7 @@
     </row>
     <row r="838" spans="1:21" ht="18" customHeight="1">
       <c r="A838" s="1"/>
-      <c r="B838" s="30"/>
+      <c r="B838" s="27"/>
       <c r="C838" s="17"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
@@ -20299,7 +20439,7 @@
     </row>
     <row r="839" spans="1:21" ht="18" customHeight="1">
       <c r="A839" s="1"/>
-      <c r="B839" s="30"/>
+      <c r="B839" s="27"/>
       <c r="C839" s="17"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
@@ -20322,7 +20462,7 @@
     </row>
     <row r="840" spans="1:21" ht="18" customHeight="1">
       <c r="A840" s="1"/>
-      <c r="B840" s="30"/>
+      <c r="B840" s="27"/>
       <c r="C840" s="17"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
@@ -20345,7 +20485,7 @@
     </row>
     <row r="841" spans="1:21" ht="18" customHeight="1">
       <c r="A841" s="1"/>
-      <c r="B841" s="30"/>
+      <c r="B841" s="27"/>
       <c r="C841" s="17"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
@@ -20368,7 +20508,7 @@
     </row>
     <row r="842" spans="1:21" ht="18" customHeight="1">
       <c r="A842" s="1"/>
-      <c r="B842" s="30"/>
+      <c r="B842" s="27"/>
       <c r="C842" s="17"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
@@ -20391,7 +20531,7 @@
     </row>
     <row r="843" spans="1:21" ht="18" customHeight="1">
       <c r="A843" s="1"/>
-      <c r="B843" s="30"/>
+      <c r="B843" s="27"/>
       <c r="C843" s="17"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
@@ -20414,7 +20554,7 @@
     </row>
     <row r="844" spans="1:21" ht="18" customHeight="1">
       <c r="A844" s="1"/>
-      <c r="B844" s="30"/>
+      <c r="B844" s="27"/>
       <c r="C844" s="17"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
@@ -20437,7 +20577,7 @@
     </row>
     <row r="845" spans="1:21" ht="18" customHeight="1">
       <c r="A845" s="1"/>
-      <c r="B845" s="30"/>
+      <c r="B845" s="27"/>
       <c r="C845" s="17"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
@@ -20460,7 +20600,7 @@
     </row>
     <row r="846" spans="1:21" ht="18" customHeight="1">
       <c r="A846" s="1"/>
-      <c r="B846" s="30"/>
+      <c r="B846" s="27"/>
       <c r="C846" s="17"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -20483,7 +20623,7 @@
     </row>
     <row r="847" spans="1:21" ht="18" customHeight="1">
       <c r="A847" s="1"/>
-      <c r="B847" s="30"/>
+      <c r="B847" s="27"/>
       <c r="C847" s="17"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
@@ -20506,7 +20646,7 @@
     </row>
     <row r="848" spans="1:21" ht="18" customHeight="1">
       <c r="A848" s="1"/>
-      <c r="B848" s="30"/>
+      <c r="B848" s="27"/>
       <c r="C848" s="17"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
@@ -20529,7 +20669,7 @@
     </row>
     <row r="849" spans="1:21" ht="18" customHeight="1">
       <c r="A849" s="1"/>
-      <c r="B849" s="30"/>
+      <c r="B849" s="27"/>
       <c r="C849" s="17"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
@@ -20552,7 +20692,7 @@
     </row>
     <row r="850" spans="1:21" ht="18" customHeight="1">
       <c r="A850" s="1"/>
-      <c r="B850" s="30"/>
+      <c r="B850" s="27"/>
       <c r="C850" s="17"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
@@ -20575,7 +20715,7 @@
     </row>
     <row r="851" spans="1:21" ht="18" customHeight="1">
       <c r="A851" s="1"/>
-      <c r="B851" s="30"/>
+      <c r="B851" s="27"/>
       <c r="C851" s="17"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
@@ -20598,7 +20738,7 @@
     </row>
     <row r="852" spans="1:21" ht="18" customHeight="1">
       <c r="A852" s="1"/>
-      <c r="B852" s="30"/>
+      <c r="B852" s="27"/>
       <c r="C852" s="17"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
@@ -20621,7 +20761,7 @@
     </row>
     <row r="853" spans="1:21" ht="18" customHeight="1">
       <c r="A853" s="1"/>
-      <c r="B853" s="30"/>
+      <c r="B853" s="27"/>
       <c r="C853" s="17"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
@@ -20644,7 +20784,7 @@
     </row>
     <row r="854" spans="1:21" ht="18" customHeight="1">
       <c r="A854" s="1"/>
-      <c r="B854" s="30"/>
+      <c r="B854" s="27"/>
       <c r="C854" s="17"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
@@ -20667,7 +20807,7 @@
     </row>
     <row r="855" spans="1:21" ht="18" customHeight="1">
       <c r="A855" s="1"/>
-      <c r="B855" s="30"/>
+      <c r="B855" s="27"/>
       <c r="C855" s="17"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
@@ -20690,7 +20830,7 @@
     </row>
     <row r="856" spans="1:21" ht="18" customHeight="1">
       <c r="A856" s="1"/>
-      <c r="B856" s="30"/>
+      <c r="B856" s="27"/>
       <c r="C856" s="17"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
@@ -20713,7 +20853,7 @@
     </row>
     <row r="857" spans="1:21" ht="18" customHeight="1">
       <c r="A857" s="1"/>
-      <c r="B857" s="30"/>
+      <c r="B857" s="27"/>
       <c r="C857" s="17"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
@@ -20736,7 +20876,7 @@
     </row>
     <row r="858" spans="1:21" ht="18" customHeight="1">
       <c r="A858" s="1"/>
-      <c r="B858" s="30"/>
+      <c r="B858" s="27"/>
       <c r="C858" s="17"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
@@ -20759,7 +20899,7 @@
     </row>
     <row r="859" spans="1:21" ht="18" customHeight="1">
       <c r="A859" s="1"/>
-      <c r="B859" s="30"/>
+      <c r="B859" s="27"/>
       <c r="C859" s="17"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
@@ -20782,7 +20922,7 @@
     </row>
     <row r="860" spans="1:21" ht="18" customHeight="1">
       <c r="A860" s="1"/>
-      <c r="B860" s="30"/>
+      <c r="B860" s="27"/>
       <c r="C860" s="17"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
@@ -20805,7 +20945,7 @@
     </row>
     <row r="861" spans="1:21" ht="18" customHeight="1">
       <c r="A861" s="1"/>
-      <c r="B861" s="30"/>
+      <c r="B861" s="27"/>
       <c r="C861" s="17"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
@@ -20828,7 +20968,7 @@
     </row>
     <row r="862" spans="1:21" ht="18" customHeight="1">
       <c r="A862" s="1"/>
-      <c r="B862" s="30"/>
+      <c r="B862" s="27"/>
       <c r="C862" s="17"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
@@ -20851,7 +20991,7 @@
     </row>
     <row r="863" spans="1:21" ht="18" customHeight="1">
       <c r="A863" s="1"/>
-      <c r="B863" s="30"/>
+      <c r="B863" s="27"/>
       <c r="C863" s="17"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
@@ -20874,7 +21014,7 @@
     </row>
     <row r="864" spans="1:21" ht="18" customHeight="1">
       <c r="A864" s="1"/>
-      <c r="B864" s="30"/>
+      <c r="B864" s="27"/>
       <c r="C864" s="17"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
@@ -20897,7 +21037,7 @@
     </row>
     <row r="865" spans="1:21" ht="18" customHeight="1">
       <c r="A865" s="1"/>
-      <c r="B865" s="30"/>
+      <c r="B865" s="27"/>
       <c r="C865" s="17"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
@@ -20920,7 +21060,7 @@
     </row>
     <row r="866" spans="1:21" ht="18" customHeight="1">
       <c r="A866" s="1"/>
-      <c r="B866" s="30"/>
+      <c r="B866" s="27"/>
       <c r="C866" s="17"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
@@ -20943,7 +21083,7 @@
     </row>
     <row r="867" spans="1:21" ht="18" customHeight="1">
       <c r="A867" s="1"/>
-      <c r="B867" s="30"/>
+      <c r="B867" s="27"/>
       <c r="C867" s="17"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
@@ -20966,7 +21106,7 @@
     </row>
     <row r="868" spans="1:21" ht="18" customHeight="1">
       <c r="A868" s="1"/>
-      <c r="B868" s="30"/>
+      <c r="B868" s="27"/>
       <c r="C868" s="17"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
@@ -20989,7 +21129,7 @@
     </row>
     <row r="869" spans="1:21" ht="18" customHeight="1">
       <c r="A869" s="1"/>
-      <c r="B869" s="30"/>
+      <c r="B869" s="27"/>
       <c r="C869" s="17"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
@@ -21012,7 +21152,7 @@
     </row>
     <row r="870" spans="1:21" ht="18" customHeight="1">
       <c r="A870" s="1"/>
-      <c r="B870" s="30"/>
+      <c r="B870" s="27"/>
       <c r="C870" s="17"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
@@ -21035,7 +21175,7 @@
     </row>
     <row r="871" spans="1:21" ht="18" customHeight="1">
       <c r="A871" s="1"/>
-      <c r="B871" s="30"/>
+      <c r="B871" s="27"/>
       <c r="C871" s="17"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
@@ -21058,7 +21198,7 @@
     </row>
     <row r="872" spans="1:21" ht="18" customHeight="1">
       <c r="A872" s="1"/>
-      <c r="B872" s="30"/>
+      <c r="B872" s="27"/>
       <c r="C872" s="17"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
@@ -21081,7 +21221,7 @@
     </row>
     <row r="873" spans="1:21" ht="18" customHeight="1">
       <c r="A873" s="1"/>
-      <c r="B873" s="30"/>
+      <c r="B873" s="27"/>
       <c r="C873" s="17"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
@@ -21104,7 +21244,7 @@
     </row>
     <row r="874" spans="1:21" ht="18" customHeight="1">
       <c r="A874" s="1"/>
-      <c r="B874" s="30"/>
+      <c r="B874" s="27"/>
       <c r="C874" s="17"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
@@ -21127,7 +21267,7 @@
     </row>
     <row r="875" spans="1:21" ht="18" customHeight="1">
       <c r="A875" s="1"/>
-      <c r="B875" s="30"/>
+      <c r="B875" s="27"/>
       <c r="C875" s="17"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
@@ -21150,7 +21290,7 @@
     </row>
     <row r="876" spans="1:21" ht="18" customHeight="1">
       <c r="A876" s="1"/>
-      <c r="B876" s="30"/>
+      <c r="B876" s="27"/>
       <c r="C876" s="17"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
@@ -21173,7 +21313,7 @@
     </row>
     <row r="877" spans="1:21" ht="18" customHeight="1">
       <c r="A877" s="1"/>
-      <c r="B877" s="30"/>
+      <c r="B877" s="27"/>
       <c r="C877" s="17"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
@@ -21196,7 +21336,7 @@
     </row>
     <row r="878" spans="1:21" ht="18" customHeight="1">
       <c r="A878" s="1"/>
-      <c r="B878" s="30"/>
+      <c r="B878" s="27"/>
       <c r="C878" s="17"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
@@ -21219,7 +21359,7 @@
     </row>
     <row r="879" spans="1:21" ht="18" customHeight="1">
       <c r="A879" s="1"/>
-      <c r="B879" s="30"/>
+      <c r="B879" s="27"/>
       <c r="C879" s="17"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
@@ -21242,7 +21382,7 @@
     </row>
     <row r="880" spans="1:21" ht="18" customHeight="1">
       <c r="A880" s="1"/>
-      <c r="B880" s="30"/>
+      <c r="B880" s="27"/>
       <c r="C880" s="17"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
@@ -21265,7 +21405,7 @@
     </row>
     <row r="881" spans="1:21" ht="18" customHeight="1">
       <c r="A881" s="1"/>
-      <c r="B881" s="30"/>
+      <c r="B881" s="27"/>
       <c r="C881" s="17"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
@@ -21288,7 +21428,7 @@
     </row>
     <row r="882" spans="1:21" ht="18" customHeight="1">
       <c r="A882" s="1"/>
-      <c r="B882" s="30"/>
+      <c r="B882" s="27"/>
       <c r="C882" s="17"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
@@ -21311,7 +21451,7 @@
     </row>
     <row r="883" spans="1:21" ht="18" customHeight="1">
       <c r="A883" s="1"/>
-      <c r="B883" s="30"/>
+      <c r="B883" s="27"/>
       <c r="C883" s="17"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
@@ -21334,7 +21474,7 @@
     </row>
     <row r="884" spans="1:21" ht="18" customHeight="1">
       <c r="A884" s="1"/>
-      <c r="B884" s="30"/>
+      <c r="B884" s="27"/>
       <c r="C884" s="17"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
@@ -21357,7 +21497,7 @@
     </row>
     <row r="885" spans="1:21" ht="18" customHeight="1">
       <c r="A885" s="1"/>
-      <c r="B885" s="30"/>
+      <c r="B885" s="27"/>
       <c r="C885" s="17"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
@@ -21380,7 +21520,7 @@
     </row>
     <row r="886" spans="1:21" ht="18" customHeight="1">
       <c r="A886" s="1"/>
-      <c r="B886" s="30"/>
+      <c r="B886" s="27"/>
       <c r="C886" s="17"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
@@ -21403,7 +21543,7 @@
     </row>
     <row r="887" spans="1:21" ht="18" customHeight="1">
       <c r="A887" s="1"/>
-      <c r="B887" s="30"/>
+      <c r="B887" s="27"/>
       <c r="C887" s="17"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
@@ -21426,7 +21566,7 @@
     </row>
     <row r="888" spans="1:21" ht="18" customHeight="1">
       <c r="A888" s="1"/>
-      <c r="B888" s="30"/>
+      <c r="B888" s="27"/>
       <c r="C888" s="17"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
@@ -21449,7 +21589,7 @@
     </row>
     <row r="889" spans="1:21" ht="18" customHeight="1">
       <c r="A889" s="1"/>
-      <c r="B889" s="30"/>
+      <c r="B889" s="27"/>
       <c r="C889" s="17"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
@@ -21472,7 +21612,7 @@
     </row>
     <row r="890" spans="1:21" ht="18" customHeight="1">
       <c r="A890" s="1"/>
-      <c r="B890" s="30"/>
+      <c r="B890" s="27"/>
       <c r="C890" s="17"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
@@ -21495,7 +21635,7 @@
     </row>
     <row r="891" spans="1:21" ht="18" customHeight="1">
       <c r="A891" s="1"/>
-      <c r="B891" s="30"/>
+      <c r="B891" s="27"/>
       <c r="C891" s="17"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
@@ -21518,7 +21658,7 @@
     </row>
     <row r="892" spans="1:21" ht="18" customHeight="1">
       <c r="A892" s="1"/>
-      <c r="B892" s="30"/>
+      <c r="B892" s="27"/>
       <c r="C892" s="17"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
@@ -21541,7 +21681,7 @@
     </row>
     <row r="893" spans="1:21" ht="18" customHeight="1">
       <c r="A893" s="1"/>
-      <c r="B893" s="30"/>
+      <c r="B893" s="27"/>
       <c r="C893" s="17"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
@@ -21564,7 +21704,7 @@
     </row>
     <row r="894" spans="1:21" ht="18" customHeight="1">
       <c r="A894" s="1"/>
-      <c r="B894" s="30"/>
+      <c r="B894" s="27"/>
       <c r="C894" s="17"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
@@ -21587,7 +21727,7 @@
     </row>
     <row r="895" spans="1:21" ht="18" customHeight="1">
       <c r="A895" s="1"/>
-      <c r="B895" s="30"/>
+      <c r="B895" s="27"/>
       <c r="C895" s="17"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
@@ -21610,7 +21750,7 @@
     </row>
     <row r="896" spans="1:21" ht="18" customHeight="1">
       <c r="A896" s="1"/>
-      <c r="B896" s="30"/>
+      <c r="B896" s="27"/>
       <c r="C896" s="17"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
@@ -21633,7 +21773,7 @@
     </row>
     <row r="897" spans="1:21" ht="18" customHeight="1">
       <c r="A897" s="1"/>
-      <c r="B897" s="30"/>
+      <c r="B897" s="27"/>
       <c r="C897" s="17"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
@@ -21656,7 +21796,7 @@
     </row>
     <row r="898" spans="1:21" ht="18" customHeight="1">
       <c r="A898" s="1"/>
-      <c r="B898" s="30"/>
+      <c r="B898" s="27"/>
       <c r="C898" s="17"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
@@ -21679,7 +21819,7 @@
     </row>
     <row r="899" spans="1:21" ht="18" customHeight="1">
       <c r="A899" s="1"/>
-      <c r="B899" s="30"/>
+      <c r="B899" s="27"/>
       <c r="C899" s="17"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
@@ -21702,7 +21842,7 @@
     </row>
     <row r="900" spans="1:21" ht="18" customHeight="1">
       <c r="A900" s="1"/>
-      <c r="B900" s="30"/>
+      <c r="B900" s="27"/>
       <c r="C900" s="17"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
@@ -21725,7 +21865,7 @@
     </row>
     <row r="901" spans="1:21" ht="18" customHeight="1">
       <c r="A901" s="1"/>
-      <c r="B901" s="30"/>
+      <c r="B901" s="27"/>
       <c r="C901" s="17"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
@@ -21748,7 +21888,7 @@
     </row>
     <row r="902" spans="1:21" ht="18" customHeight="1">
       <c r="A902" s="1"/>
-      <c r="B902" s="30"/>
+      <c r="B902" s="27"/>
       <c r="C902" s="17"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
@@ -21771,7 +21911,7 @@
     </row>
     <row r="903" spans="1:21" ht="18" customHeight="1">
       <c r="A903" s="1"/>
-      <c r="B903" s="30"/>
+      <c r="B903" s="27"/>
       <c r="C903" s="17"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
@@ -21794,7 +21934,7 @@
     </row>
     <row r="904" spans="1:21" ht="18" customHeight="1">
       <c r="A904" s="1"/>
-      <c r="B904" s="30"/>
+      <c r="B904" s="27"/>
       <c r="C904" s="17"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
@@ -21817,7 +21957,7 @@
     </row>
     <row r="905" spans="1:21" ht="18" customHeight="1">
       <c r="A905" s="1"/>
-      <c r="B905" s="30"/>
+      <c r="B905" s="27"/>
       <c r="C905" s="17"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
@@ -21840,7 +21980,7 @@
     </row>
     <row r="906" spans="1:21" ht="18" customHeight="1">
       <c r="A906" s="1"/>
-      <c r="B906" s="30"/>
+      <c r="B906" s="27"/>
       <c r="C906" s="17"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
@@ -21863,7 +22003,7 @@
     </row>
     <row r="907" spans="1:21" ht="18" customHeight="1">
       <c r="A907" s="1"/>
-      <c r="B907" s="30"/>
+      <c r="B907" s="27"/>
       <c r="C907" s="17"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
@@ -21886,7 +22026,7 @@
     </row>
     <row r="908" spans="1:21" ht="18" customHeight="1">
       <c r="A908" s="1"/>
-      <c r="B908" s="30"/>
+      <c r="B908" s="27"/>
       <c r="C908" s="17"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
@@ -21909,7 +22049,7 @@
     </row>
     <row r="909" spans="1:21" ht="18" customHeight="1">
       <c r="A909" s="1"/>
-      <c r="B909" s="30"/>
+      <c r="B909" s="27"/>
       <c r="C909" s="17"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
@@ -21932,7 +22072,7 @@
     </row>
     <row r="910" spans="1:21" ht="18" customHeight="1">
       <c r="A910" s="1"/>
-      <c r="B910" s="30"/>
+      <c r="B910" s="27"/>
       <c r="C910" s="17"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
@@ -21955,7 +22095,7 @@
     </row>
     <row r="911" spans="1:21" ht="18" customHeight="1">
       <c r="A911" s="1"/>
-      <c r="B911" s="30"/>
+      <c r="B911" s="27"/>
       <c r="C911" s="17"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
@@ -21978,7 +22118,7 @@
     </row>
     <row r="912" spans="1:21" ht="18" customHeight="1">
       <c r="A912" s="1"/>
-      <c r="B912" s="30"/>
+      <c r="B912" s="27"/>
       <c r="C912" s="17"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
@@ -22001,7 +22141,7 @@
     </row>
     <row r="913" spans="1:21" ht="18" customHeight="1">
       <c r="A913" s="1"/>
-      <c r="B913" s="30"/>
+      <c r="B913" s="27"/>
       <c r="C913" s="17"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
@@ -22024,7 +22164,7 @@
     </row>
     <row r="914" spans="1:21" ht="18" customHeight="1">
       <c r="A914" s="1"/>
-      <c r="B914" s="30"/>
+      <c r="B914" s="27"/>
       <c r="C914" s="17"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
@@ -22047,7 +22187,7 @@
     </row>
     <row r="915" spans="1:21" ht="18" customHeight="1">
       <c r="A915" s="1"/>
-      <c r="B915" s="30"/>
+      <c r="B915" s="27"/>
       <c r="C915" s="17"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
@@ -22070,7 +22210,7 @@
     </row>
     <row r="916" spans="1:21" ht="18" customHeight="1">
       <c r="A916" s="1"/>
-      <c r="B916" s="30"/>
+      <c r="B916" s="27"/>
       <c r="C916" s="17"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
@@ -22093,7 +22233,7 @@
     </row>
     <row r="917" spans="1:21" ht="18" customHeight="1">
       <c r="A917" s="1"/>
-      <c r="B917" s="30"/>
+      <c r="B917" s="27"/>
       <c r="C917" s="17"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
@@ -22116,7 +22256,7 @@
     </row>
     <row r="918" spans="1:21" ht="18" customHeight="1">
       <c r="A918" s="1"/>
-      <c r="B918" s="30"/>
+      <c r="B918" s="27"/>
       <c r="C918" s="17"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
@@ -22139,7 +22279,7 @@
     </row>
     <row r="919" spans="1:21" ht="18" customHeight="1">
       <c r="A919" s="1"/>
-      <c r="B919" s="30"/>
+      <c r="B919" s="27"/>
       <c r="C919" s="17"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
@@ -22162,7 +22302,7 @@
     </row>
     <row r="920" spans="1:21" ht="18" customHeight="1">
       <c r="A920" s="1"/>
-      <c r="B920" s="30"/>
+      <c r="B920" s="27"/>
       <c r="C920" s="17"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
@@ -22185,7 +22325,7 @@
     </row>
     <row r="921" spans="1:21" ht="18" customHeight="1">
       <c r="A921" s="1"/>
-      <c r="B921" s="30"/>
+      <c r="B921" s="27"/>
       <c r="C921" s="17"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
@@ -22208,7 +22348,7 @@
     </row>
     <row r="922" spans="1:21" ht="18" customHeight="1">
       <c r="A922" s="1"/>
-      <c r="B922" s="30"/>
+      <c r="B922" s="27"/>
       <c r="C922" s="17"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
@@ -22231,7 +22371,7 @@
     </row>
     <row r="923" spans="1:21" ht="18" customHeight="1">
       <c r="A923" s="1"/>
-      <c r="B923" s="30"/>
+      <c r="B923" s="27"/>
       <c r="C923" s="17"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
@@ -22254,7 +22394,7 @@
     </row>
     <row r="924" spans="1:21" ht="18" customHeight="1">
       <c r="A924" s="1"/>
-      <c r="B924" s="30"/>
+      <c r="B924" s="27"/>
       <c r="C924" s="17"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
@@ -22277,7 +22417,7 @@
     </row>
     <row r="925" spans="1:21" ht="18" customHeight="1">
       <c r="A925" s="1"/>
-      <c r="B925" s="30"/>
+      <c r="B925" s="27"/>
       <c r="C925" s="17"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
@@ -22300,7 +22440,7 @@
     </row>
     <row r="926" spans="1:21" ht="18" customHeight="1">
       <c r="A926" s="1"/>
-      <c r="B926" s="30"/>
+      <c r="B926" s="27"/>
       <c r="C926" s="17"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
@@ -22323,7 +22463,7 @@
     </row>
     <row r="927" spans="1:21" ht="18" customHeight="1">
       <c r="A927" s="1"/>
-      <c r="B927" s="30"/>
+      <c r="B927" s="27"/>
       <c r="C927" s="17"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
@@ -22346,7 +22486,7 @@
     </row>
     <row r="928" spans="1:21" ht="18" customHeight="1">
       <c r="A928" s="1"/>
-      <c r="B928" s="30"/>
+      <c r="B928" s="27"/>
       <c r="C928" s="17"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
@@ -22369,7 +22509,7 @@
     </row>
     <row r="929" spans="1:21" ht="18" customHeight="1">
       <c r="A929" s="1"/>
-      <c r="B929" s="30"/>
+      <c r="B929" s="27"/>
       <c r="C929" s="17"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
@@ -22392,7 +22532,7 @@
     </row>
     <row r="930" spans="1:21" ht="18" customHeight="1">
       <c r="A930" s="1"/>
-      <c r="B930" s="30"/>
+      <c r="B930" s="27"/>
       <c r="C930" s="17"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
@@ -22415,7 +22555,7 @@
     </row>
     <row r="931" spans="1:21" ht="18" customHeight="1">
       <c r="A931" s="1"/>
-      <c r="B931" s="30"/>
+      <c r="B931" s="27"/>
       <c r="C931" s="17"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
@@ -22438,7 +22578,7 @@
     </row>
     <row r="932" spans="1:21" ht="18" customHeight="1">
       <c r="A932" s="1"/>
-      <c r="B932" s="30"/>
+      <c r="B932" s="27"/>
       <c r="C932" s="17"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
@@ -22461,7 +22601,7 @@
     </row>
     <row r="933" spans="1:21" ht="18" customHeight="1">
       <c r="A933" s="1"/>
-      <c r="B933" s="30"/>
+      <c r="B933" s="27"/>
       <c r="C933" s="17"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
@@ -22484,7 +22624,7 @@
     </row>
     <row r="934" spans="1:21" ht="18" customHeight="1">
       <c r="A934" s="1"/>
-      <c r="B934" s="30"/>
+      <c r="B934" s="27"/>
       <c r="C934" s="17"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
@@ -22507,7 +22647,7 @@
     </row>
     <row r="935" spans="1:21" ht="18" customHeight="1">
       <c r="A935" s="1"/>
-      <c r="B935" s="30"/>
+      <c r="B935" s="27"/>
       <c r="C935" s="17"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
@@ -22530,7 +22670,7 @@
     </row>
     <row r="936" spans="1:21" ht="18" customHeight="1">
       <c r="A936" s="1"/>
-      <c r="B936" s="30"/>
+      <c r="B936" s="27"/>
       <c r="C936" s="17"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
@@ -22553,7 +22693,7 @@
     </row>
     <row r="937" spans="1:21" ht="18" customHeight="1">
       <c r="A937" s="1"/>
-      <c r="B937" s="30"/>
+      <c r="B937" s="27"/>
       <c r="C937" s="17"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
@@ -22576,7 +22716,7 @@
     </row>
     <row r="938" spans="1:21" ht="18" customHeight="1">
       <c r="A938" s="1"/>
-      <c r="B938" s="30"/>
+      <c r="B938" s="27"/>
       <c r="C938" s="17"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
@@ -22599,7 +22739,7 @@
     </row>
     <row r="939" spans="1:21" ht="18" customHeight="1">
       <c r="A939" s="1"/>
-      <c r="B939" s="30"/>
+      <c r="B939" s="27"/>
       <c r="C939" s="17"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
@@ -22622,7 +22762,7 @@
     </row>
     <row r="940" spans="1:21" ht="18" customHeight="1">
       <c r="A940" s="1"/>
-      <c r="B940" s="30"/>
+      <c r="B940" s="27"/>
       <c r="C940" s="17"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
@@ -22645,7 +22785,7 @@
     </row>
     <row r="941" spans="1:21" ht="18" customHeight="1">
       <c r="A941" s="1"/>
-      <c r="B941" s="30"/>
+      <c r="B941" s="27"/>
       <c r="C941" s="17"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
@@ -22668,7 +22808,7 @@
     </row>
     <row r="942" spans="1:21" ht="18" customHeight="1">
       <c r="A942" s="1"/>
-      <c r="B942" s="30"/>
+      <c r="B942" s="27"/>
       <c r="C942" s="17"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
@@ -22691,7 +22831,7 @@
     </row>
     <row r="943" spans="1:21" ht="18" customHeight="1">
       <c r="A943" s="1"/>
-      <c r="B943" s="30"/>
+      <c r="B943" s="27"/>
       <c r="C943" s="17"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
@@ -22714,7 +22854,7 @@
     </row>
     <row r="944" spans="1:21" ht="18" customHeight="1">
       <c r="A944" s="1"/>
-      <c r="B944" s="30"/>
+      <c r="B944" s="27"/>
       <c r="C944" s="17"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
@@ -22737,7 +22877,7 @@
     </row>
     <row r="945" spans="1:21" ht="18" customHeight="1">
       <c r="A945" s="1"/>
-      <c r="B945" s="30"/>
+      <c r="B945" s="27"/>
       <c r="C945" s="17"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
@@ -22760,7 +22900,7 @@
     </row>
     <row r="946" spans="1:21" ht="18" customHeight="1">
       <c r="A946" s="1"/>
-      <c r="B946" s="30"/>
+      <c r="B946" s="27"/>
       <c r="C946" s="17"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
@@ -22783,7 +22923,7 @@
     </row>
     <row r="947" spans="1:21" ht="18" customHeight="1">
       <c r="A947" s="1"/>
-      <c r="B947" s="30"/>
+      <c r="B947" s="27"/>
       <c r="C947" s="17"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
@@ -22807,17 +22947,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{06AFEFC9-E1E0-724D-9588-E5C8FB0CBA2C}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=rkeOwEgCN" xr:uid="{69D59F96-DC1D-2042-ACF3-843EE6A4EBA7}"/>
-    <hyperlink ref="D18" r:id="rId3" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{18533D33-B490-4845-BF5D-24BBE6FE1AB4}"/>
-    <hyperlink ref="D19" r:id="rId4" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{7180FDCF-619A-0647-A045-E37DA8813888}"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=EekmuNvCT" xr:uid="{D1E28D24-1ABA-CB4B-998F-D3C343BDCAF1}"/>
-    <hyperlink ref="D21" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{B3EC027A-E804-BC48-9268-DFE8AEC10637}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{E8670E05-844E-4E40-A619-C5A1C220444C}"/>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{2997FB96-38FF-430F-A1D2-5372F634E15E}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{C16D5A74-AB6C-4085-8873-EF1D0618BFD8}"/>
+    <hyperlink ref="D21" r:id="rId3" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{30B58C98-CCB1-4B79-898C-81977D07485A}"/>
+    <hyperlink ref="D20" r:id="rId4" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=EekmuNvCT" xr:uid="{0408BD36-CA9B-4F0F-8916-286C864565E4}"/>
+    <hyperlink ref="D19" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{9B94F02D-0C78-4863-98AB-248424E4AD16}"/>
+    <hyperlink ref="D18" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{98B7B5F5-356F-4449-BDB7-3F81EEE2D7A3}"/>
+    <hyperlink ref="D17" r:id="rId7" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=rkeOwEgCN" xr:uid="{C2B206F0-70D8-4DD2-969A-29E484AAEA83}"/>
+    <hyperlink ref="D16" r:id="rId8" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{953CA7E0-441B-4B02-99C7-2B9708DAF0E2}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22988,12 +23129,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -23002,14 +23137,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
 </file>